--- a/QALD9-Plus-testing/zero-shot-entity-aligned/wikidata-to-dbpedia/comparison_results_lama_dbpedia.xlsx
+++ b/QALD9-Plus-testing/zero-shot-entity-aligned/wikidata-to-dbpedia/comparison_results_lama_dbpedia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,17 +478,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Who developed Skype?</t>
+          <t>Which films did Stanley Kubrick direct?</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Skype_Technologies']</t>
+          <t>['http://dbpedia.org/resource/2001:_A_Space_Odyssey_(film)', 'http://dbpedia.org/resource/A_Clockwork_Orange_(film)', 'http://dbpedia.org/resource/Barry_Lyndon', 'http://dbpedia.org/resource/Day_of_the_Fight', 'http://dbpedia.org/resource/Dr._Strangelove', 'http://dbpedia.org/resource/Eyes_Wide_Shut', 'http://dbpedia.org/resource/Fear_and_Desire', 'http://dbpedia.org/resource/Flying_Padre', 'http://dbpedia.org/resource/Full_Metal_Jacket', "http://dbpedia.org/resource/Killer's_Kiss", 'http://dbpedia.org/resource/Lolita_(1962_film)', 'http://dbpedia.org/resource/Paths_of_Glory', 'http://dbpedia.org/resource/Spartacus_(film)', 'http://dbpedia.org/resource/The_Killing_(film)__The_Killing__1', 'http://dbpedia.org/resource/The_Seafarers__The_Seafarers__1', 'http://dbpedia.org/resource/The_Shining_(film)']</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Skype_Technologies']</t>
+          <t>['http://dbpedia.org/resource/2001:_A_Space_Odyssey_(film)', 'http://dbpedia.org/resource/A_Clockwork_Orange_(film)', 'http://dbpedia.org/resource/Barry_Lyndon', 'http://dbpedia.org/resource/Day_of_the_Fight', 'http://dbpedia.org/resource/Dr._Strangelove', 'http://dbpedia.org/resource/Eyes_Wide_Shut', 'http://dbpedia.org/resource/Fear_and_Desire', 'http://dbpedia.org/resource/Flying_Padre', 'http://dbpedia.org/resource/Full_Metal_Jacket', "http://dbpedia.org/resource/Killer's_Kiss", 'http://dbpedia.org/resource/Lolita_(1962_film)', 'http://dbpedia.org/resource/Paths_of_Glory', 'http://dbpedia.org/resource/Spartacus_(film)', 'http://dbpedia.org/resource/The_Killing_(film)__The_Killing__1', 'http://dbpedia.org/resource/The_Seafarers__The_Seafarers__1', 'http://dbpedia.org/resource/The_Shining_(film)']</t>
         </is>
       </c>
       <c r="D3" t="b">
@@ -498,17 +498,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Give me all actors starring in movies directed by William Shatner.</t>
+          <t>List all the musicals with music by Elton John.</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/DeForest_Kelley', 'http://dbpedia.org/resource/George_Takei', 'http://dbpedia.org/resource/James_Doohan', 'http://dbpedia.org/resource/Leonard_Nimoy', 'http://dbpedia.org/resource/Nichelle_Nichols', 'http://dbpedia.org/resource/Walter_Koenig', 'http://dbpedia.org/resource/William_Shatner']</t>
+          <t>['http://dbpedia.org/resource/Aida_(musical)', 'http://dbpedia.org/resource/Billy_Elliot_the_Musical', 'http://dbpedia.org/resource/Lestat_(musical)', 'http://dbpedia.org/resource/Tammy_Faye_(musical)', 'http://dbpedia.org/resource/The_Devil_Wears_Prada_(musical)', 'http://dbpedia.org/resource/The_Lion_King_(musical)']</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/DeForest_Kelley', 'http://dbpedia.org/resource/George_Takei', 'http://dbpedia.org/resource/James_Doohan', 'http://dbpedia.org/resource/Leonard_Nimoy', 'http://dbpedia.org/resource/Nichelle_Nichols', 'http://dbpedia.org/resource/Walter_Koenig', 'http://dbpedia.org/resource/William_Shatner']</t>
+          <t>['http://dbpedia.org/resource/Aida_(musical)', 'http://dbpedia.org/resource/Billy_Elliot_the_Musical', 'http://dbpedia.org/resource/Lestat_(musical)', 'http://dbpedia.org/resource/Tammy_Faye_(musical)', 'http://dbpedia.org/resource/The_Devil_Wears_Prada_(musical)', 'http://dbpedia.org/resource/The_Lion_King_(musical)']</t>
         </is>
       </c>
       <c r="D4" t="b">
@@ -518,17 +518,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>How many films did Leonardo DiCaprio star in?</t>
+          <t>Who developed Skype?</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['33']</t>
+          <t>['http://dbpedia.org/resource/Skype_Technologies']</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['33']</t>
+          <t>['http://dbpedia.org/resource/Skype_Technologies']</t>
         </is>
       </c>
       <c r="D5" t="b">
@@ -538,17 +538,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>When was Olof Palme shot?</t>
+          <t>Show a list of soccer clubs that play in the Bundesliga.</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['1986-02-28']</t>
+          <t>['http://dbpedia.org/resource/1969–70_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1971–72_VfL_Bochum_season', 'http://dbpedia.org/resource/1972–73_VfL_Bochum_season', 'http://dbpedia.org/resource/1973–74_VfL_Bochum_season', 'http://dbpedia.org/resource/1974–75_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1974–75_VfL_Bochum_season', 'http://dbpedia.org/resource/1975–76_VfL_Bochum_season', 'http://dbpedia.org/resource/1976–77_Tennis_Borussia_Berlin_season', 'http://dbpedia.org/resource/1976–77_VfL_Bochum_season', 'http://dbpedia.org/resource/1977–78_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1977–78_VfL_Bochum_season', 'http://dbpedia.org/resource/1978–79_VfL_Bochum_season', 'http://dbpedia.org/resource/1979–80_VfL_Bochum_season', 'http://dbpedia.org/resource/1980–81_VfL_Bochum_season', 'http://dbpedia.org/resource/1981–82_VfL_Bochum_season', 'http://dbpedia.org/resource/1982–83_VfL_Bochum_season', 'http://dbpedia.org/resource/1983–84_VfL_Bochum_season', 'http://dbpedia.org/resource/1984–85_VfL_Bochum_season', 'http://dbpedia.org/resource/1985–86_VfL_Bochum_season', 'http://dbpedia.org/resource/1986–87_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1986–87_VfL_Bochum_season', 'http://dbpedia.org/resource/1987–88_VfL_Bochum_season', 'http://dbpedia.org/resource/1988–89_VfL_Bochum_season', 'http://dbpedia.org/resource/1989–90_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1989–90_VfL_Bochum_season', 'http://dbpedia.org/resource/1990–91_VfL_Bochum_season', 'http://dbpedia.org/resource/1991–92_VfL_Bochum_season', 'http://dbpedia.org/resource/1992–93_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1992–93_VfL_Bochum_season', 'http://dbpedia.org/resource/1994–95_VfL_Bochum_season', 'http://dbpedia.org/resource/1995–96_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1996–97_VfL_Bochum_season', 'http://dbpedia.org/resource/1997–98_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1997–98_VfL_Bochum_season', 'http://dbpedia.org/resource/1998–99_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/1998–99_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1998–99_Hertha_BSC_season', 'http://dbpedia.org/resource/1998–99_VfL_Bochum_season', 'http://dbpedia.org/resource/2000–01_VfL_Bochum_season', 'http://dbpedia.org/resource/2002–03_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2002–03_VfL_Bochum_season', 'http://dbpedia.org/resource/2003–04_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2003–04_VfL_Bochum_season', 'http://dbpedia.org/resource/2004–05_FC_Schalke_04_season', 'http://dbpedia.org/resource/2004–05_VfL_Bochum_season', 'http://dbpedia.org/resource/2005–06_VfL_Wolfsburg_season', 'http://dbpedia.org/resource/2006–07_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2006–07_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2006–07_VfL_Bochum_season', 'http://dbpedia.org/resource/2006–07_VfL_Wolfsburg_season', 'http://dbpedia.org/resource/2007–08_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/2007–08_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2007–08_VfL_Bochum_season', 'http://dbpedia.org/resource/2008–09_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/2008–09_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2008–09_VfL_Bochum_season', 'http://dbpedia.org/resource/2009–10_FC_Schalke_04_season', 'http://dbpedia.org/resource/2009–10_VfL_Bochum_season', 'http://dbpedia.org/resource/2010–11_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2010–11_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2010–11_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2011–12_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2011–12_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2011–12_SC_Freiburg_season', 'http://dbpedia.org/resource/2012–13_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2012–13_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2012–13_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2012–13_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2012–13_TSG_1899_Hoffenheim_season', 'http://dbpedia.org/resource/2013–14_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2013–14_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2013–14_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2013–14_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2014–15_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2014–15_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2014–15_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2014–15_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2015–16_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2015–16_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2015–16_FC_Ingolstadt_04_season', 'http://dbpedia.org/resource/2015–16_FC_Schalke_04_season', 'http://dbpedia.org/resource/2015–16_SK_Rapid_Wien_season', 'http://dbpedia.org/resource/2015–16_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2016–17_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2016–17_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2016–17_FC_Schalke_04_season', 'http://dbpedia.org/resource/2016–17_Hamburger_SV_season']</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['1986-02-28']</t>
+          <t>['http://dbpedia.org/resource/1969–70_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1971–72_VfL_Bochum_season', 'http://dbpedia.org/resource/1972–73_VfL_Bochum_season', 'http://dbpedia.org/resource/1973–74_VfL_Bochum_season', 'http://dbpedia.org/resource/1974–75_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1974–75_VfL_Bochum_season', 'http://dbpedia.org/resource/1975–76_VfL_Bochum_season', 'http://dbpedia.org/resource/1976–77_Tennis_Borussia_Berlin_season', 'http://dbpedia.org/resource/1976–77_VfL_Bochum_season', 'http://dbpedia.org/resource/1977–78_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1977–78_VfL_Bochum_season', 'http://dbpedia.org/resource/1978–79_VfL_Bochum_season', 'http://dbpedia.org/resource/1979–80_VfL_Bochum_season', 'http://dbpedia.org/resource/1980–81_VfL_Bochum_season', 'http://dbpedia.org/resource/1981–82_VfL_Bochum_season', 'http://dbpedia.org/resource/1982–83_VfL_Bochum_season', 'http://dbpedia.org/resource/1983–84_VfL_Bochum_season', 'http://dbpedia.org/resource/1984–85_VfL_Bochum_season', 'http://dbpedia.org/resource/1985–86_VfL_Bochum_season', 'http://dbpedia.org/resource/1986–87_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1986–87_VfL_Bochum_season', 'http://dbpedia.org/resource/1987–88_VfL_Bochum_season', 'http://dbpedia.org/resource/1988–89_VfL_Bochum_season', 'http://dbpedia.org/resource/1989–90_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1989–90_VfL_Bochum_season', 'http://dbpedia.org/resource/1990–91_VfL_Bochum_season', 'http://dbpedia.org/resource/1991–92_VfL_Bochum_season', 'http://dbpedia.org/resource/1992–93_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1992–93_VfL_Bochum_season', 'http://dbpedia.org/resource/1994–95_VfL_Bochum_season', 'http://dbpedia.org/resource/1995–96_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1996–97_VfL_Bochum_season', 'http://dbpedia.org/resource/1997–98_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1997–98_VfL_Bochum_season', 'http://dbpedia.org/resource/1998–99_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/1998–99_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/1998–99_Hertha_BSC_season', 'http://dbpedia.org/resource/1998–99_VfL_Bochum_season', 'http://dbpedia.org/resource/2000–01_VfL_Bochum_season', 'http://dbpedia.org/resource/2002–03_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2002–03_VfL_Bochum_season', 'http://dbpedia.org/resource/2003–04_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2003–04_VfL_Bochum_season', 'http://dbpedia.org/resource/2004–05_FC_Schalke_04_season', 'http://dbpedia.org/resource/2004–05_VfL_Bochum_season', 'http://dbpedia.org/resource/2005–06_VfL_Wolfsburg_season', 'http://dbpedia.org/resource/2006–07_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2006–07_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2006–07_VfL_Bochum_season', 'http://dbpedia.org/resource/2006–07_VfL_Wolfsburg_season', 'http://dbpedia.org/resource/2007–08_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/2007–08_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2007–08_VfL_Bochum_season', 'http://dbpedia.org/resource/2008–09_Eintracht_Frankfurt_season', 'http://dbpedia.org/resource/2008–09_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2008–09_VfL_Bochum_season', 'http://dbpedia.org/resource/2009–10_FC_Schalke_04_season', 'http://dbpedia.org/resource/2009–10_VfL_Bochum_season', 'http://dbpedia.org/resource/2010–11_Bayer_04_Leverkusen_season', 'http://dbpedia.org/resource/2010–11_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2010–11_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2011–12_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2011–12_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2011–12_SC_Freiburg_season', 'http://dbpedia.org/resource/2012–13_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2012–13_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2012–13_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2012–13_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2012–13_TSG_1899_Hoffenheim_season', 'http://dbpedia.org/resource/2013–14_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2013–14_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2013–14_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2013–14_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2014–15_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2014–15_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2014–15_FC_Bayern_Munich_season', 'http://dbpedia.org/resource/2014–15_SV_Werder_Bremen_season', 'http://dbpedia.org/resource/2015–16_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2015–16_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2015–16_FC_Ingolstadt_04_season', 'http://dbpedia.org/resource/2015–16_FC_Schalke_04_season', 'http://dbpedia.org/resource/2015–16_SK_Rapid_Wien_season', 'http://dbpedia.org/resource/2015–16_VfB_Stuttgart_season', 'http://dbpedia.org/resource/2016–17_Borussia_Dortmund_season', 'http://dbpedia.org/resource/2016–17_Borussia_Mönchengladbach_season', 'http://dbpedia.org/resource/2016–17_FC_Schalke_04_season', 'http://dbpedia.org/resource/2016–17_Hamburger_SV_season']</t>
         </is>
       </c>
       <c r="D6" t="b">
@@ -558,17 +558,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Which movies star both Liz Taylor and Richard Burton?</t>
+          <t>Give me all actors starring in movies directed by William Shatner.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Boom!_(film)', 'http://dbpedia.org/resource/Divorce_His,_Divorce_Hers', 'http://dbpedia.org/resource/Doctor_Faustus_(1967_film)', 'http://dbpedia.org/resource/Hammersmith_Is_Out', 'http://dbpedia.org/resource/The_Comedians_(1967_film)', 'http://dbpedia.org/resource/The_Sandpiper', 'http://dbpedia.org/resource/The_Taming_of_the_Shrew_(1967_film)', 'http://dbpedia.org/resource/The_V.I.P.s_(film)', 'http://dbpedia.org/resource/Under_Milk_Wood_(1972_film)', "http://dbpedia.org/resource/Who's_Afraid_of_Virginia_Woolf%3F_(film)"]</t>
+          <t>['http://dbpedia.org/resource/DeForest_Kelley', 'http://dbpedia.org/resource/George_Takei', 'http://dbpedia.org/resource/James_Doohan', 'http://dbpedia.org/resource/Leonard_Nimoy', 'http://dbpedia.org/resource/Nichelle_Nichols', 'http://dbpedia.org/resource/Walter_Koenig', 'http://dbpedia.org/resource/William_Shatner']</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Boom!_(film)', 'http://dbpedia.org/resource/Divorce_His,_Divorce_Hers', 'http://dbpedia.org/resource/Doctor_Faustus_(1967_film)', 'http://dbpedia.org/resource/Hammersmith_Is_Out', 'http://dbpedia.org/resource/The_Comedians_(1967_film)', 'http://dbpedia.org/resource/The_Sandpiper', 'http://dbpedia.org/resource/The_Taming_of_the_Shrew_(1967_film)', 'http://dbpedia.org/resource/The_V.I.P.s_(film)', 'http://dbpedia.org/resource/Under_Milk_Wood_(1972_film)', "http://dbpedia.org/resource/Who's_Afraid_of_Virginia_Woolf%3F_(film)"]</t>
+          <t>['http://dbpedia.org/resource/DeForest_Kelley', 'http://dbpedia.org/resource/George_Takei', 'http://dbpedia.org/resource/James_Doohan', 'http://dbpedia.org/resource/Leonard_Nimoy', 'http://dbpedia.org/resource/Nichelle_Nichols', 'http://dbpedia.org/resource/Walter_Koenig', 'http://dbpedia.org/resource/William_Shatner']</t>
         </is>
       </c>
       <c r="D7" t="b">
@@ -578,17 +578,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Who developed Minecraft?</t>
+          <t>How many films did Leonardo DiCaprio star in?</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Mojang_Studios']</t>
+          <t>['33']</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Mojang_Studios']</t>
+          <t>['33']</t>
         </is>
       </c>
       <c r="D8" t="b">
@@ -598,17 +598,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>How much did the Lego Movie cost?</t>
+          <t>When was Olof Palme shot?</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['60.0']</t>
+          <t>['1986-02-28']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['60.0']</t>
+          <t>['1986-02-28']</t>
         </is>
       </c>
       <c r="D9" t="b">
@@ -618,37 +618,37 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>What is the most frequent cause of death?</t>
+          <t>Which movies star both Liz Taylor and Richard Burton?</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Assassination_of_Wissam_al-Hassan']</t>
+          <t>['http://dbpedia.org/resource/Boom!_(film)', 'http://dbpedia.org/resource/Divorce_His,_Divorce_Hers', 'http://dbpedia.org/resource/Doctor_Faustus_(1967_film)', 'http://dbpedia.org/resource/Hammersmith_Is_Out', 'http://dbpedia.org/resource/The_Comedians_(1967_film)', 'http://dbpedia.org/resource/The_Sandpiper', 'http://dbpedia.org/resource/The_Taming_of_the_Shrew_(1967_film)', 'http://dbpedia.org/resource/The_V.I.P.s_(film)', 'http://dbpedia.org/resource/Under_Milk_Wood_(1972_film)', "http://dbpedia.org/resource/Who's_Afraid_of_Virginia_Woolf%3F_(film)"]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Execution_by_hanging']</t>
+          <t>['http://dbpedia.org/resource/Boom!_(film)', 'http://dbpedia.org/resource/Divorce_His,_Divorce_Hers', 'http://dbpedia.org/resource/Doctor_Faustus_(1967_film)', 'http://dbpedia.org/resource/Hammersmith_Is_Out', 'http://dbpedia.org/resource/The_Comedians_(1967_film)', 'http://dbpedia.org/resource/The_Sandpiper', 'http://dbpedia.org/resource/The_Taming_of_the_Shrew_(1967_film)', 'http://dbpedia.org/resource/The_V.I.P.s_(film)', 'http://dbpedia.org/resource/Under_Milk_Wood_(1972_film)', "http://dbpedia.org/resource/Who's_Afraid_of_Virginia_Woolf%3F_(film)"]</t>
         </is>
       </c>
       <c r="D10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>How high is the Yokohama Marine Tower?</t>
+          <t>How much did the Lego Movie cost?</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['106.07']</t>
+          <t>['60.0']</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['106.07']</t>
+          <t>['60.0']</t>
         </is>
       </c>
       <c r="D11" t="b">
@@ -658,17 +658,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Who was the doctoral supervisor of Albert Einstein?</t>
+          <t>Give me the runtime of Toy Story.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Alfred_Kleiner']</t>
+          <t>['4860']</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Alfred_Kleiner']</t>
+          <t>['4860']</t>
         </is>
       </c>
       <c r="D12" t="b">
@@ -678,17 +678,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>How many people live in Eurasia?</t>
+          <t>Give me a list of all trumpet players that were bandleaders.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['5360351985']</t>
+          <t>['http://dbpedia.org/resource/Abatte_Barihun', 'http://dbpedia.org/resource/Alan_Silva', 'http://dbpedia.org/resource/Artie_Fields', 'http://dbpedia.org/resource/Charlie_Spivak', 'http://dbpedia.org/resource/Danny_Davis_(country_musician)', 'http://dbpedia.org/resource/Doc_Cheatham', 'http://dbpedia.org/resource/Ernest_%22Doc%22_Paulin', 'http://dbpedia.org/resource/Jack_Jackson_(radio_personality)', 'http://dbpedia.org/resource/Jacobo_Rubalcaba', 'http://dbpedia.org/resource/Jimmy_Dorsey', 'http://dbpedia.org/resource/Kaj_Backlund', 'http://dbpedia.org/resource/Lloyd_Hunter', 'http://dbpedia.org/resource/Marlon_Jordan', 'http://dbpedia.org/resource/Mick_Mulligan', 'http://dbpedia.org/resource/Ollie_Mitchell', 'http://dbpedia.org/resource/Ovie_Alston', 'http://dbpedia.org/resource/Pacho_Galan', 'http://dbpedia.org/resource/Red_Perkins', 'http://dbpedia.org/resource/Richard_Maltby_Sr.', 'http://dbpedia.org/resource/Steamboat_Willie_(musician)']</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['5360351985']</t>
+          <t>['http://dbpedia.org/resource/Abatte_Barihun', 'http://dbpedia.org/resource/Alan_Silva', 'http://dbpedia.org/resource/Artie_Fields', 'http://dbpedia.org/resource/Charlie_Spivak', 'http://dbpedia.org/resource/Danny_Davis_(country_musician)', 'http://dbpedia.org/resource/Doc_Cheatham', 'http://dbpedia.org/resource/Ernest_%22Doc%22_Paulin', 'http://dbpedia.org/resource/Jack_Jackson_(radio_personality)', 'http://dbpedia.org/resource/Jacobo_Rubalcaba', 'http://dbpedia.org/resource/Jimmy_Dorsey', 'http://dbpedia.org/resource/Kaj_Backlund', 'http://dbpedia.org/resource/Lloyd_Hunter', 'http://dbpedia.org/resource/Marlon_Jordan', 'http://dbpedia.org/resource/Mick_Mulligan', 'http://dbpedia.org/resource/Ollie_Mitchell', 'http://dbpedia.org/resource/Ovie_Alston', 'http://dbpedia.org/resource/Pacho_Galan', 'http://dbpedia.org/resource/Red_Perkins', 'http://dbpedia.org/resource/Richard_Maltby_Sr.', 'http://dbpedia.org/resource/Steamboat_Willie_(musician)']</t>
         </is>
       </c>
       <c r="D13" t="b">
@@ -698,17 +698,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Who is the author of the interpretation of dreams?</t>
+          <t>In which year was Rachel Stevens born?</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Sigmund_Freud']</t>
+          <t>['1978']</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Sigmund_Freud']</t>
+          <t>['1978']</t>
         </is>
       </c>
       <c r="D14" t="b">
@@ -718,37 +718,37 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>When was John Adams born?</t>
+          <t>What is the most frequent cause of death?</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['1735-10-30']</t>
+          <t>['http://dbpedia.org/resource/Assassination_of_Wissam_al-Hassan']</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['1735-10-30']</t>
+          <t>['http://dbpedia.org/resource/Execution_by_hanging']</t>
         </is>
       </c>
       <c r="D15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>how much is the total population of european union?</t>
+          <t>How high is the Yokohama Marine Tower?</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>['446828803']</t>
+          <t>['106.07']</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['446828803']</t>
+          <t>['106.07']</t>
         </is>
       </c>
       <c r="D16" t="b">
@@ -758,17 +758,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Give me the currency of China.</t>
+          <t>Who was the doctoral supervisor of Albert Einstein?</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Renminbi']</t>
+          <t>['http://dbpedia.org/resource/Alfred_Kleiner']</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Renminbi']</t>
+          <t>['http://dbpedia.org/resource/Alfred_Kleiner']</t>
         </is>
       </c>
       <c r="D17" t="b">
@@ -778,37 +778,37 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>When was the death of Shakespeare?</t>
+          <t>What is Donald Trump's main business?</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>['1616-04-23']</t>
+          <t>['http://dbpedia.org/resource/GoTrump.com', 'http://dbpedia.org/resource/The_Trump_Organization', 'http://dbpedia.org/resource/Trump_Model_Management']</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['1616-04-23']</t>
+          <t>['http://dbpedia.org/resource/The_Trump_Organization', 'http://dbpedia.org/resource/Trump_Model_Management']</t>
         </is>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Give me all movies with Tom Cruise.</t>
+          <t>How many people live in Eurasia?</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/A_Few_Good_Men', 'http://dbpedia.org/resource/All_the_Right_Moves_(film)', 'http://dbpedia.org/resource/American_Made_(film)', 'http://dbpedia.org/resource/Born_on_the_Fourth_of_July_(film)', 'http://dbpedia.org/resource/Cocktail_(1988_film)', 'http://dbpedia.org/resource/Collateral_(film)', 'http://dbpedia.org/resource/Days_of_Thunder', 'http://dbpedia.org/resource/Edge_of_Tomorrow', 'http://dbpedia.org/resource/Eyes_Wide_Shut', 'http://dbpedia.org/resource/Far_and_Away__Far_and_Away__1', 'http://dbpedia.org/resource/Interview_with_the_Vampire_(film)', 'http://dbpedia.org/resource/Jack_Reacher_(film)', 'http://dbpedia.org/resource/Jack_Reacher:_Never_Go_Back', 'http://dbpedia.org/resource/Jerry_Maguire__Jerry_Maguire__1', 'http://dbpedia.org/resource/Knight_and_Day__Knight_and_Day__1', 'http://dbpedia.org/resource/Legend_(1985_film)', 'http://dbpedia.org/resource/Lions_for_Lambs', "http://dbpedia.org/resource/Losin'_It", 'http://dbpedia.org/resource/Magnolia_(film)__Magnolia__1', 'http://dbpedia.org/resource/Minority_Report_(film)', 'http://dbpedia.org/resource/Mission:_Impossible_–_Dead_Reckoning_Part_One', 'http://dbpedia.org/resource/Mission:_Impossible_–_Dead_Reckoning_Part_Two', 'http://dbpedia.org/resource/Mission:_Impossible_–_Fallout', 'http://dbpedia.org/resource/Mission:_Impossible_–_Ghost_Protocol', 'http://dbpedia.org/resource/Mission:_Impossible_–_Rogue_Nation', 'http://dbpedia.org/resource/Mission:_Impossible_(film)', 'http://dbpedia.org/resource/Mission:_Impossible_2', 'http://dbpedia.org/resource/Mission:_Impossible_III', 'http://dbpedia.org/resource/Oblivion_(2013_film)', 'http://dbpedia.org/resource/Rain_Man', 'http://dbpedia.org/resource/Risky_Business', 'http://dbpedia.org/resource/Rock_of_Ages_(2012_film)', 'http://dbpedia.org/resource/Taps_(film)', 'http://dbpedia.org/resource/The_Color_of_Money', 'http://dbpedia.org/resource/The_Firm_(1993_film)', 'http://dbpedia.org/resource/The_Last_Samurai', 'http://dbpedia.org/resource/The_Mummy_(2017_film)', 'http://dbpedia.org/resource/The_Outsiders_(film)', 'http://dbpedia.org/resource/Top_Gun:_Maverick', 'http://dbpedia.org/resource/Top_Gun', 'http://dbpedia.org/resource/Valkyrie_(film)', 'http://dbpedia.org/resource/Vanilla_Sky', 'http://dbpedia.org/resource/War_of_the_Worlds_(2005_film)']</t>
+          <t>['5360351985']</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/A_Few_Good_Men', 'http://dbpedia.org/resource/All_the_Right_Moves_(film)', 'http://dbpedia.org/resource/American_Made_(film)', 'http://dbpedia.org/resource/Born_on_the_Fourth_of_July_(film)', 'http://dbpedia.org/resource/Cocktail_(1988_film)', 'http://dbpedia.org/resource/Collateral_(film)', 'http://dbpedia.org/resource/Days_of_Thunder', 'http://dbpedia.org/resource/Edge_of_Tomorrow', 'http://dbpedia.org/resource/Eyes_Wide_Shut', 'http://dbpedia.org/resource/Far_and_Away__Far_and_Away__1', 'http://dbpedia.org/resource/Interview_with_the_Vampire_(film)', 'http://dbpedia.org/resource/Jack_Reacher_(film)', 'http://dbpedia.org/resource/Jack_Reacher:_Never_Go_Back', 'http://dbpedia.org/resource/Jerry_Maguire__Jerry_Maguire__1', 'http://dbpedia.org/resource/Knight_and_Day__Knight_and_Day__1', 'http://dbpedia.org/resource/Legend_(1985_film)', 'http://dbpedia.org/resource/Lions_for_Lambs', "http://dbpedia.org/resource/Losin'_It", 'http://dbpedia.org/resource/Magnolia_(film)__Magnolia__1', 'http://dbpedia.org/resource/Minority_Report_(film)', 'http://dbpedia.org/resource/Mission:_Impossible_–_Dead_Reckoning_Part_One', 'http://dbpedia.org/resource/Mission:_Impossible_–_Dead_Reckoning_Part_Two', 'http://dbpedia.org/resource/Mission:_Impossible_–_Fallout', 'http://dbpedia.org/resource/Mission:_Impossible_–_Ghost_Protocol', 'http://dbpedia.org/resource/Mission:_Impossible_–_Rogue_Nation', 'http://dbpedia.org/resource/Mission:_Impossible_(film)', 'http://dbpedia.org/resource/Mission:_Impossible_2', 'http://dbpedia.org/resource/Mission:_Impossible_III', 'http://dbpedia.org/resource/Oblivion_(2013_film)', 'http://dbpedia.org/resource/Rain_Man', 'http://dbpedia.org/resource/Risky_Business', 'http://dbpedia.org/resource/Rock_of_Ages_(2012_film)', 'http://dbpedia.org/resource/Taps_(film)', 'http://dbpedia.org/resource/The_Color_of_Money', 'http://dbpedia.org/resource/The_Firm_(1993_film)', 'http://dbpedia.org/resource/The_Last_Samurai', 'http://dbpedia.org/resource/The_Mummy_(2017_film)', 'http://dbpedia.org/resource/The_Outsiders_(film)', 'http://dbpedia.org/resource/Top_Gun:_Maverick', 'http://dbpedia.org/resource/Top_Gun', 'http://dbpedia.org/resource/Valkyrie_(film)', 'http://dbpedia.org/resource/Vanilla_Sky', 'http://dbpedia.org/resource/War_of_the_Worlds_(2005_film)']</t>
+          <t>['5360351985']</t>
         </is>
       </c>
       <c r="D19" t="b">
@@ -818,17 +818,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>How many children did Benjamin Franklin have?</t>
+          <t>Who is the author of the interpretation of dreams?</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['3']</t>
+          <t>['http://dbpedia.org/resource/Sigmund_Freud']</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['3']</t>
+          <t>['http://dbpedia.org/resource/Sigmund_Freud']</t>
         </is>
       </c>
       <c r="D20" t="b">
@@ -838,37 +838,37 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>how much is the elevation of Düsseldorf Airport ?</t>
+          <t>When was John Adams born?</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['44.8']</t>
+          <t>['1735-10-30']</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['44.8', '44.8056']</t>
+          <t>['1735-10-30']</t>
         </is>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>How tall is Claudia Schiffer?</t>
+          <t>how much is the total population of european union?</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>['1.8']</t>
+          <t>['446828803']</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>['1.8']</t>
+          <t>['446828803']</t>
         </is>
       </c>
       <c r="D22" t="b">
@@ -878,17 +878,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>What kind of music did Lou Reed play?</t>
+          <t>Give me the currency of China.</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Experimental_music', 'http://dbpedia.org/resource/Glam_rock', 'http://dbpedia.org/resource/Noise_rock', 'http://dbpedia.org/resource/Proto-punk', 'http://dbpedia.org/resource/Rock_music']</t>
+          <t>['http://dbpedia.org/resource/Renminbi']</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Experimental_music', 'http://dbpedia.org/resource/Glam_rock', 'http://dbpedia.org/resource/Noise_rock', 'http://dbpedia.org/resource/Proto-punk', 'http://dbpedia.org/resource/Rock_music']</t>
+          <t>['http://dbpedia.org/resource/Renminbi']</t>
         </is>
       </c>
       <c r="D23" t="b">
@@ -898,17 +898,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>In which country is the Limerick Lake?</t>
+          <t>When was the death of Shakespeare?</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Canada']</t>
+          <t>['1616-04-23']</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Canada']</t>
+          <t>['1616-04-23']</t>
         </is>
       </c>
       <c r="D24" t="b">
@@ -918,37 +918,37 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>How tall is Michael Jordan?</t>
+          <t>Which rockets were launched from Baikonur?</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>['1.9812']</t>
+          <t>['http://dbpedia.org/resource/Dnepr_(rocket)', 'http://dbpedia.org/resource/Energia_(rocket)', 'http://dbpedia.org/resource/Irtysh_(rocket)', 'http://dbpedia.org/resource/Kosmos_3_(rocket)', 'http://dbpedia.org/resource/Kosmos-1', 'http://dbpedia.org/resource/Molniya_(rocket)', 'http://dbpedia.org/resource/Molniya-M', 'http://dbpedia.org/resource/N1_(rocket)', 'http://dbpedia.org/resource/Polyot_(rocket)__Polyot_11A59__1', 'http://dbpedia.org/resource/Proton_(rocket_family)', 'http://dbpedia.org/resource/Proton-K', 'http://dbpedia.org/resource/Proton-M', 'http://dbpedia.org/resource/R-7A_Semyorka', 'http://dbpedia.org/resource/Rokot', 'http://dbpedia.org/resource/Soyuz_(rocket_family)', 'http://dbpedia.org/resource/Soyuz_(rocket)', 'http://dbpedia.org/resource/Soyuz-2', 'http://dbpedia.org/resource/Soyuz-FG', 'http://dbpedia.org/resource/Soyuz-L', 'http://dbpedia.org/resource/Soyuz-U', 'http://dbpedia.org/resource/Soyuz-U2', 'http://dbpedia.org/resource/Soyuz/Vostok', 'http://dbpedia.org/resource/Sputnik_(rocket)__Sputnik_727__1', 'http://dbpedia.org/resource/Strela_(rocket)', 'http://dbpedia.org/resource/Tsyklon-2', 'http://dbpedia.org/resource/Tsyklon', 'http://dbpedia.org/resource/Voskhod_(rocket)', 'http://dbpedia.org/resource/Vostok_(rocket_family)', 'http://dbpedia.org/resource/Vostok-2_(rocket)', 'http://dbpedia.org/resource/Vostok-2M', 'http://dbpedia.org/resource/Vostok-K', 'http://dbpedia.org/resource/Vostok-L', 'http://dbpedia.org/resource/Zenit_(rocket_family)', 'http://dbpedia.org/resource/Zenit-2', 'http://dbpedia.org/resource/Zenit-2M', 'http://dbpedia.org/resource/Zenit-3F', 'http://dbpedia.org/resource/Zenit-3SLB']</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>['1.9812']</t>
+          <t>['http://dbpedia.org/resource/Baikonur_Cosmodrome_Site_109', 'http://dbpedia.org/resource/Baikonur_Cosmodrome_Site_110', 'http://dbpedia.org/resource/Baikonur_Cosmodrome_Site_200', 'http://dbpedia.org/resource/Baikonur_Cosmodrome_Site_250', 'http://dbpedia.org/resource/Baikonur_Cosmodrome_Site_31', 'http://dbpedia.org/resource/Baikonur_Cosmodrome_Site_41', 'http://dbpedia.org/resource/Baikonur_Cosmodrome_Site_45', 'http://dbpedia.org/resource/Baikonur_Cosmodrome_Site_81', 'http://dbpedia.org/resource/Baikonur_Cosmodrome_Site_90', 'http://dbpedia.org/resource/Dnepr_(rocket)', 'http://dbpedia.org/resource/Energia_(rocket)', "http://dbpedia.org/resource/Gagarin's_Start", 'http://dbpedia.org/resource/Irtysh_(rocket)', 'http://dbpedia.org/resource/Kosmos_3_(rocket)', 'http://dbpedia.org/resource/Kosmos-1', 'http://dbpedia.org/resource/Molniya_(rocket)', 'http://dbpedia.org/resource/Molniya-M', 'http://dbpedia.org/resource/N1_(rocket)', 'http://dbpedia.org/resource/Polyot_(rocket)__Polyot_11A59__1', 'http://dbpedia.org/resource/Proton_(rocket_family)', 'http://dbpedia.org/resource/Proton-K', 'http://dbpedia.org/resource/Proton-M', 'http://dbpedia.org/resource/R-7A_Semyorka', 'http://dbpedia.org/resource/Rokot', 'http://dbpedia.org/resource/Soyuz_(rocket_family)', 'http://dbpedia.org/resource/Soyuz_(rocket)', 'http://dbpedia.org/resource/Soyuz-2', 'http://dbpedia.org/resource/Soyuz-FG', 'http://dbpedia.org/resource/Soyuz-L', 'http://dbpedia.org/resource/Soyuz-U', 'http://dbpedia.org/resource/Soyuz-U2', 'http://dbpedia.org/resource/Soyuz/Vostok', 'http://dbpedia.org/resource/Sputnik_(rocket)__Sputnik_727__1', 'http://dbpedia.org/resource/Strela_(rocket)', 'http://dbpedia.org/resource/Tsyklon-2', 'http://dbpedia.org/resource/Tsyklon', 'http://dbpedia.org/resource/Voskhod_(rocket)', 'http://dbpedia.org/resource/Vostok_(rocket_family)', 'http://dbpedia.org/resource/Vostok-2_(rocket)', 'http://dbpedia.org/resource/Vostok-2M', 'http://dbpedia.org/resource/Vostok-K', 'http://dbpedia.org/resource/Vostok-L', 'http://dbpedia.org/resource/Zenit_(rocket_family)', 'http://dbpedia.org/resource/Zenit-2', 'http://dbpedia.org/resource/Zenit-2M', 'http://dbpedia.org/resource/Zenit-3F', 'http://dbpedia.org/resource/Zenit-3SLB']</t>
         </is>
       </c>
       <c r="D25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Which films starring Clint Eastwood did he direct himself?</t>
+          <t>Give me all islands that belong to Japan.</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/A_Perfect_World', 'http://dbpedia.org/resource/Absolute_Power_(film)', 'http://dbpedia.org/resource/Blood_Work_(film)', 'http://dbpedia.org/resource/Cry_Macho_(film)', 'http://dbpedia.org/resource/Dirty_Harry_(film_series)', 'http://dbpedia.org/resource/Firefox_(film)', 'http://dbpedia.org/resource/Gran_Torino', 'http://dbpedia.org/resource/Heartbreak_Ridge', 'http://dbpedia.org/resource/High_Plains_Drifter', 'http://dbpedia.org/resource/Honkytonk_Man', 'http://dbpedia.org/resource/Million_Dollar_Baby__Million_Dollar_Baby__1', 'http://dbpedia.org/resource/Pale_Rider', 'http://dbpedia.org/resource/Play_Misty_for_Me', 'http://dbpedia.org/resource/Space_Cowboys', 'http://dbpedia.org/resource/Sudden_Impact', 'http://dbpedia.org/resource/The_Bridges_of_Madison_County_(film)', 'http://dbpedia.org/resource/The_Eiger_Sanction_(film)', 'http://dbpedia.org/resource/The_Mule_(2018_film)', 'http://dbpedia.org/resource/The_Outlaw_Josey_Wales__The_Outlaw_Josey_Wales__1', 'http://dbpedia.org/resource/The_Rookie_(1990_film)', 'http://dbpedia.org/resource/True_Crime_(1999_film)', 'http://dbpedia.org/resource/Unforgiven', 'http://dbpedia.org/resource/White_Hunter_Black_Heart']</t>
+          <t>['http://dbpedia.org/resource/Ainoshima_(Shingū)', 'http://dbpedia.org/resource/Aka_Island', 'http://dbpedia.org/resource/Akusekijima', 'http://dbpedia.org/resource/Amami_Islands', 'http://dbpedia.org/resource/Amami_Ōshima', 'http://dbpedia.org/resource/Aragusuku_Islands', 'http://dbpedia.org/resource/Awaji_Island', 'http://dbpedia.org/resource/Bayonnaise_Rocks', 'http://dbpedia.org/resource/Benten-jima_(Wakkanai)', 'http://dbpedia.org/resource/Chichijima', 'http://dbpedia.org/resource/Daikon_Island', 'http://dbpedia.org/resource/Daitō_Islands', 'http://dbpedia.org/resource/Dejima', 'http://dbpedia.org/resource/Denshima', 'http://dbpedia.org/resource/Engetsu_Island', 'http://dbpedia.org/resource/Fukaji_Island', 'http://dbpedia.org/resource/Gajajima', 'http://dbpedia.org/resource/Genkai_Island', 'http://dbpedia.org/resource/Geruma_Island', 'http://dbpedia.org/resource/Gotō_Islands', 'http://dbpedia.org/resource/Hachijō-kojima', 'http://dbpedia.org/resource/Hahajima', 'http://dbpedia.org/resource/Hamahiga_Island', 'http://dbpedia.org/resource/Hario_Island', 'http://dbpedia.org/resource/Hashima_Island', 'http://dbpedia.org/resource/Hateruma', 'http://dbpedia.org/resource/Hatsushima', 'http://dbpedia.org/resource/Hegurajima', 'http://dbpedia.org/resource/Henza_Island', 'http://dbpedia.org/resource/Hokkaido__Hokkaidō__1', 'http://dbpedia.org/resource/Ibuki_island', 'http://dbpedia.org/resource/Iejima', 'http://dbpedia.org/resource/Iheya_Island', 'http://dbpedia.org/resource/Iki_Island', 'http://dbpedia.org/resource/Ikuchi-jima', 'http://dbpedia.org/resource/Inamba-jima', 'http://dbpedia.org/resource/Iōjima_(Kagoshima)__Iōjima__1', 'http://dbpedia.org/resource/Irabu_Island', 'http://dbpedia.org/resource/Iriomote_Island', 'http://dbpedia.org/resource/Ishigaki_Island', 'http://dbpedia.org/resource/Itsukushima', 'http://dbpedia.org/resource/Izena_Island', 'http://dbpedia.org/resource/Japanese_archipelago', 'http://dbpedia.org/resource/Jinai-tō', 'http://dbpedia.org/resource/Kabushima', 'http://dbpedia.org/resource/Kaminonejima', 'http://dbpedia.org/resource/Kamishima_Island,_Amakusa', 'http://dbpedia.org/resource/Kamome_Island', 'http://dbpedia.org/resource/Kayama_Island', 'http://dbpedia.org/resource/Kii_Ōshima', 'http://dbpedia.org/resource/Kinkasan', 'http://dbpedia.org/resource/Kitadaitōjima', 'http://dbpedia.org/resource/Kogajajima', 'http://dbpedia.org/resource/Kojima_(Hokkaido)', 'http://dbpedia.org/resource/Kōjima', 'http://dbpedia.org/resource/Kozukumi_Island', 'http://dbpedia.org/resource/Kume_Island', 'http://dbpedia.org/resource/Kurima-jima', 'http://dbpedia.org/resource/Kuroshima_(Kagoshima)', 'http://dbpedia.org/resource/Kurushima', 'http://dbpedia.org/resource/Kutsujima,_Kyoto', 'http://dbpedia.org/resource/Kyūroku-jima', 'http://dbpedia.org/resource/Kyushu', "http://dbpedia.org/resource/Lot's_Wife_(crag)", 'http://dbpedia.org/resource/Mageshima', 'http://dbpedia.org/resource/Maishima', 'http://dbpedia.org/resource/Manabeshima', 'http://dbpedia.org/resource/Minamidaitōjima', 'http://dbpedia.org/resource/Minamiukibaru_Island', 'http://dbpedia.org/resource/Minna_Island_(Tarama,_Okinawa)', 'http://dbpedia.org/resource/Miyagi_Island_(Uruma,_Okinawa)', 'http://dbpedia.org/resource/Miyake-jima', 'http://dbpedia.org/resource/Miyako_Islands', 'http://dbpedia.org/resource/Miyako-jima', 'http://dbpedia.org/resource/Nakadōri_Island', 'http://dbpedia.org/resource/Nakanoshima_(Kagoshima)', 'http://dbpedia.org/resource/Naru_Island_(Japan)', 'http://dbpedia.org/resource/Naval_Base_Iwo_Jima', 'http://dbpedia.org/resource/Nii_Ōshima', 'http://dbpedia.org/resource/Nishinoshima_(Ogasawara)', 'http://dbpedia.org/resource/Noshima', 'http://dbpedia.org/resource/Noto_Peninsula', 'http://dbpedia.org/resource/Notojima', 'http://dbpedia.org/resource/Okamura_Island', 'http://dbpedia.org/resource/Oki_Islands', 'http://dbpedia.org/resource/Okidaitōjima', 'http://dbpedia.org/resource/Okinawa_Islands', 'http://dbpedia.org/resource/Okinoshima_(Fukuoka)', 'http://dbpedia.org/resource/Okinotorishima', 'http://dbpedia.org/resource/Ōkunoshima', 'http://dbpedia.org/resource/Ōnohara_Islands', 'http://dbpedia.org/resource/Oshima_(Hokkaido)', 'http://dbpedia.org/resource/Ōsumi_Islands', 'http://dbpedia.org/resource/Ou_Island_(Nanjō)', 'http://dbpedia.org/resource/Ōyano-jima', 'http://dbpedia.org/resource/Ōzushima', 'http://dbpedia.org/resource/Ryukyu_Islands', 'http://dbpedia.org/resource/Sado_Island', 'http://dbpedia.org/resource/Sakishima_Islands', 'http://dbpedia.org/resource/Shikoku', 'http://dbpedia.org/resource/Shimoji-shima', 'http://dbpedia.org/resource/Shishijima', 'http://dbpedia.org/resource/Shōdoshima', 'http://dbpedia.org/resource/Shōwa_Iōjima__Shōwa_Iōjima__1', 'http://dbpedia.org/resource/Smith_Island_(Japan)', 'http://dbpedia.org/resource/Sukomobanare_Island', 'http://dbpedia.org/resource/Tairajima', 'http://dbpedia.org/resource/Takashima,_Shimane', 'http://dbpedia.org/resource/Takeshima_(Kagoshima)', 'http://dbpedia.org/resource/Taketomi_Island', 'http://dbpedia.org/resource/Tanegashima', 'http://dbpedia.org/resource/Tobishima,_Yamagata', 'http://dbpedia.org/resource/Tokara_Islands', 'http://dbpedia.org/resource/Tokunoshima', 'http://dbpedia.org/resource/Tori-shima_(Izu_Islands)', 'http://dbpedia.org/resource/Tsuken_Island', 'http://dbpedia.org/resource/Udone-shima', 'http://dbpedia.org/resource/Umashima,_Shimane', 'http://dbpedia.org/resource/Uni_Island', 'http://dbpedia.org/resource/Yaeyama_Islands', 'http://dbpedia.org/resource/Yagishiri_Island', 'http://dbpedia.org/resource/Yokatsu_Islands', 'http://dbpedia.org/resource/Yokoate-jima', 'http://dbpedia.org/resource/Yonaguni', 'http://dbpedia.org/resource/Yubu_Island', 'http://dbpedia.org/resource/Yugeshima', 'http://dbpedia.org/resource/Zamami_Island']</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/A_Perfect_World', 'http://dbpedia.org/resource/Absolute_Power_(film)', 'http://dbpedia.org/resource/Blood_Work_(film)', 'http://dbpedia.org/resource/Cry_Macho_(film)', 'http://dbpedia.org/resource/Dirty_Harry_(film_series)', 'http://dbpedia.org/resource/Firefox_(film)', 'http://dbpedia.org/resource/Gran_Torino', 'http://dbpedia.org/resource/Heartbreak_Ridge', 'http://dbpedia.org/resource/High_Plains_Drifter', 'http://dbpedia.org/resource/Honkytonk_Man', 'http://dbpedia.org/resource/Million_Dollar_Baby__Million_Dollar_Baby__1', 'http://dbpedia.org/resource/Pale_Rider', 'http://dbpedia.org/resource/Play_Misty_for_Me', 'http://dbpedia.org/resource/Space_Cowboys', 'http://dbpedia.org/resource/Sudden_Impact', 'http://dbpedia.org/resource/The_Bridges_of_Madison_County_(film)', 'http://dbpedia.org/resource/The_Eiger_Sanction_(film)', 'http://dbpedia.org/resource/The_Mule_(2018_film)', 'http://dbpedia.org/resource/The_Outlaw_Josey_Wales__The_Outlaw_Josey_Wales__1', 'http://dbpedia.org/resource/The_Rookie_(1990_film)', 'http://dbpedia.org/resource/True_Crime_(1999_film)', 'http://dbpedia.org/resource/Unforgiven', 'http://dbpedia.org/resource/White_Hunter_Black_Heart']</t>
+          <t>['http://dbpedia.org/resource/Ainoshima_(Shingū)', 'http://dbpedia.org/resource/Aka_Island', 'http://dbpedia.org/resource/Akusekijima', 'http://dbpedia.org/resource/Amami_Islands', 'http://dbpedia.org/resource/Amami_Ōshima', 'http://dbpedia.org/resource/Aragusuku_Islands', 'http://dbpedia.org/resource/Awaji_Island', 'http://dbpedia.org/resource/Bayonnaise_Rocks', 'http://dbpedia.org/resource/Benten-jima_(Wakkanai)', 'http://dbpedia.org/resource/Chichijima', 'http://dbpedia.org/resource/Daikon_Island', 'http://dbpedia.org/resource/Daitō_Islands', 'http://dbpedia.org/resource/Dejima', 'http://dbpedia.org/resource/Denshima', 'http://dbpedia.org/resource/Engetsu_Island', 'http://dbpedia.org/resource/Fukaji_Island', 'http://dbpedia.org/resource/Gajajima', 'http://dbpedia.org/resource/Genkai_Island', 'http://dbpedia.org/resource/Geruma_Island', 'http://dbpedia.org/resource/Gotō_Islands', 'http://dbpedia.org/resource/Hachijō-kojima', 'http://dbpedia.org/resource/Hahajima', 'http://dbpedia.org/resource/Hamahiga_Island', 'http://dbpedia.org/resource/Hario_Island', 'http://dbpedia.org/resource/Hashima_Island', 'http://dbpedia.org/resource/Hateruma', 'http://dbpedia.org/resource/Hatsushima', 'http://dbpedia.org/resource/Hegurajima', 'http://dbpedia.org/resource/Henza_Island', 'http://dbpedia.org/resource/Hokkaido__Hokkaidō__1', 'http://dbpedia.org/resource/Ibuki_island', 'http://dbpedia.org/resource/Iejima', 'http://dbpedia.org/resource/Iheya_Island', 'http://dbpedia.org/resource/Iki_Island', 'http://dbpedia.org/resource/Ikuchi-jima', 'http://dbpedia.org/resource/Inamba-jima', 'http://dbpedia.org/resource/Iōjima_(Kagoshima)__Iōjima__1', 'http://dbpedia.org/resource/Irabu_Island', 'http://dbpedia.org/resource/Iriomote_Island', 'http://dbpedia.org/resource/Ishigaki_Island', 'http://dbpedia.org/resource/Itsukushima', 'http://dbpedia.org/resource/Izena_Island', 'http://dbpedia.org/resource/Japanese_archipelago', 'http://dbpedia.org/resource/Jinai-tō', 'http://dbpedia.org/resource/Kabushima', 'http://dbpedia.org/resource/Kaminonejima', 'http://dbpedia.org/resource/Kamishima_Island,_Amakusa', 'http://dbpedia.org/resource/Kamome_Island', 'http://dbpedia.org/resource/Kayama_Island', 'http://dbpedia.org/resource/Kii_Ōshima', 'http://dbpedia.org/resource/Kinkasan', 'http://dbpedia.org/resource/Kitadaitōjima', 'http://dbpedia.org/resource/Kogajajima', 'http://dbpedia.org/resource/Kojima_(Hokkaido)', 'http://dbpedia.org/resource/Kōjima', 'http://dbpedia.org/resource/Kozukumi_Island', 'http://dbpedia.org/resource/Kume_Island', 'http://dbpedia.org/resource/Kurima-jima', 'http://dbpedia.org/resource/Kuroshima_(Kagoshima)', 'http://dbpedia.org/resource/Kurushima', 'http://dbpedia.org/resource/Kutsujima,_Kyoto', 'http://dbpedia.org/resource/Kyūroku-jima', 'http://dbpedia.org/resource/Kyushu', "http://dbpedia.org/resource/Lot's_Wife_(crag)", 'http://dbpedia.org/resource/Mageshima', 'http://dbpedia.org/resource/Maishima', 'http://dbpedia.org/resource/Manabeshima', 'http://dbpedia.org/resource/Minamidaitōjima', 'http://dbpedia.org/resource/Minamiukibaru_Island', 'http://dbpedia.org/resource/Minna_Island_(Tarama,_Okinawa)', 'http://dbpedia.org/resource/Miyagi_Island_(Uruma,_Okinawa)', 'http://dbpedia.org/resource/Miyake-jima', 'http://dbpedia.org/resource/Miyako_Islands', 'http://dbpedia.org/resource/Miyako-jima', 'http://dbpedia.org/resource/Nakadōri_Island', 'http://dbpedia.org/resource/Nakanoshima_(Kagoshima)', 'http://dbpedia.org/resource/Naru_Island_(Japan)', 'http://dbpedia.org/resource/Naval_Base_Iwo_Jima', 'http://dbpedia.org/resource/Nii_Ōshima', 'http://dbpedia.org/resource/Nishinoshima_(Ogasawara)', 'http://dbpedia.org/resource/Noshima', 'http://dbpedia.org/resource/Noto_Peninsula', 'http://dbpedia.org/resource/Notojima', 'http://dbpedia.org/resource/Okamura_Island', 'http://dbpedia.org/resource/Oki_Islands', 'http://dbpedia.org/resource/Okidaitōjima', 'http://dbpedia.org/resource/Okinawa_Islands', 'http://dbpedia.org/resource/Okinoshima_(Fukuoka)', 'http://dbpedia.org/resource/Okinotorishima', 'http://dbpedia.org/resource/Ōkunoshima', 'http://dbpedia.org/resource/Ōnohara_Islands', 'http://dbpedia.org/resource/Oshima_(Hokkaido)', 'http://dbpedia.org/resource/Ōsumi_Islands', 'http://dbpedia.org/resource/Ou_Island_(Nanjō)', 'http://dbpedia.org/resource/Ōyano-jima', 'http://dbpedia.org/resource/Ōzushima', 'http://dbpedia.org/resource/Ryukyu_Islands', 'http://dbpedia.org/resource/Sado_Island', 'http://dbpedia.org/resource/Sakishima_Islands', 'http://dbpedia.org/resource/Shikoku', 'http://dbpedia.org/resource/Shimoji-shima', 'http://dbpedia.org/resource/Shishijima', 'http://dbpedia.org/resource/Shōdoshima', 'http://dbpedia.org/resource/Shōwa_Iōjima__Shōwa_Iōjima__1', 'http://dbpedia.org/resource/Smith_Island_(Japan)', 'http://dbpedia.org/resource/Sukomobanare_Island', 'http://dbpedia.org/resource/Tairajima', 'http://dbpedia.org/resource/Takashima,_Shimane', 'http://dbpedia.org/resource/Takeshima_(Kagoshima)', 'http://dbpedia.org/resource/Taketomi_Island', 'http://dbpedia.org/resource/Tanegashima', 'http://dbpedia.org/resource/Tobishima,_Yamagata', 'http://dbpedia.org/resource/Tokara_Islands', 'http://dbpedia.org/resource/Tokunoshima', 'http://dbpedia.org/resource/Tori-shima_(Izu_Islands)', 'http://dbpedia.org/resource/Tsuken_Island', 'http://dbpedia.org/resource/Udone-shima', 'http://dbpedia.org/resource/Umashima,_Shimane', 'http://dbpedia.org/resource/Uni_Island', 'http://dbpedia.org/resource/Yaeyama_Islands', 'http://dbpedia.org/resource/Yagishiri_Island', 'http://dbpedia.org/resource/Yokatsu_Islands', 'http://dbpedia.org/resource/Yokoate-jima', 'http://dbpedia.org/resource/Yonaguni', 'http://dbpedia.org/resource/Yubu_Island', 'http://dbpedia.org/resource/Yugeshima', 'http://dbpedia.org/resource/Zamami_Island']</t>
         </is>
       </c>
       <c r="D26" t="b">
@@ -958,17 +958,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>In which countries can you pay using the West African CFA franc?</t>
+          <t>Who developed the video game World of Warcraft?</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Benin', 'http://dbpedia.org/resource/Burkina_Faso', 'http://dbpedia.org/resource/Colonial_Mauritania', 'http://dbpedia.org/resource/Colony_of_Niger', 'http://dbpedia.org/resource/Economic_Community_of_West_African_States', 'http://dbpedia.org/resource/French_Dahomey', 'http://dbpedia.org/resource/French_Togoland', 'http://dbpedia.org/resource/Guinea-Bissau', 'http://dbpedia.org/resource/History_of_Togo', 'http://dbpedia.org/resource/Ivory_Coast', 'http://dbpedia.org/resource/Mali', 'http://dbpedia.org/resource/Niger', "http://dbpedia.org/resource/People's_Republic_of_Benin", 'http://dbpedia.org/resource/Republic_of_Dahomey', 'http://dbpedia.org/resource/Republic_of_Upper_Volta', 'http://dbpedia.org/resource/Senegal', 'http://dbpedia.org/resource/Senegambia_Confederation', 'http://dbpedia.org/resource/Togo']</t>
+          <t>['http://dbpedia.org/resource/Blizzard_Entertainment']</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Benin', 'http://dbpedia.org/resource/Burkina_Faso', 'http://dbpedia.org/resource/Colonial_Mauritania', 'http://dbpedia.org/resource/Colony_of_Niger', 'http://dbpedia.org/resource/Economic_Community_of_West_African_States', 'http://dbpedia.org/resource/French_Dahomey', 'http://dbpedia.org/resource/French_Togoland', 'http://dbpedia.org/resource/Guinea-Bissau', 'http://dbpedia.org/resource/History_of_Togo', 'http://dbpedia.org/resource/Ivory_Coast', 'http://dbpedia.org/resource/Mali', 'http://dbpedia.org/resource/Niger', "http://dbpedia.org/resource/People's_Republic_of_Benin", 'http://dbpedia.org/resource/Republic_of_Dahomey', 'http://dbpedia.org/resource/Republic_of_Upper_Volta', 'http://dbpedia.org/resource/Senegal', 'http://dbpedia.org/resource/Senegambia_Confederation', 'http://dbpedia.org/resource/Togo']</t>
+          <t>['http://dbpedia.org/resource/Blizzard_Entertainment']</t>
         </is>
       </c>
       <c r="D27" t="b">
@@ -978,37 +978,37 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>how much is the population Iraq?</t>
+          <t>Give me all companies in the advertising industry.</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>['40462701']</t>
+          <t>['198']</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>['40462701']</t>
+          <t>['http://dbpedia.org/resource/140_Proof', 'http://dbpedia.org/resource/495_Communications', 'http://dbpedia.org/resource/72andSunny', 'http://dbpedia.org/resource/Abbott_Mead_Vickers_BBDO', 'http://dbpedia.org/resource/AdDuplex', 'http://dbpedia.org/resource/AdForum', 'http://dbpedia.org/resource/AdGreetz', 'http://dbpedia.org/resource/AdKeeper', 'http://dbpedia.org/resource/AdPack_USA', 'http://dbpedia.org/resource/All_By_Students_Notebooks', 'http://dbpedia.org/resource/Amalgamated_Advertising', 'http://dbpedia.org/resource/Anomaly_(advertising_agency)', 'http://dbpedia.org/resource/Argentonia', 'http://dbpedia.org/resource/AudienceProject', 'http://dbpedia.org/resource/B-Reel', 'http://dbpedia.org/resource/Bang_(company)', 'http://dbpedia.org/resource/Barker_(advertising_agency)', 'http://dbpedia.org/resource/Barkley_Inc.', 'http://dbpedia.org/resource/Bastion_Collective', 'http://dbpedia.org/resource/BBB_National_Programs', 'http://dbpedia.org/resource/Beasley_Broadcast_Group', 'http://dbpedia.org/resource/Berk_Communications', 'http://dbpedia.org/resource/Blue_Zoo_Animation_Studio', 'http://dbpedia.org/resource/BlueFocus_Communication_Group', 'http://dbpedia.org/resource/Boase_Massimi_Pollitt', 'http://dbpedia.org/resource/Boats_Group', 'http://dbpedia.org/resource/Bookmark_Content_and_Communications', 'http://dbpedia.org/resource/Brand_Keys', 'http://dbpedia.org/resource/Bromley_Originate_Change', 'http://dbpedia.org/resource/Butler,_Shine,_Stern_&amp;_Partners', 'http://dbpedia.org/resource/BYU_Adlab', 'http://dbpedia.org/resource/Cabe_Rawit_Marketing_Communications', 'http://dbpedia.org/resource/Camp+King', 'http://dbpedia.org/resource/Campaigns_&amp;_Grey', 'http://dbpedia.org/resource/Carbone_Smolan_Agency', "http://dbpedia.org/resource/Children's_Advertising_Review_Unit", 'http://dbpedia.org/resource/CKS_Group', 'http://dbpedia.org/resource/Classified_Ventures', 'http://dbpedia.org/resource/Clever_Bins', 'http://dbpedia.org/resource/Collett_Dickenson_Pearce', 'http://dbpedia.org/resource/Commonground/MGS', 'http://dbpedia.org/resource/Compass_Media_Networks', 'http://dbpedia.org/resource/Cordiant_Communications_Group', 'http://dbpedia.org/resource/Creature_(company)', 'http://dbpedia.org/resource/Crispin_Porter_+_Bogusky', 'http://dbpedia.org/resource/Dancer_Fitzgerald_Sample', 'http://dbpedia.org/resource/Dancing_Diablo', 'http://dbpedia.org/resource/DCF_Advertising', 'http://dbpedia.org/resource/Doe-Anderson_Inc.', 'http://dbpedia.org/resource/Dominion_Enterprises', 'http://dbpedia.org/resource/Doner_Company', 'http://dbpedia.org/resource/Door_Number_3', 'http://dbpedia.org/resource/Droga5', 'http://dbpedia.org/resource/DRUM_Agency', 'http://dbpedia.org/resource/Due_North_Communications', 'http://dbpedia.org/resource/Earthsky_Pictures', 'http://dbpedia.org/resource/Emakina_Group', 'http://dbpedia.org/resource/Empower_(company)', 'http://dbpedia.org/resource/Eniro', 'http://dbpedia.org/resource/Equativ', 'http://dbpedia.org/resource/Essence_Global', 'http://dbpedia.org/resource/Euro_RSCG_London', 'http://dbpedia.org/resource/FCB_(advertising_agency)', 'http://dbpedia.org/resource/Flock_Edit', 'http://dbpedia.org/resource/Flurry_(company)', 'http://dbpedia.org/resource/Focus_Media', 'http://dbpedia.org/resource/Forum_Communications_Company', 'http://dbpedia.org/resource/Fred_&amp;_Farid_Group', 'http://dbpedia.org/resource/Gigil', 'http://dbpedia.org/resource/Goodby,_Silverstein_&amp;_Partners', 'http://dbpedia.org/resource/Google', 'http://dbpedia.org/resource/Gotham,_Inc.', 'http://dbpedia.org/resource/Grey_Global_Group', 'http://dbpedia.org/resource/Griffin-Bacal_Advertising', 'http://dbpedia.org/resource/GSD&amp;M', 'http://dbpedia.org/resource/GTB_(advertising_agency)', 'http://dbpedia.org/resource/GumCo', 'http://dbpedia.org/resource/GWI_(company)', 'http://dbpedia.org/resource/Hogarth_Worldwide', 'http://dbpedia.org/resource/I_Wear_Your_Shirt', 'http://dbpedia.org/resource/ID_(public_relations)', 'http://dbpedia.org/resource/Initiative_(agency)', 'http://dbpedia.org/resource/Invite_Media', 'http://dbpedia.org/resource/Jackson_Radio_Works', 'http://dbpedia.org/resource/Janimation', 'http://dbpedia.org/resource/Johannes_Leonardo', 'http://dbpedia.org/resource/Johnstone_and_Cushing', 'http://dbpedia.org/resource/Karmarama_(advertising_agency)', 'http://dbpedia.org/resource/Ketchum_Inc.', 'http://dbpedia.org/resource/La_comunidad_(agency)', 'http://dbpedia.org/resource/Lamar_Advertising_Company', 'http://dbpedia.org/resource/LatinWorks', 'http://dbpedia.org/resource/Laughlin_Constable', 'http://dbpedia.org/resource/Le_Book', 'http://dbpedia.org/resource/Level_Studios', 'http://dbpedia.org/resource/Logical_Position', 'http://dbpedia.org/resource/Lopez_Negrete_Communications', 'http://dbpedia.org/resource/Lowe_Roche', 'http://dbpedia.org/resource/LPM_Comunicação', 'http://dbpedia.org/resource/M&amp;C_Saatchi', 'http://dbpedia.org/resource/Magnite_Inc', 'http://dbpedia.org/resource/Makovsky_(agency)', 'http://dbpedia.org/resource/MARC_USA', 'http://dbpedia.org/resource/Marfeel', 'http://dbpedia.org/resource/Marmoset_(music_agency)', 'http://dbpedia.org/resource/Martin_Williams_Advertising', 'http://dbpedia.org/resource/Mason_&amp;_Associates', 'http://dbpedia.org/resource/Massive_Incorporated', 'http://dbpedia.org/resource/Matari_Advertising', 'http://dbpedia.org/resource/Matomy_Media', 'http://dbpedia.org/resource/Maximum_Effort', 'http://dbpedia.org/resource/Maxus_(media_agency)', 'http://dbpedia.org/resource/Mc_Group', 'http://dbpedia.org/resource/McCann_(company)', 'http://dbpedia.org/resource/McGarrah_Jessee', 'http://dbpedia.org/resource/McKinney_(advertising_agency)', 'http://dbpedia.org/resource/MDB_Communications', 'http://dbpedia.org/resource/Mediahub', 'http://dbpedia.org/resource/Mekanism', 'http://dbpedia.org/resource/Merchlar', 'http://dbpedia.org/resource/MGSCOMM', 'http://dbpedia.org/resource/Mindshare_(firm)', 'http://dbpedia.org/resource/Mithun_Agency', 'http://dbpedia.org/resource/MMA_Creative', 'http://dbpedia.org/resource/Modernista!', 'http://dbpedia.org/resource/Moxie_Sozo', 'http://dbpedia.org/resource/MullenLowe_U.S.', 'http://dbpedia.org/resource/N._W._Ayer_&amp;_Son', 'http://dbpedia.org/resource/Narcity_Media', 'http://dbpedia.org/resource/Nativex', 'http://dbpedia.org/resource/NBG_Radio_Network', 'http://dbpedia.org/resource/Noble_(company)', 'http://dbpedia.org/resource/Nova_M_Radio', 'http://dbpedia.org/resource/Ogilvy_(agency)', 'http://dbpedia.org/resource/OMD_Worldwide', 'http://dbpedia.org/resource/OOh!media', 'http://dbpedia.org/resource/OwnLocal', 'http://dbpedia.org/resource/PeakBiety_Branding_+_Advertising', 'http://dbpedia.org/resource/Porterhouse_Media', 'http://dbpedia.org/resource/Premiere_Networks', 'http://dbpedia.org/resource/Promotus_Advertising', 'http://dbpedia.org/resource/Proximity_Worldwide', 'http://dbpedia.org/resource/Purple_Strategies', 'http://dbpedia.org/resource/Quarry_(company)', 'http://dbpedia.org/resource/R/GA', 'http://dbpedia.org/resource/R%5CWest', 'http://dbpedia.org/resource/Radio_Express', 'http://dbpedia.org/resource/Razor_Creative', 'http://dbpedia.org/resource/Red_Zebra_Broadcasting', 'http://dbpedia.org/resource/Richards/Carlberg', 'http://dbpedia.org/resource/Rothco', 'http://dbpedia.org/resource/Scholz_&amp;_Friends', 'http://dbpedia.org/resource/Screenvision', 'http://dbpedia.org/resource/Seiter_&amp;_Miller_Advertising', 'http://dbpedia.org/resource/Sensis_(company)', 'http://dbpedia.org/resource/Serviceplan', 'http://dbpedia.org/resource/Siren_interactive', 'http://dbpedia.org/resource/Sirved', 'http://dbpedia.org/resource/Smith_(advertising_agency)', 'http://dbpedia.org/resource/Soccer_United_Marketing', 'http://dbpedia.org/resource/Stein_IAS', 'http://dbpedia.org/resource/Stevens_Reed_Curcio_&amp;_Potholm', 'http://dbpedia.org/resource/Stinkdigital', 'http://dbpedia.org/resource/Storeboard_Media', 'http://dbpedia.org/resource/Strata_(company)', 'http://dbpedia.org/resource/Stuart_Advertising_Agency', 'http://dbpedia.org/resource/Sullivan_&amp;_Company', 'http://dbpedia.org/resource/T3_(company)', 'http://dbpedia.org/resource/TBWA_Worldwide', 'http://dbpedia.org/resource/TBWA%5CChiat%5CDay', 'http://dbpedia.org/resource/Telmar_(company)', 'http://dbpedia.org/resource/The_Ant_Farm', 'http://dbpedia.org/resource/The_Barbarian_Group', 'http://dbpedia.org/resource/The_Kluger_Agency', 'http://dbpedia.org/resource/The_Marketing_Group', 'http://dbpedia.org/resource/The_North_Alliance', 'http://dbpedia.org/resource/The_San_Jose_Group', 'http://dbpedia.org/resource/TheSwizzle.com', 'http://dbpedia.org/resource/Titan_(transit_advertising_company)', 'http://dbpedia.org/resource/TM_Advertising', 'http://dbpedia.org/resource/Tocquigny', 'http://dbpedia.org/resource/Tombras_Group', 'http://dbpedia.org/resource/Topham_Guerin', 'http://dbpedia.org/resource/Toth_Brand_Imaging', 'http://dbpedia.org/resource/Traction_(agency)', 'http://dbpedia.org/resource/Tremor_International', 'http://dbpedia.org/resource/Tribal_Worldwide', 'http://dbpedia.org/resource/UNIT9', 'http://dbpedia.org/resource/United_Group', 'http://dbpedia.org/resource/UWG_Inc.', 'http://dbpedia.org/resource/Will_Vinton__Productions__1', 'http://dbpedia.org/resource/Work_Labs', 'http://dbpedia.org/resource/WPP-Scangroup', 'http://dbpedia.org/resource/Wunderman_Thompson', 'http://dbpedia.org/resource/Wunderman', 'http://dbpedia.org/resource/XM_Gravity_Indonesia', 'http://dbpedia.org/resource/YachtWorld', 'http://dbpedia.org/resource/ZERO_VFX']</t>
         </is>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Which Greek parties are pro-European?</t>
+          <t>Which university did Angela Merkel attend?</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Democratic_Alignment_(2015)', 'http://dbpedia.org/resource/Movement_of_Democratic_Socialists', 'http://dbpedia.org/resource/Movement_of_Free_Citizens_(Greece)', 'http://dbpedia.org/resource/PASOK_–_Movement_for_Change', 'http://dbpedia.org/resource/PASOK', 'http://dbpedia.org/resource/Radical_Movement_of_Social_Democratic_Alliance']</t>
+          <t>['http://dbpedia.org/resource/German_Academy_of_Sciences_at_Berlin', 'http://dbpedia.org/resource/Leipzig_University']</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Democratic_Alignment_(2015)', 'http://dbpedia.org/resource/Movement_of_Democratic_Socialists', 'http://dbpedia.org/resource/Movement_of_Free_Citizens_(Greece)', 'http://dbpedia.org/resource/PASOK_–_Movement_for_Change', 'http://dbpedia.org/resource/PASOK', 'http://dbpedia.org/resource/Radical_Movement_of_Social_Democratic_Alliance']</t>
+          <t>['http://dbpedia.org/resource/German_Academy_of_Sciences_at_Berlin', 'http://dbpedia.org/resource/Leipzig_University']</t>
         </is>
       </c>
       <c r="D29" t="b">
@@ -1018,17 +1018,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Who designed the Brooklyn Bridge?</t>
+          <t>Give me all the TV shows with Neil Patrick Harris.</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/John_Augustus_Roebling']</t>
+          <t>['http://dbpedia.org/resource/A_Series_of_Unfortunate_Events_(TV_series)', 'http://dbpedia.org/resource/Capitol_Critters', 'http://dbpedia.org/resource/Doogie_Howser,_M.D.', "http://dbpedia.org/resource/Dr._Horrible's_Sing-Along_Blog", 'http://dbpedia.org/resource/How_I_Met_Your_Mother', "http://dbpedia.org/resource/It's_a_Sin_(TV_series)", 'http://dbpedia.org/resource/Joan_of_Arc_(miniseries)', "http://dbpedia.org/resource/Neil's_Puppet_Dreams", 'http://dbpedia.org/resource/Robot_Chicken_DC_Comics_Special', 'http://dbpedia.org/resource/Snowbound:_The_Jim_and_Jennifer_Stolpa_Story', 'http://dbpedia.org/resource/Stark_Raving_Mad_(TV_series)', 'http://dbpedia.org/resource/The_Christmas_Blessing', 'http://dbpedia.org/resource/The_Christmas_Wish', 'http://dbpedia.org/resource/Too_Good_to_Be_True_(film)', 'http://dbpedia.org/resource/Uncoupled']</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/John_Augustus_Roebling']</t>
+          <t>['http://dbpedia.org/resource/A_Series_of_Unfortunate_Events_(TV_series)', 'http://dbpedia.org/resource/Capitol_Critters', 'http://dbpedia.org/resource/Doogie_Howser,_M.D.', "http://dbpedia.org/resource/Dr._Horrible's_Sing-Along_Blog", 'http://dbpedia.org/resource/How_I_Met_Your_Mother', "http://dbpedia.org/resource/It's_a_Sin_(TV_series)", 'http://dbpedia.org/resource/Joan_of_Arc_(miniseries)', "http://dbpedia.org/resource/Neil's_Puppet_Dreams", 'http://dbpedia.org/resource/Robot_Chicken_DC_Comics_Special', 'http://dbpedia.org/resource/Snowbound:_The_Jim_and_Jennifer_Stolpa_Story', 'http://dbpedia.org/resource/Stark_Raving_Mad_(TV_series)', 'http://dbpedia.org/resource/The_Christmas_Blessing', 'http://dbpedia.org/resource/The_Christmas_Wish', 'http://dbpedia.org/resource/Too_Good_to_Be_True_(film)', 'http://dbpedia.org/resource/Uncoupled']</t>
         </is>
       </c>
       <c r="D30" t="b">
@@ -1038,17 +1038,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Who wrote the Game of Thrones theme?</t>
+          <t>Give me all movies with Tom Cruise.</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Ramin_Djawadi']</t>
+          <t>['http://dbpedia.org/resource/A_Few_Good_Men', 'http://dbpedia.org/resource/All_the_Right_Moves_(film)', 'http://dbpedia.org/resource/American_Made_(film)', 'http://dbpedia.org/resource/Born_on_the_Fourth_of_July_(film)', 'http://dbpedia.org/resource/Cocktail_(1988_film)', 'http://dbpedia.org/resource/Collateral_(film)', 'http://dbpedia.org/resource/Days_of_Thunder', 'http://dbpedia.org/resource/Edge_of_Tomorrow', 'http://dbpedia.org/resource/Eyes_Wide_Shut', 'http://dbpedia.org/resource/Far_and_Away__Far_and_Away__1', 'http://dbpedia.org/resource/Interview_with_the_Vampire_(film)', 'http://dbpedia.org/resource/Jack_Reacher_(film)', 'http://dbpedia.org/resource/Jack_Reacher:_Never_Go_Back', 'http://dbpedia.org/resource/Jerry_Maguire__Jerry_Maguire__1', 'http://dbpedia.org/resource/Knight_and_Day__Knight_and_Day__1', 'http://dbpedia.org/resource/Legend_(1985_film)', 'http://dbpedia.org/resource/Lions_for_Lambs', "http://dbpedia.org/resource/Losin'_It", 'http://dbpedia.org/resource/Magnolia_(film)__Magnolia__1', 'http://dbpedia.org/resource/Minority_Report_(film)', 'http://dbpedia.org/resource/Mission:_Impossible_–_Dead_Reckoning_Part_One', 'http://dbpedia.org/resource/Mission:_Impossible_–_Dead_Reckoning_Part_Two', 'http://dbpedia.org/resource/Mission:_Impossible_–_Fallout', 'http://dbpedia.org/resource/Mission:_Impossible_–_Ghost_Protocol', 'http://dbpedia.org/resource/Mission:_Impossible_–_Rogue_Nation', 'http://dbpedia.org/resource/Mission:_Impossible_(film)', 'http://dbpedia.org/resource/Mission:_Impossible_2', 'http://dbpedia.org/resource/Mission:_Impossible_III', 'http://dbpedia.org/resource/Oblivion_(2013_film)', 'http://dbpedia.org/resource/Rain_Man', 'http://dbpedia.org/resource/Risky_Business', 'http://dbpedia.org/resource/Rock_of_Ages_(2012_film)', 'http://dbpedia.org/resource/Taps_(film)', 'http://dbpedia.org/resource/The_Color_of_Money', 'http://dbpedia.org/resource/The_Firm_(1993_film)', 'http://dbpedia.org/resource/The_Last_Samurai', 'http://dbpedia.org/resource/The_Mummy_(2017_film)', 'http://dbpedia.org/resource/The_Outsiders_(film)', 'http://dbpedia.org/resource/Top_Gun:_Maverick', 'http://dbpedia.org/resource/Top_Gun', 'http://dbpedia.org/resource/Valkyrie_(film)', 'http://dbpedia.org/resource/Vanilla_Sky', 'http://dbpedia.org/resource/War_of_the_Worlds_(2005_film)']</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Ramin_Djawadi']</t>
+          <t>['http://dbpedia.org/resource/A_Few_Good_Men', 'http://dbpedia.org/resource/All_the_Right_Moves_(film)', 'http://dbpedia.org/resource/American_Made_(film)', 'http://dbpedia.org/resource/Born_on_the_Fourth_of_July_(film)', 'http://dbpedia.org/resource/Cocktail_(1988_film)', 'http://dbpedia.org/resource/Collateral_(film)', 'http://dbpedia.org/resource/Days_of_Thunder', 'http://dbpedia.org/resource/Edge_of_Tomorrow', 'http://dbpedia.org/resource/Eyes_Wide_Shut', 'http://dbpedia.org/resource/Far_and_Away__Far_and_Away__1', 'http://dbpedia.org/resource/Interview_with_the_Vampire_(film)', 'http://dbpedia.org/resource/Jack_Reacher_(film)', 'http://dbpedia.org/resource/Jack_Reacher:_Never_Go_Back', 'http://dbpedia.org/resource/Jerry_Maguire__Jerry_Maguire__1', 'http://dbpedia.org/resource/Knight_and_Day__Knight_and_Day__1', 'http://dbpedia.org/resource/Legend_(1985_film)', 'http://dbpedia.org/resource/Lions_for_Lambs', "http://dbpedia.org/resource/Losin'_It", 'http://dbpedia.org/resource/Magnolia_(film)__Magnolia__1', 'http://dbpedia.org/resource/Minority_Report_(film)', 'http://dbpedia.org/resource/Mission:_Impossible_–_Dead_Reckoning_Part_One', 'http://dbpedia.org/resource/Mission:_Impossible_–_Dead_Reckoning_Part_Two', 'http://dbpedia.org/resource/Mission:_Impossible_–_Fallout', 'http://dbpedia.org/resource/Mission:_Impossible_–_Ghost_Protocol', 'http://dbpedia.org/resource/Mission:_Impossible_–_Rogue_Nation', 'http://dbpedia.org/resource/Mission:_Impossible_(film)', 'http://dbpedia.org/resource/Mission:_Impossible_2', 'http://dbpedia.org/resource/Mission:_Impossible_III', 'http://dbpedia.org/resource/Oblivion_(2013_film)', 'http://dbpedia.org/resource/Rain_Man', 'http://dbpedia.org/resource/Risky_Business', 'http://dbpedia.org/resource/Rock_of_Ages_(2012_film)', 'http://dbpedia.org/resource/Taps_(film)', 'http://dbpedia.org/resource/The_Color_of_Money', 'http://dbpedia.org/resource/The_Firm_(1993_film)', 'http://dbpedia.org/resource/The_Last_Samurai', 'http://dbpedia.org/resource/The_Mummy_(2017_film)', 'http://dbpedia.org/resource/The_Outsiders_(film)', 'http://dbpedia.org/resource/Top_Gun:_Maverick', 'http://dbpedia.org/resource/Top_Gun', 'http://dbpedia.org/resource/Valkyrie_(film)', 'http://dbpedia.org/resource/Vanilla_Sky', 'http://dbpedia.org/resource/War_of_the_Worlds_(2005_film)']</t>
         </is>
       </c>
       <c r="D31" t="b">
@@ -1058,17 +1058,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>What is the birth name of Adele?</t>
+          <t>What country is Mount Everest in?</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>['Adele Laurie Blue Adkins']</t>
+          <t>['http://dbpedia.org/resource/China', 'http://dbpedia.org/resource/Nepal']</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>['Adele Laurie Blue Adkins']</t>
+          <t>['http://dbpedia.org/resource/China', 'http://dbpedia.org/resource/Nepal']</t>
         </is>
       </c>
       <c r="D32" t="b">
@@ -1078,17 +1078,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>What is the currency of the Czech Republic?</t>
+          <t>Where was JFK assassinated?</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Czech_koruna']</t>
+          <t>['http://dbpedia.org/resource/Dallas']</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Czech_koruna']</t>
+          <t>['http://dbpedia.org/resource/Dallas']</t>
         </is>
       </c>
       <c r="D33" t="b">
@@ -1098,17 +1098,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Who discovered Ceres?</t>
+          <t>Which river does the Brooklyn Bridge cross?</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Giuseppe_Piazzi']</t>
+          <t>['http://dbpedia.org/resource/East_River']</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Giuseppe_Piazzi']</t>
+          <t>['http://dbpedia.org/resource/East_River']</t>
         </is>
       </c>
       <c r="D34" t="b">
@@ -1118,17 +1118,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>In which films did Julia Roberts as well as Richard Gere play?</t>
+          <t>What was the last movie with Alec Guinness?</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Pretty_Woman', 'http://dbpedia.org/resource/Runaway_Bride_(film)']</t>
+          <t>['http://dbpedia.org/resource/Star_Wars_original_trilogy']</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Pretty_Woman', 'http://dbpedia.org/resource/Runaway_Bride_(film)']</t>
+          <t>['http://dbpedia.org/resource/Star_Wars_original_trilogy']</t>
         </is>
       </c>
       <c r="D35" t="b">
@@ -1138,17 +1138,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>What is the capital of Canada?</t>
+          <t>What is the population of Cairo?</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Ottawa']</t>
+          <t>['10100166']</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Ottawa']</t>
+          <t>['10100166']</t>
         </is>
       </c>
       <c r="D36" t="b">
@@ -1158,17 +1158,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>What is the capital of Cameroon?</t>
+          <t>Which people were born in Heraklion?</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Yaoundé']</t>
+          <t>['http://dbpedia.org/resource/Anastasios_Triantafyllou_(footballer)', 'http://dbpedia.org/resource/Anastasios_Triantafyllou', 'http://dbpedia.org/resource/Andreas_Bouchalakis', 'http://dbpedia.org/resource/Andreas_Musalus', 'http://dbpedia.org/resource/Antonis_Alexakis', 'http://dbpedia.org/resource/Antonis_Bourselis', 'http://dbpedia.org/resource/Archbishop_Makarios_of_Australia', 'http://dbpedia.org/resource/Beata_Kitsikis', 'http://dbpedia.org/resource/Charalampos_Charalampakis', 'http://dbpedia.org/resource/Charalampos_Damianakis', 'http://dbpedia.org/resource/Christoforos_Liontakis', 'http://dbpedia.org/resource/Christoforos_Papakaliatis', 'http://dbpedia.org/resource/Christos_Belevonis', 'http://dbpedia.org/resource/Christos_Kozyrakis', 'http://dbpedia.org/resource/Christos_Saloustros', 'http://dbpedia.org/resource/Chrysovalantis_Kozoronis', 'http://dbpedia.org/resource/Cyril_Lucaris', 'http://dbpedia.org/resource/Dimitrios_Kiliaras', 'http://dbpedia.org/resource/Dimitrios_Papadopoulos_(footballer,_born_1950)__Dimitrios_Papadopoulos__1', 'http://dbpedia.org/resource/Dimitrios_Raptakis', 'http://dbpedia.org/resource/Edison_Kola', 'http://dbpedia.org/resource/Eleftherios_Goulielmakis', 'http://dbpedia.org/resource/Emmanuel_Skordilis', 'http://dbpedia.org/resource/Fotis_Kafatos', 'http://dbpedia.org/resource/Franghias_Kavertzas', 'http://dbpedia.org/resource/Georges_Panayotis', 'http://dbpedia.org/resource/Georgios_Kalaitzakis', 'http://dbpedia.org/resource/Georgios_Kastrofylakas', 'http://dbpedia.org/resource/Georgios_Klontzas', 'http://dbpedia.org/resource/Georgios_Kortezas', 'http://dbpedia.org/resource/Georgios_Manousakis', 'http://dbpedia.org/resource/Georgios_Samaras', 'http://dbpedia.org/resource/Georgios_Sarris', 'http://dbpedia.org/resource/Georgios_Sournakis', 'http://dbpedia.org/resource/Georgios_Vlastos', 'http://dbpedia.org/resource/Gianna_Angelopoulos-Daskalaki', 'http://dbpedia.org/resource/Giannis_Boutsakis', 'http://dbpedia.org/resource/Giannis_Dermitzakis', 'http://dbpedia.org/resource/Giannis_Domatas', 'http://dbpedia.org/resource/Giannis_Iatroudis', 'http://dbpedia.org/resource/Giannis_Koutantos', 'http://dbpedia.org/resource/Giannis_Vardinogiannis', 'http://dbpedia.org/resource/Giorgos_Giakoumakis__Giorgos_Giakoumakis__1', 'http://dbpedia.org/resource/Giorgos_Grammatikakis', 'http://dbpedia.org/resource/Giorgos_Petrakis', 'http://dbpedia.org/resource/Ieremias_Palladas', 'http://dbpedia.org/resource/Ilias_Koutsoupias', 'http://dbpedia.org/resource/Ioannis_Apakas', 'http://dbpedia.org/resource/Ioannis_Ikonomou', 'http://dbpedia.org/resource/Ioannis_Pagomenos', 'http://dbpedia.org/resource/Iosif_Daskalakis', 'http://dbpedia.org/resource/Irini_Vasiliou', 'http://dbpedia.org/resource/Joseph_Sifakis', 'http://dbpedia.org/resource/Konstantinos_Gouvis', 'http://dbpedia.org/resource/Konstantinos_Provydakis', 'http://dbpedia.org/resource/Konstanty_Korniakt', 'http://dbpedia.org/resource/Kostas_Chaniotakis', 'http://dbpedia.org/resource/Lampros_Kefaloukos', 'http://dbpedia.org/resource/Lefteris_Gialousis', 'http://dbpedia.org/resource/Lena_Platonos', 'http://dbpedia.org/resource/Leonidas_Kyrkos', 'http://dbpedia.org/resource/Lili_Zografou', 'http://dbpedia.org/resource/Manolis_Bolakis', 'http://dbpedia.org/resource/Manolis_Hatzidakis', 'http://dbpedia.org/resource/Manolis_Moniakis', 'http://dbpedia.org/resource/Manolis_Papamattheakis', 'http://dbpedia.org/resource/Manolis_Patemtzis', 'http://dbpedia.org/resource/Manolis_Roubakis', 'http://dbpedia.org/resource/Manolis_Roussakis', 'http://dbpedia.org/resource/Manolis_Rovithis', 'http://dbpedia.org/resource/Manolis_Saliakas', 'http://dbpedia.org/resource/Manolis_Stefanoudakis', 'http://dbpedia.org/resource/Manuel_Fokas', 'http://dbpedia.org/resource/Markos_Bathas', 'http://dbpedia.org/resource/Meletius_I_Pegas', 'http://dbpedia.org/resource/Michael_Fokas', 'http://dbpedia.org/resource/Michael_Katehakis', 'http://dbpedia.org/resource/Michail_Fragoulakis', 'http://dbpedia.org/resource/Michalis_Sifakis', 'http://dbpedia.org/resource/Michalis_Tzirakis', 'http://dbpedia.org/resource/Minas_Chalkiadakis', 'http://dbpedia.org/resource/Minas_Pitsos', 'http://dbpedia.org/resource/Myron_Michailidis', 'http://dbpedia.org/resource/Nadia_Valavani', 'http://dbpedia.org/resource/Nektarios_Azizi', 'http://dbpedia.org/resource/Nektarios_Tavernarakis', 'http://dbpedia.org/resource/Nicholas_Kalliakis', 'http://dbpedia.org/resource/Nikolaos_Gripiotis', 'http://dbpedia.org/resource/Nikolaos_Ritzos', 'http://dbpedia.org/resource/Nikonas_Spiliotakis', 'http://dbpedia.org/resource/Nikos_Androulakis', 'http://dbpedia.org/resource/Nikos_Karelis', 'http://dbpedia.org/resource/Nikos_Kazantzakis', 'http://dbpedia.org/resource/Nikos_Kousidis', 'http://dbpedia.org/resource/Nikos_Machlas', 'http://dbpedia.org/resource/Nikos_Marinakis', 'http://dbpedia.org/resource/Nikos_Psimopoulos', 'http://dbpedia.org/resource/Nikos_Vrettos', 'http://dbpedia.org/resource/Ntinos_Konstantakis', 'http://dbpedia.org/resource/Odysseas_Elytis', 'http://dbpedia.org/resource/Oresti_Kacurri', 'http://dbpedia.org/resource/Panagiotis_Kalaitzakis', 'http://dbpedia.org/resource/Panagiotis_Petras', 'http://dbpedia.org/resource/Petros_Giakoumakis', 'http://dbpedia.org/resource/Petros_Lambardos', 'http://dbpedia.org/resource/Petros_Marinakis', 'http://dbpedia.org/resource/Şadi_Çalık', 'http://dbpedia.org/resource/Sapfo_Notara', 'http://dbpedia.org/resource/Spyros_Danellis', 'http://dbpedia.org/resource/Stavros_Arnaoutakis', 'http://dbpedia.org/resource/Stavros_Labrakis', 'http://dbpedia.org/resource/Theocharis_Silvestros', 'http://dbpedia.org/resource/Theophanes_the_Cretan', 'http://dbpedia.org/resource/Thomas_Bathas', 'http://dbpedia.org/resource/Vangelis_Nikokyrakis', 'http://dbpedia.org/resource/Vasilios_Babis', 'http://dbpedia.org/resource/Vasilios_Vogiatzis', 'http://dbpedia.org/resource/Victor_(iconographer)', 'http://dbpedia.org/resource/Zacharias_Kavousakis']</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Yaoundé']</t>
+          <t>['http://dbpedia.org/resource/Anastasios_Triantafyllou_(footballer)', 'http://dbpedia.org/resource/Anastasios_Triantafyllou', 'http://dbpedia.org/resource/Andreas_Bouchalakis', 'http://dbpedia.org/resource/Andreas_Musalus', 'http://dbpedia.org/resource/Antonis_Alexakis', 'http://dbpedia.org/resource/Antonis_Bourselis', 'http://dbpedia.org/resource/Archbishop_Makarios_of_Australia', 'http://dbpedia.org/resource/Beata_Kitsikis', 'http://dbpedia.org/resource/Charalampos_Charalampakis', 'http://dbpedia.org/resource/Charalampos_Damianakis', 'http://dbpedia.org/resource/Christoforos_Liontakis', 'http://dbpedia.org/resource/Christoforos_Papakaliatis', 'http://dbpedia.org/resource/Christos_Belevonis', 'http://dbpedia.org/resource/Christos_Kozyrakis', 'http://dbpedia.org/resource/Christos_Saloustros', 'http://dbpedia.org/resource/Chrysovalantis_Kozoronis', 'http://dbpedia.org/resource/Cyril_Lucaris', 'http://dbpedia.org/resource/Dimitrios_Kiliaras', 'http://dbpedia.org/resource/Dimitrios_Papadopoulos_(footballer,_born_1950)__Dimitrios_Papadopoulos__1', 'http://dbpedia.org/resource/Dimitrios_Raptakis', 'http://dbpedia.org/resource/Edison_Kola', 'http://dbpedia.org/resource/Eleftherios_Goulielmakis', 'http://dbpedia.org/resource/Emmanuel_Skordilis', 'http://dbpedia.org/resource/Fotis_Kafatos', 'http://dbpedia.org/resource/Franghias_Kavertzas', 'http://dbpedia.org/resource/Georges_Panayotis', 'http://dbpedia.org/resource/Georgios_Kalaitzakis', 'http://dbpedia.org/resource/Georgios_Kastrofylakas', 'http://dbpedia.org/resource/Georgios_Klontzas', 'http://dbpedia.org/resource/Georgios_Kortezas', 'http://dbpedia.org/resource/Georgios_Manousakis', 'http://dbpedia.org/resource/Georgios_Samaras', 'http://dbpedia.org/resource/Georgios_Sarris', 'http://dbpedia.org/resource/Georgios_Sournakis', 'http://dbpedia.org/resource/Georgios_Vlastos', 'http://dbpedia.org/resource/Gianna_Angelopoulos-Daskalaki', 'http://dbpedia.org/resource/Giannis_Boutsakis', 'http://dbpedia.org/resource/Giannis_Dermitzakis', 'http://dbpedia.org/resource/Giannis_Domatas', 'http://dbpedia.org/resource/Giannis_Iatroudis', 'http://dbpedia.org/resource/Giannis_Koutantos', 'http://dbpedia.org/resource/Giannis_Vardinogiannis', 'http://dbpedia.org/resource/Giorgos_Giakoumakis__Giorgos_Giakoumakis__1', 'http://dbpedia.org/resource/Giorgos_Grammatikakis', 'http://dbpedia.org/resource/Giorgos_Petrakis', 'http://dbpedia.org/resource/Ieremias_Palladas', 'http://dbpedia.org/resource/Ilias_Koutsoupias', 'http://dbpedia.org/resource/Ioannis_Apakas', 'http://dbpedia.org/resource/Ioannis_Ikonomou', 'http://dbpedia.org/resource/Ioannis_Pagomenos', 'http://dbpedia.org/resource/Iosif_Daskalakis', 'http://dbpedia.org/resource/Irini_Vasiliou', 'http://dbpedia.org/resource/Joseph_Sifakis', 'http://dbpedia.org/resource/Konstantinos_Gouvis', 'http://dbpedia.org/resource/Konstantinos_Provydakis', 'http://dbpedia.org/resource/Konstanty_Korniakt', 'http://dbpedia.org/resource/Kostas_Chaniotakis', 'http://dbpedia.org/resource/Lampros_Kefaloukos', 'http://dbpedia.org/resource/Lefteris_Gialousis', 'http://dbpedia.org/resource/Lena_Platonos', 'http://dbpedia.org/resource/Leonidas_Kyrkos', 'http://dbpedia.org/resource/Lili_Zografou', 'http://dbpedia.org/resource/Manolis_Bolakis', 'http://dbpedia.org/resource/Manolis_Hatzidakis', 'http://dbpedia.org/resource/Manolis_Moniakis', 'http://dbpedia.org/resource/Manolis_Papamattheakis', 'http://dbpedia.org/resource/Manolis_Patemtzis', 'http://dbpedia.org/resource/Manolis_Roubakis', 'http://dbpedia.org/resource/Manolis_Roussakis', 'http://dbpedia.org/resource/Manolis_Rovithis', 'http://dbpedia.org/resource/Manolis_Saliakas', 'http://dbpedia.org/resource/Manolis_Stefanoudakis', 'http://dbpedia.org/resource/Manuel_Fokas', 'http://dbpedia.org/resource/Markos_Bathas', 'http://dbpedia.org/resource/Meletius_I_Pegas', 'http://dbpedia.org/resource/Michael_Fokas', 'http://dbpedia.org/resource/Michael_Katehakis', 'http://dbpedia.org/resource/Michail_Fragoulakis', 'http://dbpedia.org/resource/Michalis_Sifakis', 'http://dbpedia.org/resource/Michalis_Tzirakis', 'http://dbpedia.org/resource/Minas_Chalkiadakis', 'http://dbpedia.org/resource/Minas_Pitsos', 'http://dbpedia.org/resource/Myron_Michailidis', 'http://dbpedia.org/resource/Nadia_Valavani', 'http://dbpedia.org/resource/Nektarios_Azizi', 'http://dbpedia.org/resource/Nektarios_Tavernarakis', 'http://dbpedia.org/resource/Nicholas_Kalliakis', 'http://dbpedia.org/resource/Nikolaos_Gripiotis', 'http://dbpedia.org/resource/Nikolaos_Ritzos', 'http://dbpedia.org/resource/Nikonas_Spiliotakis', 'http://dbpedia.org/resource/Nikos_Androulakis', 'http://dbpedia.org/resource/Nikos_Karelis', 'http://dbpedia.org/resource/Nikos_Kazantzakis', 'http://dbpedia.org/resource/Nikos_Kousidis', 'http://dbpedia.org/resource/Nikos_Machlas', 'http://dbpedia.org/resource/Nikos_Marinakis', 'http://dbpedia.org/resource/Nikos_Psimopoulos', 'http://dbpedia.org/resource/Nikos_Vrettos', 'http://dbpedia.org/resource/Ntinos_Konstantakis', 'http://dbpedia.org/resource/Odysseas_Elytis', 'http://dbpedia.org/resource/Oresti_Kacurri', 'http://dbpedia.org/resource/Panagiotis_Kalaitzakis', 'http://dbpedia.org/resource/Panagiotis_Petras', 'http://dbpedia.org/resource/Petros_Giakoumakis', 'http://dbpedia.org/resource/Petros_Lambardos', 'http://dbpedia.org/resource/Petros_Marinakis', 'http://dbpedia.org/resource/Şadi_Çalık', 'http://dbpedia.org/resource/Sapfo_Notara', 'http://dbpedia.org/resource/Spyros_Danellis', 'http://dbpedia.org/resource/Stavros_Arnaoutakis', 'http://dbpedia.org/resource/Stavros_Labrakis', 'http://dbpedia.org/resource/Theocharis_Silvestros', 'http://dbpedia.org/resource/Theophanes_the_Cretan', 'http://dbpedia.org/resource/Thomas_Bathas', 'http://dbpedia.org/resource/Vangelis_Nikokyrakis', 'http://dbpedia.org/resource/Vasilios_Babis', 'http://dbpedia.org/resource/Vasilios_Vogiatzis', 'http://dbpedia.org/resource/Victor_(iconographer)', 'http://dbpedia.org/resource/Zacharias_Kavousakis']</t>
         </is>
       </c>
       <c r="D37" t="b">
@@ -1178,17 +1178,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Who created Family Guy?</t>
+          <t>How many children did Benjamin Franklin have?</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Seth_MacFarlane']</t>
+          <t>['3']</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Seth_MacFarlane']</t>
+          <t>['3']</t>
         </is>
       </c>
       <c r="D38" t="b">
@@ -1198,17 +1198,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>How many people live in the capital of Australia?</t>
+          <t>In which country is Mecca located?</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>['453558']</t>
+          <t>['http://dbpedia.org/resource/Saudi_Arabia']</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>['453558']</t>
+          <t>['http://dbpedia.org/resource/Saudi_Arabia']</t>
         </is>
       </c>
       <c r="D39" t="b">
@@ -1218,17 +1218,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>how big is the total area of North Rhine- Westphalia?</t>
+          <t>How tall is Claudia Schiffer?</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>['34084130000']</t>
+          <t>['1.8']</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>['34084130000']</t>
+          <t>['1.8']</t>
         </is>
       </c>
       <c r="D40" t="b">
@@ -1238,17 +1238,17 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>How many employees does IBM have?</t>
+          <t>Which holidays are celebrated around the world?</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>['282100']</t>
+          <t>['http://dbpedia.org/resource/140th_Anniversary_Celebration_of_the_Emancipation_Proclamation', 'http://dbpedia.org/resource/19_Kislev', "http://dbpedia.org/resource/21_July_Martyr's_Day_Rally", 'http://dbpedia.org/resource/3_May_Constitution_Day', 'http://dbpedia.org/resource/420_(cannabis_culture)', 'http://dbpedia.org/resource/75th_Anniversary_of_Indian_Independence', 'http://dbpedia.org/resource/Aadi_Perukku', 'http://dbpedia.org/resource/Abaca_Festival', 'http://dbpedia.org/resource/Aberri_Eguna', 'http://dbpedia.org/resource/Absentee_funeral_prayer_(Islam)', 'http://dbpedia.org/resource/Accession_Day_(Jammu_and_Kashmir)', 'http://dbpedia.org/resource/Adae_Festival', 'http://dbpedia.org/resource/Advent_Sunday', 'http://dbpedia.org/resource/Advent', 'http://dbpedia.org/resource/Adwa_Victory_Day', 'http://dbpedia.org/resource/Afghan_Independence_Day', 'http://dbpedia.org/resource/Africa_Day', 'http://dbpedia.org/resource/Afro-Colombian_Day', 'http://dbpedia.org/resource/Agawan_Festival', 'http://dbpedia.org/resource/Agonalia', 'http://dbpedia.org/resource/Agrasen_Jayanti', 'http://dbpedia.org/resource/Ahoi_Ashtami', 'http://dbpedia.org/resource/Air_Force_Day_(Pakistan)', 'http://dbpedia.org/resource/Airborne_March', 'http://dbpedia.org/resource/Akita_Kantō', 'http://dbpedia.org/resource/Akitu', 'http://dbpedia.org/resource/Akshaya_Tritiya', 'http://dbpedia.org/resource/Akwasidae_Festival', 'http://dbpedia.org/resource/Alabama_Day', "http://dbpedia.org/resource/Åland's_Autonomy_Day", 'http://dbpedia.org/resource/Alaska_Day', 'http://dbpedia.org/resource/Aldersgate_Day', 'http://dbpedia.org/resource/Alexandra_Rose_Day', "http://dbpedia.org/resource/All_Saints'_Day", "http://dbpedia.org/resource/All_Souls'_Day", 'http://dbpedia.org/resource/Allantide', 'http://dbpedia.org/resource/Allhallowtide', 'http://dbpedia.org/resource/Amalaka_Ekadashi', 'http://dbpedia.org/resource/Ambedkar_Jayanti', 'http://dbpedia.org/resource/Ambubachi_Mela', 'http://dbpedia.org/resource/Amburbium', 'http://dbpedia.org/resource/America_Recycles_Day', "http://dbpedia.org/resource/American_Business_Women's_Day", 'http://dbpedia.org/resource/American_Family_Day', 'http://dbpedia.org/resource/American_Heart_Month', 'http://dbpedia.org/resource/An_Act_for_the_Admission_of_the_State_of_California', 'http://dbpedia.org/resource/Anant_Chaturdashi', 'http://dbpedia.org/resource/Angam_Day', 'http://dbpedia.org/resource/Angarki_Sankashti_Chaturthi', 'http://dbpedia.org/resource/Anishinaabe_Giizhigad', 'http://dbpedia.org/resource/Anniversary_of_the_Unification_of_Italy', 'http://dbpedia.org/resource/Antarctica_Day', 'http://dbpedia.org/resource/Anti-Bullying_Day', 'http://dbpedia.org/resource/Anti-Fascist_Struggle_Day', 'http://dbpedia.org/resource/Anzac_Day', 'http://dbpedia.org/resource/Apple_Feast_of_the_Saviour', "http://dbpedia.org/resource/April_Fools'_Day", 'http://dbpedia.org/resource/Arattupuzha_Pooram', 'http://dbpedia.org/resource/Aravan_Festival_in_Coimbatore', "http://dbpedia.org/resource/Arba'een", 'http://dbpedia.org/resource/Arbor_Day', 'http://dbpedia.org/resource/Armed_Forces_Day_(Bangladesh)', 'http://dbpedia.org/resource/Armed_Forces_Day_(Poland)', 'http://dbpedia.org/resource/Armed_Forces_Day_(South_Korea)', 'http://dbpedia.org/resource/Armed_Forces_Day_(Tajikistan)', 'http://dbpedia.org/resource/Armed_Forces_Day_(United_Kingdom)', 'http://dbpedia.org/resource/Armenian_Genocide_Remembrance_Day', 'http://dbpedia.org/resource/Armilustrium', 'http://dbpedia.org/resource/Armistice_Day', 'http://dbpedia.org/resource/Army_Day_(Armenia)', 'http://dbpedia.org/resource/Aromanian_National_Day', 'http://dbpedia.org/resource/Artsakh_Revival_Day', 'http://dbpedia.org/resource/Asalha_Puja', 'http://dbpedia.org/resource/Ash_Wednesday', 'http://dbpedia.org/resource/Ashadhi_Puja', 'http://dbpedia.org/resource/Ashanti_Yam_Festival', 'http://dbpedia.org/resource/Ashenda', 'http://dbpedia.org/resource/Ashtimki', 'http://dbpedia.org/resource/Ashura', 'http://dbpedia.org/resource/Asian_American_and_Pacific_Islander_Heritage_Month', 'http://dbpedia.org/resource/Ask_a_Stupid_Question_Day', 'http://dbpedia.org/resource/Asr_prayer', 'http://dbpedia.org/resource/Assumption_of_Mary', 'http://dbpedia.org/resource/Astan_Bandar', 'http://dbpedia.org/resource/Asteroid_Day', 'http://dbpedia.org/resource/Astronauts_Day', 'http://dbpedia.org/resource/Ati-Atihan_festival', 'http://dbpedia.org/resource/Atla_Tadde', 'http://dbpedia.org/resource/Attukal_Pongala', 'http://dbpedia.org/resource/Auckland_Anniversary_Day', 'http://dbpedia.org/resource/August_Holiday', 'http://dbpedia.org/resource/Australia_Day', 'http://dbpedia.org/resource/Australian_Citizenship_Day', 'http://dbpedia.org/resource/Autism_Sunday', 'http://dbpedia.org/resource/Autumnal_Equinox_Day', 'http://dbpedia.org/resource/Awukudae_Festival', 'http://dbpedia.org/resource/Ayudha_Puja', 'http://dbpedia.org/resource/Ayurveda_Day', 'http://dbpedia.org/resource/Azad_Kashmir_Day', 'http://dbpedia.org/resource/Azores_Day', 'http://dbpedia.org/resource/Baba_Marta_Day', 'http://dbpedia.org/resource/Babinden', 'http://dbpedia.org/resource/Baci', 'http://dbpedia.org/resource/Bali_Jatra', 'http://dbpedia.org/resource/Balipratipada', 'http://dbpedia.org/resource/Ballarat_Show', 'http://dbpedia.org/resource/Baltic_Freedom_Day', 'http://dbpedia.org/resource/Baltic_Unity_Day', 'http://dbpedia.org/resource/Bandi_Chhor_Divas', 'http://dbpedia.org/resource/Bandna', 'http://dbpedia.org/resource/Banned_Books_Week', 'http://dbpedia.org/resource/Barack_Obama_Day', 'http://dbpedia.org/resource/Basant_(festival)', 'http://dbpedia.org/resource/Bastille_Day_military_parade', 'http://dbpedia.org/resource/Bastille_Day', 'http://dbpedia.org/resource/Batakari_Day', 'http://dbpedia.org/resource/Bathukamma', 'http://dbpedia.org/resource/Batik_Day', 'http://dbpedia.org/resource/Battle_of_Saragarhi__Day__1', 'http://dbpedia.org/resource/Bauernfest', 'http://dbpedia.org/resource/Belgian_National_Day', 'http://dbpedia.org/resource/Beltane', 'http://dbpedia.org/resource/Ben-Gurion_Day', 'http://dbpedia.org/resource/Beñesmen', 'http://dbpedia.org/resource/Bengali_Genocide_Remembrance_Day', 'http://dbpedia.org/resource/Bennington_Battle_Day', 'http://dbpedia.org/resource/Berchtoldstag', 'http://dbpedia.org/resource/Bhai_Dooj', 'http://dbpedia.org/resource/Bhairava_Ashtami', 'http://dbpedia.org/resource/Bhimana_Amavasya', 'http://dbpedia.org/resource/Bhogi', 'http://dbpedia.org/resource/Bhumchu', 'http://dbpedia.org/resource/Bhume_Naach', 'http://dbpedia.org/resource/Bibi-Ka-Alam', 'http://dbpedia.org/resource/Bihar_Day', 'http://dbpedia.org/resource/Bihu', 'http://dbpedia.org/resource/Binirayan_festival', 'http://dbpedia.org/resource/Birkat_Hachama', "http://dbpedia.org/resource/Birth_of_Baháʼu'lláh", 'http://dbpedia.org/resource/Bisexual_Awareness_Week', 'http://dbpedia.org/resource/Bisu_Parba', 'http://dbpedia.org/resource/Bizhu', 'http://dbpedia.org/resource/Black_Day_(South_Korea)', 'http://dbpedia.org/resource/Black_Friday_(partying)', 'http://dbpedia.org/resource/Black_Friday_(shopping)', 'http://dbpedia.org/resource/Black_History_Month', 'http://dbpedia.org/resource/Black_Ribbon_Day', 'http://dbpedia.org/resource/Blackout_Wednesday', "http://dbpedia.org/resource/Blacks_and_Whites'_Carnival", 'http://dbpedia.org/resource/Blasphemy_Day', 'http://dbpedia.org/resource/Blessed_Rainy_Day', 'http://dbpedia.org/resource/Blue_Beanie_Day', 'http://dbpedia.org/resource/Blue_Christmas_(holiday)', 'http://dbpedia.org/resource/Blue_Mass', 'http://dbpedia.org/resource/Bodhi_Day', 'http://dbpedia.org/resource/Bohag_Bihu', 'http://dbpedia.org/resource/Boishakhi_Mela', 'http://dbpedia.org/resource/Boita_Bandana', 'http://dbpedia.org/resource/Bon_(festival)', 'http://dbpedia.org/resource/Bon_Festival', 'http://dbpedia.org/resource/Bon_Om_Touk', 'http://dbpedia.org/resource/Bonalu', 'http://dbpedia.org/resource/Bonifacio_Day', 'http://dbpedia.org/resource/Book_Lovers_Day', 'http://dbpedia.org/resource/Border_Guards_Day', "http://dbpedia.org/resource/Boss's_Day", 'http://dbpedia.org/resource/Boun_Suang_Huea', 'http://dbpedia.org/resource/Boxing_Day', 'http://dbpedia.org/resource/Boxing_Week', 'http://dbpedia.org/resource/Brain_Tumor_Awareness_Month', "http://dbpedia.org/resource/Buddha's_Birthday", 'http://dbpedia.org/resource/Buhe', 'http://dbpedia.org/resource/Buisu', 'http://dbpedia.org/resource/Bukovina_Day', 'http://dbpedia.org/resource/Bulgarian_Armed_Forces_Day', "http://dbpedia.org/resource/Burmese_Martyrs'_Day", 'http://dbpedia.org/resource/Burns_supper', 'http://dbpedia.org/resource/Buß-_und_Bettag', 'http://dbpedia.org/resource/Busu_Dima', 'http://dbpedia.org/resource/Buwan_ng_Wika', 'http://dbpedia.org/resource/Buy_Nothing_Day', 'http://dbpedia.org/resource/Bwisagu', 'http://dbpedia.org/resource/Cake_and_Cunnilingus_Day', 'http://dbpedia.org/resource/Calan_Gaeaf', 'http://dbpedia.org/resource/Cambodian_New_Year', 'http://dbpedia.org/resource/Canada_Day', 'http://dbpedia.org/resource/Canberra_Day', 'http://dbpedia.org/resource/Cancer_Control_Month', 'http://dbpedia.org/resource/Candlemas', 'http://dbpedia.org/resource/Caribbean-American_Heritage_Month', 'http://dbpedia.org/resource/Caristia', 'http://dbpedia.org/resource/Carl_Garner_Federal_Lands_Cleanup_Day', 'http://dbpedia.org/resource/Carmentalia', 'http://dbpedia.org/resource/Carnaval_de_Ponce', 'http://dbpedia.org/resource/Carnaval_de_Vejigantes', 'http://dbpedia.org/resource/Carnival_in_Belize', 'http://dbpedia.org/resource/Carnival_of_Madeira', 'http://dbpedia.org/resource/Carnival_of_Ovar', 'http://dbpedia.org/resource/Carnival_of_Santa_Cruz_de_Tenerife', 'http://dbpedia.org/resource/Casimir_Pulaski_Day', 'http://dbpedia.org/resource/Cassette_Store_Day', 'http://dbpedia.org/resource/Cassinga_Day', 'http://dbpedia.org/resource/Castile_and_León_Day', 'http://dbpedia.org/resource/Castleton_Garland_Day', 'http://dbpedia.org/resource/Catandungan_Festival', 'http://dbpedia.org/resource/Celebrate_Bisexuality_Day', 'http://dbpedia.org/resource/Ceremony_of_the_Keys_(London)', 'http://dbpedia.org/resource/Cesar_Chavez_Day', 'http://dbpedia.org/resource/Ceuta_Day', 'http://dbpedia.org/resource/Chaand_Raat', "http://dbpedia.org/resource/Chafa'a", 'http://dbpedia.org/resource/Chaharshanbe_Suri', 'http://dbpedia.org/resource/Chaiti_Festival,_Rayagada', 'http://dbpedia.org/resource/Chak_Phra', 'http://dbpedia.org/resource/Chandeshwori_Jatra', 'http://dbpedia.org/resource/Chapchar_Kut', 'http://dbpedia.org/resource/Charak_Puja', 'http://dbpedia.org/resource/Charro_Days', 'http://dbpedia.org/resource/Chasok_Tangnam', 'http://dbpedia.org/resource/Chatar_jatra', 'http://dbpedia.org/resource/Chaturmasya', 'http://dbpedia.org/resource/Cheti_Chand', 'http://dbpedia.org/resource/Chhadakhai', 'http://dbpedia.org/resource/Chhath', 'http://dbpedia.org/resource/Child_Health_Day', 'http://dbpedia.org/resource/Childbirth_Masses', "http://dbpedia.org/resource/Children's_Day_(India)", "http://dbpedia.org/resource/Children's_Day_(Japan)", "http://dbpedia.org/resource/Children's_Day", 'http://dbpedia.org/resource/Chilseok', "http://dbpedia.org/resource/Chinese_New_Year's_Eve", 'http://dbpedia.org/resource/Chinese_New_Year', 'http://dbpedia.org/resource/Chitra_Pournami_(festival)', 'http://dbpedia.org/resource/Chocolate_Day_(Ghana)', 'http://dbpedia.org/resource/Christmas_and_holiday_season', 'http://dbpedia.org/resource/Christmas_Eve', 'http://dbpedia.org/resource/Christmas_in_Ireland', 'http://dbpedia.org/resource/Christmas_in_Romania', 'http://dbpedia.org/resource/Christmas_in_Russia', 'http://dbpedia.org/resource/Christmas_in_Sweden', 'http://dbpedia.org/resource/Christmas_in_Ukraine', 'http://dbpedia.org/resource/Christmas_lights_in_Medellín', 'http://dbpedia.org/resource/Christmas_pageant', 'http://dbpedia.org/resource/Christmas_Sunday', 'http://dbpedia.org/resource/Christmas_traditions', 'http://dbpedia.org/resource/Christmas', 'http://dbpedia.org/resource/Christmastide', 'http://dbpedia.org/resource/Cimarrones_Festival', 'http://dbpedia.org/resource/Cinco_de_Mayo', 'http://dbpedia.org/resource/Cinnamon_Roll_Day', 'http://dbpedia.org/resource/Civic_Holiday', 'http://dbpedia.org/resource/Classics_Day', 'http://dbpedia.org/resource/Coast_Guard_Day', 'http://dbpedia.org/resource/Cold_Food_Festival', 'http://dbpedia.org/resource/Coming_of_Age_Day', 'http://dbpedia.org/resource/Commemoration_Day_of_Fallen_Soldiers', 'http://dbpedia.org/resource/Commemoration_Day', 'http://dbpedia.org/resource/Commemoration_of_Atatürk,_Youth_and_Sports_Day', 'http://dbpedia.org/resource/Commonwealth_Day', 'http://dbpedia.org/resource/Concord_Day', 'http://dbpedia.org/resource/Confederate_Memorial_Day', 'http://dbpedia.org/resource/Constitution_Day_(Denmark)', 'http://dbpedia.org/resource/Constitution_Day_(Ghana)', 'http://dbpedia.org/resource/Constitution_Day_(India)', 'http://dbpedia.org/resource/Constitution_Day_(Kazakhstan)', 'http://dbpedia.org/resource/Constitution_Day_(Norway)', 'http://dbpedia.org/resource/Constitution_Day_(Russia)', 'http://dbpedia.org/resource/Constitution_Day_(South_Korea)', 'http://dbpedia.org/resource/Constitution_Day_(Ukraine)', 'http://dbpedia.org/resource/Constitution_Day_(United_States)', 'http://dbpedia.org/resource/Constitution_Memorial_Day', 'http://dbpedia.org/resource/Constitution_Week', 'http://dbpedia.org/resource/Consualia', 'http://dbpedia.org/resource/Contraband_Days', 'http://dbpedia.org/resource/COPD_Awareness_Month', 'http://dbpedia.org/resource/Coral_Triangle_Day', 'http://dbpedia.org/resource/Cosmonautics_Day', 'http://dbpedia.org/resource/Côte-Rôtie', 'http://dbpedia.org/resource/Courir_de_Mardi_Gras', 'http://dbpedia.org/resource/Cow_Harbor_Day', 'http://dbpedia.org/resource/Crop_Over', "http://dbpedia.org/resource/Cruisin'_Downriver", 'http://dbpedia.org/resource/Cry_of_Dolores', 'http://dbpedia.org/resource/Culture_Day', 'http://dbpedia.org/resource/Čuvari_Hristovog_groba', 'http://dbpedia.org/resource/Cyber_Monday', 'http://dbpedia.org/resource/Daeboreum', 'http://dbpedia.org/resource/Dahi_Handi', 'http://dbpedia.org/resource/Dahi_Jatra', 'http://dbpedia.org/resource/Dalit_History_Month', 'http://dbpedia.org/resource/Dano_(festival)', 'http://dbpedia.org/resource/Dano_(Korean_festival)', 'http://dbpedia.org/resource/Darwin_Day', 'http://dbpedia.org/resource/Dashain', 'http://dbpedia.org/resource/Data_Privacy_Day', 'http://dbpedia.org/resource/Datta_Jayanti', 'http://dbpedia.org/resource/Davao_City_Torotot_Festival', 'http://dbpedia.org/resource/Day_of_Arafah', 'http://dbpedia.org/resource/Day_of_Conception', 'http://dbpedia.org/resource/Day_of_Missile_Forces_and_Artillery', 'http://dbpedia.org/resource/Day_of_National_Dignity', 'http://dbpedia.org/resource/Day_of_Neutrality', 'http://dbpedia.org/resource/Day_of_Prayer', 'http://dbpedia.org/resource/Day_of_Reconciliation', 'http://dbpedia.org/resource/Day_of_Remembrance_for_All_Victims_of_Chemical_Warfare', 'http://dbpedia.org/resource/Day_of_Remembrance_for_Truth_and_Justice', 'http://dbpedia.org/resource/Day_of_Remembrance_of_the_Victims_of_Political_Repressions', 'http://dbpedia.org/resource/Day_of_Republika_Srpska', 'http://dbpedia.org/resource/Day_of_Restoration_of_Independence_(Azerbaijan)', 'http://dbpedia.org/resource/Day_of_Silence', 'http://dbpedia.org/resource/Day_of_Songun', 'http://dbpedia.org/resource/Day_of_the_Armed_Forces_(Kyrgyzstan)', 'http://dbpedia.org/resource/Day_of_the_Armed_Forces_of_Azerbaijan', 'http://dbpedia.org/resource/Day_of_the_Canary_Islands', 'http://dbpedia.org/resource/Day_of_the_Cuban_Armed_Forces', 'http://dbpedia.org/resource/Day_of_the_Dead', 'http://dbpedia.org/resource/Day_of_the_Flemish_Community', 'http://dbpedia.org/resource/Day_of_the_Foundation_of_the_Republic', 'http://dbpedia.org/resource/Day_of_the_founding_of_the_German_Empire', 'http://dbpedia.org/resource/Day_of_the_German-speaking_Community_of_Belgium', 'http://dbpedia.org/resource/Day_of_the_German-speaking_Community', 'http://dbpedia.org/resource/Day_of_the_Little_Candles', 'http://dbpedia.org/resource/Day_of_the_National_Flag_(Ukraine)', 'http://dbpedia.org/resource/Day_of_the_Shining_Star', 'http://dbpedia.org/resource/Day_of_the_Sun', 'http://dbpedia.org/resource/Day_of_the_Unification_of_the_Romanian_Principalities', 'http://dbpedia.org/resource/Day_of_the_Union_of_Bessarabia_with_Romania', 'http://dbpedia.org/resource/Day_of_the_Walloon_Region', 'http://dbpedia.org/resource/Day_of_the_Young_Combatant', 'http://dbpedia.org/resource/Day_of_Ukrainian_Literature_and_Language', 'http://dbpedia.org/resource/Day_of_Valor', 'http://dbpedia.org/resource/Day_of_Victory_in_the_Great_Fatherland_Liberation_War', 'http://dbpedia.org/resource/Daylight_saving_time_in_Canada', 'http://dbpedia.org/resource/Deepothsavam', 'http://dbpedia.org/resource/Defence_Day', 'http://dbpedia.org/resource/Defender_of_the_Fatherland_Day_(Kazakhstan)', 'http://dbpedia.org/resource/Defender_of_the_Fatherland_Day', 'http://dbpedia.org/resource/Defender_of_the_Motherland_Day', 'http://dbpedia.org/resource/Defenders_Day_(Maryland)', 'http://dbpedia.org/resource/Defenders_Day_(Ukraine)', 'http://dbpedia.org/resource/Dehwa_Daimana', 'http://dbpedia.org/resource/Dehwa_Hanina', 'http://dbpedia.org/resource/Dehwa_Rabba', 'http://dbpedia.org/resource/Democracy_and_National_Unity_Day', 'http://dbpedia.org/resource/Dev_Deepawali_(Varanasi)', 'http://dbpedia.org/resource/Dhammachakra_Pravartan_Din', 'http://dbpedia.org/resource/Dhanteras', 'http://dbpedia.org/resource/Dhanu_jatra', 'http://dbpedia.org/resource/Dhodha', 'http://dbpedia.org/resource/Día_de_la_Altagracia', 'http://dbpedia.org/resource/Día_Mundial_de_Ponce', 'http://dbpedia.org/resource/Día_Nacional_de_Galicia', 'http://dbpedia.org/resource/Días_Patrios_(Guatemala)', 'http://dbpedia.org/resource/Dinagyang', 'http://dbpedia.org/resource/Dinamulag_Festival', 'http://dbpedia.org/resource/Disabled_Access_Day', 'http://dbpedia.org/resource/Distaff_Day', 'http://dbpedia.org/resource/Dita_e_Verës', 'http://dbpedia.org/resource/Diwali_(Jainism)', 'http://dbpedia.org/resource/Diwali', 'http://dbpedia.org/resource/DNA_Day', 'http://dbpedia.org/resource/Dobruja_Day', 'http://dbpedia.org/resource/Dongzhi_Festival', 'http://dbpedia.org/resource/Dormition_of_the_Mother_of_God', 'http://dbpedia.org/resource/Dosmoche', 'http://dbpedia.org/resource/Double_Sixth_Festival', 'http://dbpedia.org/resource/Double_Third_Festival', 'http://dbpedia.org/resource/Downfall_of_the_Derg_(holiday)', 'http://dbpedia.org/resource/Dożynki', 'http://dbpedia.org/resource/Dragon_Boat_Festival', 'http://dbpedia.org/resource/Drupka_Teshi', 'http://dbpedia.org/resource/Duanwu_Festival', 'http://dbpedia.org/resource/Duha', 'http://dbpedia.org/resource/Dundee_Fortnight', 'http://dbpedia.org/resource/Durga_Puja', 'http://dbpedia.org/resource/Durgapur_Free_Day', 'http://dbpedia.org/resource/Dziady', 'http://dbpedia.org/resource/Earth_Day', 'http://dbpedia.org/resource/Earth_Hour', 'http://dbpedia.org/resource/Easter', 'http://dbpedia.org/resource/Economics_of_Christmas', 'http://dbpedia.org/resource/Eid_al-Adha', 'http://dbpedia.org/resource/Eid_al-Fitr', 'http://dbpedia.org/resource/Eid_al-Ghadir', 'http://dbpedia.org/resource/Eid_il-Burbara', 'http://dbpedia.org/resource/Eid_prayers', 'http://dbpedia.org/resource/El_Buen_Fin', 'http://dbpedia.org/resource/Ely_Eel_Day', 'http://dbpedia.org/resource/Emergency_Services_Day_(United_Kingdom)', 'http://dbpedia.org/resource/Employee_Appreciation_Day', 'http://dbpedia.org/resource/Enkutatash', 'http://dbpedia.org/resource/Epiphany_(Christian)', 'http://dbpedia.org/resource/Epiphany_(holiday)', 'http://dbpedia.org/resource/Epiphanytide', 'http://dbpedia.org/resource/Errol_Barrow_Day', 'http://dbpedia.org/resource/Erzya_Language_Day', 'http://dbpedia.org/resource/Ethiopian_Christmas', "http://dbpedia.org/resource/Ethiopian_Patriots'_Victory_Day", 'http://dbpedia.org/resource/Ettu_Nombu', 'http://dbpedia.org/resource/Europe_Day', 'http://dbpedia.org/resource/European_Day_of_the_Righteous', 'http://dbpedia.org/resource/Evacuation_Day_(Massachusetts)', 'http://dbpedia.org/resource/Evacuation_Day_(New_York)', 'http://dbpedia.org/resource/Evacuation_Day_(Syria)', 'http://dbpedia.org/resource/Evelio_Javier_Day', 'http://dbpedia.org/resource/Evolution_Day', 'http://dbpedia.org/resource/Execution_of_the_Báb', 'http://dbpedia.org/resource/Fajr_nafl_prayer', 'http://dbpedia.org/resource/Fajr_prayer', 'http://dbpedia.org/resource/Falklands_Day', 'http://dbpedia.org/resource/Family_Day_(Canada)', "http://dbpedia.org/resource/Farmers'_Day", 'http://dbpedia.org/resource/Fast_of_Esther', 'http://dbpedia.org/resource/Fast_of_Gedalia', 'http://dbpedia.org/resource/Fast_of_Nineveh', 'http://dbpedia.org/resource/Fast_of_the_Firstborn', 'http://dbpedia.org/resource/Father–Daughter_Day', "http://dbpedia.org/resource/Father's_Day_(United_States)", "http://dbpedia.org/resource/Father's_Day", 'http://dbpedia.org/resource/Fatimiyya', 'http://dbpedia.org/resource/Feast_of_Ezid', 'http://dbpedia.org/resource/Feast_of_Saint_George_(Palestine)', 'http://dbpedia.org/resource/Feast_of_Saints_Francis_and_Catherine', 'http://dbpedia.org/resource/Feast_of_Saints_Peter_and_Paul', 'http://dbpedia.org/resource/Feast_of_the_Annunciation', 'http://dbpedia.org/resource/Feast_of_the_Ass', 'http://dbpedia.org/resource/Feast_of_the_Assembly', 'http://dbpedia.org/resource/Feast_of_the_Black_Nazarene', 'http://dbpedia.org/resource/Feast_of_the_Great_Shishlam', 'http://dbpedia.org/resource/Feast_of_the_Immaculate_Conception', 'http://dbpedia.org/resource/Federal_Day_of_Thanksgiving,_Repentance_and_Prayer', 'http://dbpedia.org/resource/Federal_holidays_in_the_United_States', 'http://dbpedia.org/resource/Federal_Territory_Day', 'http://dbpedia.org/resource/Feralia', 'http://dbpedia.org/resource/Feria_de_Artesanías_de_Ponce', 'http://dbpedia.org/resource/Feriae_Latinae', 'http://dbpedia.org/resource/Ferragosto', 'http://dbpedia.org/resource/Festa_de_São_João_do_Porto', 'http://dbpedia.org/resource/Festa_della_Repubblica', 'http://dbpedia.org/resource/Festival_de_Bomba_y_Plena_de_San_Antón', 'http://dbpedia.org/resource/Festival_Folclórico_y_Reinado_Nacional_del_Bambuco', 'http://dbpedia.org/resource/Festival_Nacional_Afrocaribeño', 'http://dbpedia.org/resource/Festival_Nacional_de_la_Quenepa', 'http://dbpedia.org/resource/Festival_of_Lights_(Lyon)', 'http://dbpedia.org/resource/Festival_of_Perun', 'http://dbpedia.org/resource/Festival_of_Veles', 'http://dbpedia.org/resource/Festivus', 'http://dbpedia.org/resource/Festum_Ovorum', 'http://dbpedia.org/resource/Fiesta_Nacional_de_la_Danza', 'http://dbpedia.org/resource/Fiestas_de_Santa_Fe', 'http://dbpedia.org/resource/Fiestas_del_Pilar', 'http://dbpedia.org/resource/Fiestas_Patrias_(Chile)', 'http://dbpedia.org/resource/Fiestas_Patrias_(Peru)', 'http://dbpedia.org/resource/Fiestas_patronales_de_Ponce', 'http://dbpedia.org/resource/Fiji_Week', 'http://dbpedia.org/resource/Filipino_American_History_Month', 'http://dbpedia.org/resource/Filipino_Heritage_Month', 'http://dbpedia.org/resource/Filseta', 'http://dbpedia.org/resource/Finnish_Swedish_Heritage_Day', 'http://dbpedia.org/resource/First_day_of_summer_(Iceland)', 'http://dbpedia.org/resource/First_National_Government', 'http://dbpedia.org/resource/Flag_Day_(Albania)', 'http://dbpedia.org/resource/Flag_Day_(Argentina)', 'http://dbpedia.org/resource/Flag_Day_(Australia)', 'http://dbpedia.org/resource/Flag_Day_(United_Arab_Emirates)', 'http://dbpedia.org/resource/Flag_Day_(United_States)', 'http://dbpedia.org/resource/Flag_Day_in_Mexico', 'http://dbpedia.org/resource/Floralia', 'http://dbpedia.org/resource/Fordicidia', 'http://dbpedia.org/resource/Fossil_Fools_Day', 'http://dbpedia.org/resource/Fössta_tossdan_i_mass', "http://dbpedia.org/resource/Founders'_Day_(Ghana)", 'http://dbpedia.org/resource/Frankenstein_Day', 'http://dbpedia.org/resource/Fraternal_Day', 'http://dbpedia.org/resource/Freedom_and_Democracy_Day', 'http://dbpedia.org/resource/Freedom_Day_(Belarus)', 'http://dbpedia.org/resource/Freedom_Day_(Malta)', 'http://dbpedia.org/resource/Freedom_Day_(South_Africa)', 'http://dbpedia.org/resource/French_Community_Holiday', 'http://dbpedia.org/resource/Friendship_Day', 'http://dbpedia.org/resource/Fukagawa_Matsuri', 'http://dbpedia.org/resource/Funeral_prayer_(Islam)', 'http://dbpedia.org/resource/Gaan-Ngai', 'http://dbpedia.org/resource/Gaecheonjeol', 'http://dbpedia.org/resource/Gai_Jatra', 'http://dbpedia.org/resource/Gajan_(festival)', 'http://dbpedia.org/resource/Galdan_Namchot', 'http://dbpedia.org/resource/Galician_Literature_Day', 'http://dbpedia.org/resource/Galungan', 'http://dbpedia.org/resource/Gandhi_Jayanti', 'http://dbpedia.org/resource/Ganesh_Chaturthi', 'http://dbpedia.org/resource/Ganesh_Jayanti', 'http://dbpedia.org/resource/Ganga_Dussehra', 'http://dbpedia.org/resource/Ganga_puja', 'http://dbpedia.org/resource/Gangamma_Jatara', 'http://dbpedia.org/resource/Gangaur', 'http://dbpedia.org/resource/Garifuna_Settlement_Day', 'http://dbpedia.org/resource/Gasparilla_Pirate_Festival', 'http://dbpedia.org/resource/Gaudete_Sunday', 'http://dbpedia.org/resource/Gaura_(festival)', 'http://dbpedia.org/resource/Gawai_Dayak', 'http://dbpedia.org/resource/Geek_Pride_Day', 'http://dbpedia.org/resource/General_Pulaski_Memorial_Day', "http://dbpedia.org/resource/George's_Day_in_Autumn", "http://dbpedia.org/resource/George's_Day_in_Spring", 'http://dbpedia.org/resource/Georgia_Day', 'http://dbpedia.org/resource/German_Unity_Day', 'http://dbpedia.org/resource/German-American_Day', 'http://dbpedia.org/resource/Ghanta_Karna', 'http://dbpedia.org/resource/Ghost_Festival', 'http://dbpedia.org/resource/Giant_Lantern_Festival', 'http://dbpedia.org/resource/Gibraltar_National_Day', 'http://dbpedia.org/resource/Gifaata', 'http://dbpedia.org/resource/Gilgit-Baltistan_Independence_Day', 'http://dbpedia.org/resource/Gion_Matsuri', 'http://dbpedia.org/resource/Giving_Tuesday', 'http://dbpedia.org/resource/GivingTuesday', 'http://dbpedia.org/resource/Glasgow_Fair', 'http://dbpedia.org/resource/Global_Accessibility_Awareness_Day', 'http://dbpedia.org/resource/Global_Day_of_Action_on_Military_Spending', 'http://dbpedia.org/resource/Global_Handwashing_Day', 'http://dbpedia.org/resource/Global_Information_Governance_Day', 'http://dbpedia.org/resource/Global_Money_Week', 'http://dbpedia.org/resource/Global_Running_Day', 'http://dbpedia.org/resource/Global_Wind_Day', 'http://dbpedia.org/resource/Goa_Liberation_Day', 'http://dbpedia.org/resource/Golden_Week_(Japan)', 'http://dbpedia.org/resource/Golu', 'http://dbpedia.org/resource/Good_Friday', 'http://dbpedia.org/resource/Good_Governance_Day', 'http://dbpedia.org/resource/Gopastami', 'http://dbpedia.org/resource/Govatsa_Dwadashi', 'http://dbpedia.org/resource/Gowri_Habba', "http://dbpedia.org/resource/Grand_Duke's_Official_Birthday", "http://dbpedia.org/resource/Grandparents'_Day", 'http://dbpedia.org/resource/Great_Union_Day', 'http://dbpedia.org/resource/Green_Monday', 'http://dbpedia.org/resource/Green_week', 'http://dbpedia.org/resource/Greenery_Day', 'http://dbpedia.org/resource/Groundhog_Day', 'http://dbpedia.org/resource/Guam_Discovery_Day', 'http://dbpedia.org/resource/Guanacaste_Day', 'http://dbpedia.org/resource/Gudi_Padwa', 'http://dbpedia.org/resource/Gunla', 'http://dbpedia.org/resource/Guru_Nanak_Gurpurab', 'http://dbpedia.org/resource/Guru_Purnima', 'http://dbpedia.org/resource/Gustavus_Adolphus_Day', 'http://dbpedia.org/resource/Gustor_Festival', 'http://dbpedia.org/resource/Hadaka_Matsuri', 'http://dbpedia.org/resource/Haitian_Heritage_Month', 'http://dbpedia.org/resource/Hakata_Dontaku', 'http://dbpedia.org/resource/Hakata_Gion_Yamakasa', 'http://dbpedia.org/resource/Halloween', 'http://dbpedia.org/resource/Handsel_Monday', 'http://dbpedia.org/resource/Hangul_Day', 'http://dbpedia.org/resource/Hanukkah', 'http://dbpedia.org/resource/Hanuman_Jayanti', 'http://dbpedia.org/resource/Harela_Mela', 'http://dbpedia.org/resource/Harriet_Tubman_Day', 'http://dbpedia.org/resource/Harvey_Milk_Day', 'http://dbpedia.org/resource/Haya_Day', 'http://dbpedia.org/resource/Heikru_Hidongba', 'http://dbpedia.org/resource/Helen_Keller_Day', 'http://dbpedia.org/resource/Heritage_Day_(South_Africa)', "http://dbpedia.org/resource/Heroes'_Day_(Namibia)", "http://dbpedia.org/resource/Heroes'_Day", 'http://dbpedia.org/resource/Herzl_Day', 'http://dbpedia.org/resource/Higalaay_Festival', 'http://dbpedia.org/resource/Higantes_Festival', 'http://dbpedia.org/resource/Hilaria', 'http://dbpedia.org/resource/Hillbilly_Days', 'http://dbpedia.org/resource/Hiloula_of_Rabbi_Haim_Pinto', 'http://dbpedia.org/resource/Hinamatsuri', 'http://dbpedia.org/resource/Hindi_Day', 'http://dbpedia.org/resource/History_of_lysergic_acid_diethylamide', 'http://dbpedia.org/resource/Hizb_Rateb', 'http://dbpedia.org/resource/Hıdırellez', 'http://dbpedia.org/resource/Hobiyee', 'http://dbpedia.org/resource/Hogmanay', 'http://dbpedia.org/resource/Hola_Mohalla', 'http://dbpedia.org/resource/Holi', 'http://dbpedia.org/resource/Holidays_with_paid_time_off_in_the_United_States', 'http://dbpedia.org/resource/Holika_Dahan', 'http://dbpedia.org/resource/Holy_Saturday', 'http://dbpedia.org/resource/Holy_Week_in_Ruvo_di_Puglia', 'http://dbpedia.org/resource/Hōnensai', 'http://dbpedia.org/resource/Honey_Feast_of_the_Saviour', 'http://dbpedia.org/resource/Hong_Kong_Foundation_Day', 'http://dbpedia.org/resource/Hong_Kong_Special_Administrative_Region_Establishment_Day', 'http://dbpedia.org/resource/Honor_America_Days', 'http://dbpedia.org/resource/Hop-tu-Naa', 'http://dbpedia.org/resource/Hosay', 'http://dbpedia.org/resource/Human_Rights_Day', 'http://dbpedia.org/resource/HumanLight', "http://dbpedia.org/resource/Hùng_Kings'_Festival", 'http://dbpedia.org/resource/Hyderabad-Karnataka_Liberation_Day', 'http://dbpedia.org/resource/Icelandic_National_Day', 'http://dbpedia.org/resource/Imbolc', 'http://dbpedia.org/resource/Imoinu_Iratpa', 'http://dbpedia.org/resource/In_town,_without_my_car!', 'http://dbpedia.org/resource/Independence_and_Unity_Day_(Slovenia)', 'http://dbpedia.org/resource/Independence_Day_(Abkhazia)', 'http://dbpedia.org/resource/Independence_Day_(Algeria)', 'http://dbpedia.org/resource/Independence_Day_(Armenia)', 'http://dbpedia.org/resource/Independence_Day_(Bahrain)', 'http://dbpedia.org/resource/Independence_Day_(Bangladesh)', 'http://dbpedia.org/resource/Independence_Day_(Belarus)', 'http://dbpedia.org/resource/Independence_Day_(Bosnia_and_Herzegovina)', 'http://dbpedia.org/resource/Independence_Day_(Botswana)', 'http://dbpedia.org/resource/Independence_Day_(Brazil)', 'http://dbpedia.org/resource/Independence_Day_(Croatia)', 'http://dbpedia.org/resource/Independence_Day_(Cyprus)', 'http://dbpedia.org/resource/Independence_Day_(Djibouti)', 'http://dbpedia.org/resource/Independence_Day_(Eritrea)', 'http://dbpedia.org/resource/Independence_Day_(Estonia)', 'http://dbpedia.org/resource/Independence_Day_(Finland)', 'http://dbpedia.org/resource/Independence_Day_(Georgia)', 'http://dbpedia.org/resource/Independence_Day_(Ghana)', 'http://dbpedia.org/resource/Independence_Day_(Grenada)', 'http://dbpedia.org/resource/Independence_Day_(Hawaii)', 'http://dbpedia.org/resource/Independence_Day_(India)', 'http://dbpedia.org/resource/Independence_Day_(Indonesia)', 'http://dbpedia.org/resource/Independence_Day_(Jamaica)', 'http://dbpedia.org/resource/Independence_Day_(Jordan)', 'http://dbpedia.org/resource/Independence_Day_(Kazakhstan)', 'http://dbpedia.org/resource/Independence_Day_(Kyrgyzstan)', 'http://dbpedia.org/resource/Independence_Day_(Malaysia)', 'http://dbpedia.org/resource/Independence_Day_(Malta)', 'http://dbpedia.org/resource/Independence_Day_(Myanmar)', 'http://dbpedia.org/resource/Independence_Day_(Niger)', 'http://dbpedia.org/resource/Independence_Day_(North_Macedonia)', 'http://dbpedia.org/resource/Independence_Day_(Pakistan)', 'http://dbpedia.org/resource/Independence_Day_(Philippines)', 'http://dbpedia.org/resource/Independence_Day_(Somalia)', 'http://dbpedia.org/resource/Independence_Day_(Somaliland)', 'http://dbpedia.org/resource/Independence_Day_(South_Ossetia)', 'http://dbpedia.org/resource/Independence_Day_(Sri_Lanka)', 'http://dbpedia.org/resource/Independence_Day_(State_of_Somaliland)', 'http://dbpedia.org/resource/Independence_Day_(Tajikistan)', 'http://dbpedia.org/resource/Independence_Day_(Turkmenistan)', 'http://dbpedia.org/resource/Independence_Day_(Uganda)', 'http://dbpedia.org/resource/Independence_Day_(United_States)', 'http://dbpedia.org/resource/Independence_Day_(Uzbekistan)', 'http://dbpedia.org/resource/Independence_Day_of_Cambodia', 'http://dbpedia.or</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>['282100']</t>
+          <t>['http://dbpedia.org/resource/140th_Anniversary_Celebration_of_the_Emancipation_Proclamation', 'http://dbpedia.org/resource/19_Kislev', "http://dbpedia.org/resource/21_July_Martyr's_Day_Rally", 'http://dbpedia.org/resource/3_May_Constitution_Day', 'http://dbpedia.org/resource/420_(cannabis_culture)', 'http://dbpedia.org/resource/75th_Anniversary_of_Indian_Independence', 'http://dbpedia.org/resource/Aadi_Perukku', 'http://dbpedia.org/resource/Abaca_Festival', 'http://dbpedia.org/resource/Aberri_Eguna', 'http://dbpedia.org/resource/Absentee_funeral_prayer_(Islam)', 'http://dbpedia.org/resource/Accession_Day_(Jammu_and_Kashmir)', 'http://dbpedia.org/resource/Adae_Festival', 'http://dbpedia.org/resource/Advent_Sunday', 'http://dbpedia.org/resource/Advent', 'http://dbpedia.org/resource/Adwa_Victory_Day', 'http://dbpedia.org/resource/Afghan_Independence_Day', 'http://dbpedia.org/resource/Africa_Day', 'http://dbpedia.org/resource/Afro-Colombian_Day', 'http://dbpedia.org/resource/Agawan_Festival', 'http://dbpedia.org/resource/Agonalia', 'http://dbpedia.org/resource/Agrasen_Jayanti', 'http://dbpedia.org/resource/Ahoi_Ashtami', 'http://dbpedia.org/resource/Air_Force_Day_(Pakistan)', 'http://dbpedia.org/resource/Airborne_March', 'http://dbpedia.org/resource/Akita_Kantō', 'http://dbpedia.org/resource/Akitu', 'http://dbpedia.org/resource/Akshaya_Tritiya', 'http://dbpedia.org/resource/Akwasidae_Festival', 'http://dbpedia.org/resource/Alabama_Day', "http://dbpedia.org/resource/Åland's_Autonomy_Day", 'http://dbpedia.org/resource/Alaska_Day', 'http://dbpedia.org/resource/Aldersgate_Day', 'http://dbpedia.org/resource/Alexandra_Rose_Day', "http://dbpedia.org/resource/All_Saints'_Day", "http://dbpedia.org/resource/All_Souls'_Day", 'http://dbpedia.org/resource/Allantide', 'http://dbpedia.org/resource/Allhallowtide', 'http://dbpedia.org/resource/Amalaka_Ekadashi', 'http://dbpedia.org/resource/Ambedkar_Jayanti', 'http://dbpedia.org/resource/Ambubachi_Mela', 'http://dbpedia.org/resource/Amburbium', 'http://dbpedia.org/resource/America_Recycles_Day', "http://dbpedia.org/resource/American_Business_Women's_Day", 'http://dbpedia.org/resource/American_Family_Day', 'http://dbpedia.org/resource/American_Heart_Month', 'http://dbpedia.org/resource/An_Act_for_the_Admission_of_the_State_of_California', 'http://dbpedia.org/resource/Anant_Chaturdashi', 'http://dbpedia.org/resource/Angam_Day', 'http://dbpedia.org/resource/Angarki_Sankashti_Chaturthi', 'http://dbpedia.org/resource/Anishinaabe_Giizhigad', 'http://dbpedia.org/resource/Anniversary_of_the_Unification_of_Italy', 'http://dbpedia.org/resource/Antarctica_Day', 'http://dbpedia.org/resource/Anti-Bullying_Day', 'http://dbpedia.org/resource/Anti-Fascist_Struggle_Day', 'http://dbpedia.org/resource/Anzac_Day', 'http://dbpedia.org/resource/Apple_Feast_of_the_Saviour', "http://dbpedia.org/resource/April_Fools'_Day", 'http://dbpedia.org/resource/Arattupuzha_Pooram', 'http://dbpedia.org/resource/Aravan_Festival_in_Coimbatore', "http://dbpedia.org/resource/Arba'een", 'http://dbpedia.org/resource/Arbor_Day', 'http://dbpedia.org/resource/Armed_Forces_Day_(Bangladesh)', 'http://dbpedia.org/resource/Armed_Forces_Day_(Poland)', 'http://dbpedia.org/resource/Armed_Forces_Day_(South_Korea)', 'http://dbpedia.org/resource/Armed_Forces_Day_(Tajikistan)', 'http://dbpedia.org/resource/Armed_Forces_Day_(United_Kingdom)', 'http://dbpedia.org/resource/Armenian_Genocide_Remembrance_Day', 'http://dbpedia.org/resource/Armilustrium', 'http://dbpedia.org/resource/Armistice_Day', 'http://dbpedia.org/resource/Army_Day_(Armenia)', 'http://dbpedia.org/resource/Aromanian_National_Day', 'http://dbpedia.org/resource/Artsakh_Revival_Day', 'http://dbpedia.org/resource/Asalha_Puja', 'http://dbpedia.org/resource/Ash_Wednesday', 'http://dbpedia.org/resource/Ashadhi_Puja', 'http://dbpedia.org/resource/Ashanti_Yam_Festival', 'http://dbpedia.org/resource/Ashenda', 'http://dbpedia.org/resource/Ashtimki', 'http://dbpedia.org/resource/Ashura', 'http://dbpedia.org/resource/Asian_American_and_Pacific_Islander_Heritage_Month', 'http://dbpedia.org/resource/Ask_a_Stupid_Question_Day', 'http://dbpedia.org/resource/Asr_prayer', 'http://dbpedia.org/resource/Assumption_of_Mary', 'http://dbpedia.org/resource/Astan_Bandar', 'http://dbpedia.org/resource/Asteroid_Day', 'http://dbpedia.org/resource/Astronauts_Day', 'http://dbpedia.org/resource/Ati-Atihan_festival', 'http://dbpedia.org/resource/Atla_Tadde', 'http://dbpedia.org/resource/Attukal_Pongala', 'http://dbpedia.org/resource/Auckland_Anniversary_Day', 'http://dbpedia.org/resource/August_Holiday', 'http://dbpedia.org/resource/Australia_Day', 'http://dbpedia.org/resource/Australian_Citizenship_Day', 'http://dbpedia.org/resource/Autism_Sunday', 'http://dbpedia.org/resource/Autumnal_Equinox_Day', 'http://dbpedia.org/resource/Awukudae_Festival', 'http://dbpedia.org/resource/Ayudha_Puja', 'http://dbpedia.org/resource/Ayurveda_Day', 'http://dbpedia.org/resource/Azad_Kashmir_Day', 'http://dbpedia.org/resource/Azores_Day', 'http://dbpedia.org/resource/Baba_Marta_Day', 'http://dbpedia.org/resource/Babinden', 'http://dbpedia.org/resource/Baci', 'http://dbpedia.org/resource/Bali_Jatra', 'http://dbpedia.org/resource/Balipratipada', 'http://dbpedia.org/resource/Ballarat_Show', 'http://dbpedia.org/resource/Baltic_Freedom_Day', 'http://dbpedia.org/resource/Baltic_Unity_Day', 'http://dbpedia.org/resource/Bandi_Chhor_Divas', 'http://dbpedia.org/resource/Bandna', 'http://dbpedia.org/resource/Banned_Books_Week', 'http://dbpedia.org/resource/Barack_Obama_Day', 'http://dbpedia.org/resource/Basant_(festival)', 'http://dbpedia.org/resource/Bastille_Day_military_parade', 'http://dbpedia.org/resource/Bastille_Day', 'http://dbpedia.org/resource/Batakari_Day', 'http://dbpedia.org/resource/Bathukamma', 'http://dbpedia.org/resource/Batik_Day', 'http://dbpedia.org/resource/Battle_of_Saragarhi__Day__1', 'http://dbpedia.org/resource/Bauernfest', 'http://dbpedia.org/resource/Belgian_National_Day', 'http://dbpedia.org/resource/Beltane', 'http://dbpedia.org/resource/Ben-Gurion_Day', 'http://dbpedia.org/resource/Beñesmen', 'http://dbpedia.org/resource/Bengali_Genocide_Remembrance_Day', 'http://dbpedia.org/resource/Bennington_Battle_Day', 'http://dbpedia.org/resource/Berchtoldstag', 'http://dbpedia.org/resource/Bhai_Dooj', 'http://dbpedia.org/resource/Bhairava_Ashtami', 'http://dbpedia.org/resource/Bhimana_Amavasya', 'http://dbpedia.org/resource/Bhogi', 'http://dbpedia.org/resource/Bhumchu', 'http://dbpedia.org/resource/Bhume_Naach', 'http://dbpedia.org/resource/Bibi-Ka-Alam', 'http://dbpedia.org/resource/Bihar_Day', 'http://dbpedia.org/resource/Bihu', 'http://dbpedia.org/resource/Binirayan_festival', 'http://dbpedia.org/resource/Birkat_Hachama', "http://dbpedia.org/resource/Birth_of_Baháʼu'lláh", 'http://dbpedia.org/resource/Bisexual_Awareness_Week', 'http://dbpedia.org/resource/Bisu_Parba', 'http://dbpedia.org/resource/Bizhu', 'http://dbpedia.org/resource/Black_Day_(South_Korea)', 'http://dbpedia.org/resource/Black_Friday_(partying)', 'http://dbpedia.org/resource/Black_Friday_(shopping)', 'http://dbpedia.org/resource/Black_History_Month', 'http://dbpedia.org/resource/Black_Ribbon_Day', 'http://dbpedia.org/resource/Blackout_Wednesday', "http://dbpedia.org/resource/Blacks_and_Whites'_Carnival", 'http://dbpedia.org/resource/Blasphemy_Day', 'http://dbpedia.org/resource/Blessed_Rainy_Day', 'http://dbpedia.org/resource/Blue_Beanie_Day', 'http://dbpedia.org/resource/Blue_Christmas_(holiday)', 'http://dbpedia.org/resource/Blue_Mass', 'http://dbpedia.org/resource/Bodhi_Day', 'http://dbpedia.org/resource/Bohag_Bihu', 'http://dbpedia.org/resource/Boishakhi_Mela', 'http://dbpedia.org/resource/Boita_Bandana', 'http://dbpedia.org/resource/Bon_(festival)', 'http://dbpedia.org/resource/Bon_Festival', 'http://dbpedia.org/resource/Bon_Om_Touk', 'http://dbpedia.org/resource/Bonalu', 'http://dbpedia.org/resource/Bonifacio_Day', 'http://dbpedia.org/resource/Book_Lovers_Day', 'http://dbpedia.org/resource/Border_Guards_Day', "http://dbpedia.org/resource/Boss's_Day", 'http://dbpedia.org/resource/Boun_Suang_Huea', 'http://dbpedia.org/resource/Boxing_Day', 'http://dbpedia.org/resource/Boxing_Week', 'http://dbpedia.org/resource/Brain_Tumor_Awareness_Month', "http://dbpedia.org/resource/Buddha's_Birthday", 'http://dbpedia.org/resource/Buhe', 'http://dbpedia.org/resource/Buisu', 'http://dbpedia.org/resource/Bukovina_Day', 'http://dbpedia.org/resource/Bulgarian_Armed_Forces_Day', "http://dbpedia.org/resource/Burmese_Martyrs'_Day", 'http://dbpedia.org/resource/Burns_supper', 'http://dbpedia.org/resource/Buß-_und_Bettag', 'http://dbpedia.org/resource/Busu_Dima', 'http://dbpedia.org/resource/Buwan_ng_Wika', 'http://dbpedia.org/resource/Buy_Nothing_Day', 'http://dbpedia.org/resource/Bwisagu', 'http://dbpedia.org/resource/Cake_and_Cunnilingus_Day', 'http://dbpedia.org/resource/Calan_Gaeaf', 'http://dbpedia.org/resource/Cambodian_New_Year', 'http://dbpedia.org/resource/Canada_Day', 'http://dbpedia.org/resource/Canberra_Day', 'http://dbpedia.org/resource/Cancer_Control_Month', 'http://dbpedia.org/resource/Candlemas', 'http://dbpedia.org/resource/Caribbean-American_Heritage_Month', 'http://dbpedia.org/resource/Caristia', 'http://dbpedia.org/resource/Carl_Garner_Federal_Lands_Cleanup_Day', 'http://dbpedia.org/resource/Carmentalia', 'http://dbpedia.org/resource/Carnaval_de_Ponce', 'http://dbpedia.org/resource/Carnaval_de_Vejigantes', 'http://dbpedia.org/resource/Carnival_in_Belize', 'http://dbpedia.org/resource/Carnival_of_Madeira', 'http://dbpedia.org/resource/Carnival_of_Ovar', 'http://dbpedia.org/resource/Carnival_of_Santa_Cruz_de_Tenerife', 'http://dbpedia.org/resource/Casimir_Pulaski_Day', 'http://dbpedia.org/resource/Cassette_Store_Day', 'http://dbpedia.org/resource/Cassinga_Day', 'http://dbpedia.org/resource/Castile_and_León_Day', 'http://dbpedia.org/resource/Castleton_Garland_Day', 'http://dbpedia.org/resource/Catandungan_Festival', 'http://dbpedia.org/resource/Celebrate_Bisexuality_Day', 'http://dbpedia.org/resource/Ceremony_of_the_Keys_(London)', 'http://dbpedia.org/resource/Cesar_Chavez_Day', 'http://dbpedia.org/resource/Ceuta_Day', 'http://dbpedia.org/resource/Chaand_Raat', "http://dbpedia.org/resource/Chafa'a", 'http://dbpedia.org/resource/Chaharshanbe_Suri', 'http://dbpedia.org/resource/Chaiti_Festival,_Rayagada', 'http://dbpedia.org/resource/Chak_Phra', 'http://dbpedia.org/resource/Chandeshwori_Jatra', 'http://dbpedia.org/resource/Chapchar_Kut', 'http://dbpedia.org/resource/Charak_Puja', 'http://dbpedia.org/resource/Charro_Days', 'http://dbpedia.org/resource/Chasok_Tangnam', 'http://dbpedia.org/resource/Chatar_jatra', 'http://dbpedia.org/resource/Chaturmasya', 'http://dbpedia.org/resource/Cheti_Chand', 'http://dbpedia.org/resource/Chhadakhai', 'http://dbpedia.org/resource/Chhath', 'http://dbpedia.org/resource/Child_Health_Day', 'http://dbpedia.org/resource/Childbirth_Masses', "http://dbpedia.org/resource/Children's_Day_(India)", "http://dbpedia.org/resource/Children's_Day_(Japan)", "http://dbpedia.org/resource/Children's_Day", 'http://dbpedia.org/resource/Chilseok', "http://dbpedia.org/resource/Chinese_New_Year's_Eve", 'http://dbpedia.org/resource/Chinese_New_Year', 'http://dbpedia.org/resource/Chitra_Pournami_(festival)', 'http://dbpedia.org/resource/Chocolate_Day_(Ghana)', 'http://dbpedia.org/resource/Christmas_and_holiday_season', 'http://dbpedia.org/resource/Christmas_Eve', 'http://dbpedia.org/resource/Christmas_in_Ireland', 'http://dbpedia.org/resource/Christmas_in_Romania', 'http://dbpedia.org/resource/Christmas_in_Russia', 'http://dbpedia.org/resource/Christmas_in_Sweden', 'http://dbpedia.org/resource/Christmas_in_Ukraine', 'http://dbpedia.org/resource/Christmas_lights_in_Medellín', 'http://dbpedia.org/resource/Christmas_pageant', 'http://dbpedia.org/resource/Christmas_Sunday', 'http://dbpedia.org/resource/Christmas_traditions', 'http://dbpedia.org/resource/Christmas', 'http://dbpedia.org/resource/Christmastide', 'http://dbpedia.org/resource/Cimarrones_Festival', 'http://dbpedia.org/resource/Cinco_de_Mayo', 'http://dbpedia.org/resource/Cinnamon_Roll_Day', 'http://dbpedia.org/resource/Civic_Holiday', 'http://dbpedia.org/resource/Classics_Day', 'http://dbpedia.org/resource/Coast_Guard_Day', 'http://dbpedia.org/resource/Cold_Food_Festival', 'http://dbpedia.org/resource/Coming_of_Age_Day', 'http://dbpedia.org/resource/Commemoration_Day_of_Fallen_Soldiers', 'http://dbpedia.org/resource/Commemoration_Day', 'http://dbpedia.org/resource/Commemoration_of_Atatürk,_Youth_and_Sports_Day', 'http://dbpedia.org/resource/Commonwealth_Day', 'http://dbpedia.org/resource/Concord_Day', 'http://dbpedia.org/resource/Confederate_Memorial_Day', 'http://dbpedia.org/resource/Constitution_Day_(Denmark)', 'http://dbpedia.org/resource/Constitution_Day_(Ghana)', 'http://dbpedia.org/resource/Constitution_Day_(India)', 'http://dbpedia.org/resource/Constitution_Day_(Kazakhstan)', 'http://dbpedia.org/resource/Constitution_Day_(Norway)', 'http://dbpedia.org/resource/Constitution_Day_(Russia)', 'http://dbpedia.org/resource/Constitution_Day_(South_Korea)', 'http://dbpedia.org/resource/Constitution_Day_(Ukraine)', 'http://dbpedia.org/resource/Constitution_Day_(United_States)', 'http://dbpedia.org/resource/Constitution_Memorial_Day', 'http://dbpedia.org/resource/Constitution_Week', 'http://dbpedia.org/resource/Consualia', 'http://dbpedia.org/resource/Contraband_Days', 'http://dbpedia.org/resource/COPD_Awareness_Month', 'http://dbpedia.org/resource/Coral_Triangle_Day', 'http://dbpedia.org/resource/Cosmonautics_Day', 'http://dbpedia.org/resource/Côte-Rôtie', 'http://dbpedia.org/resource/Courir_de_Mardi_Gras', 'http://dbpedia.org/resource/Cow_Harbor_Day', 'http://dbpedia.org/resource/Crop_Over', "http://dbpedia.org/resource/Cruisin'_Downriver", 'http://dbpedia.org/resource/Cry_of_Dolores', 'http://dbpedia.org/resource/Culture_Day', 'http://dbpedia.org/resource/Čuvari_Hristovog_groba', 'http://dbpedia.org/resource/Cyber_Monday', 'http://dbpedia.org/resource/Daeboreum', 'http://dbpedia.org/resource/Dahi_Handi', 'http://dbpedia.org/resource/Dahi_Jatra', 'http://dbpedia.org/resource/Dalit_History_Month', 'http://dbpedia.org/resource/Dano_(festival)', 'http://dbpedia.org/resource/Dano_(Korean_festival)', 'http://dbpedia.org/resource/Darwin_Day', 'http://dbpedia.org/resource/Dashain', 'http://dbpedia.org/resource/Data_Privacy_Day', 'http://dbpedia.org/resource/Datta_Jayanti', 'http://dbpedia.org/resource/Davao_City_Torotot_Festival', 'http://dbpedia.org/resource/Day_of_Arafah', 'http://dbpedia.org/resource/Day_of_Conception', 'http://dbpedia.org/resource/Day_of_Missile_Forces_and_Artillery', 'http://dbpedia.org/resource/Day_of_National_Dignity', 'http://dbpedia.org/resource/Day_of_Neutrality', 'http://dbpedia.org/resource/Day_of_Prayer', 'http://dbpedia.org/resource/Day_of_Reconciliation', 'http://dbpedia.org/resource/Day_of_Remembrance_for_All_Victims_of_Chemical_Warfare', 'http://dbpedia.org/resource/Day_of_Remembrance_for_Truth_and_Justice', 'http://dbpedia.org/resource/Day_of_Remembrance_of_the_Victims_of_Political_Repressions', 'http://dbpedia.org/resource/Day_of_Republika_Srpska', 'http://dbpedia.org/resource/Day_of_Restoration_of_Independence_(Azerbaijan)', 'http://dbpedia.org/resource/Day_of_Silence', 'http://dbpedia.org/resource/Day_of_Songun', 'http://dbpedia.org/resource/Day_of_the_Armed_Forces_(Kyrgyzstan)', 'http://dbpedia.org/resource/Day_of_the_Armed_Forces_of_Azerbaijan', 'http://dbpedia.org/resource/Day_of_the_Canary_Islands', 'http://dbpedia.org/resource/Day_of_the_Cuban_Armed_Forces', 'http://dbpedia.org/resource/Day_of_the_Dead', 'http://dbpedia.org/resource/Day_of_the_Flemish_Community', 'http://dbpedia.org/resource/Day_of_the_Foundation_of_the_Republic', 'http://dbpedia.org/resource/Day_of_the_founding_of_the_German_Empire', 'http://dbpedia.org/resource/Day_of_the_German-speaking_Community_of_Belgium', 'http://dbpedia.org/resource/Day_of_the_German-speaking_Community', 'http://dbpedia.org/resource/Day_of_the_Little_Candles', 'http://dbpedia.org/resource/Day_of_the_National_Flag_(Ukraine)', 'http://dbpedia.org/resource/Day_of_the_Shining_Star', 'http://dbpedia.org/resource/Day_of_the_Sun', 'http://dbpedia.org/resource/Day_of_the_Unification_of_the_Romanian_Principalities', 'http://dbpedia.org/resource/Day_of_the_Union_of_Bessarabia_with_Romania', 'http://dbpedia.org/resource/Day_of_the_Walloon_Region', 'http://dbpedia.org/resource/Day_of_the_Young_Combatant', 'http://dbpedia.org/resource/Day_of_Ukrainian_Literature_and_Language', 'http://dbpedia.org/resource/Day_of_Valor', 'http://dbpedia.org/resource/Day_of_Victory_in_the_Great_Fatherland_Liberation_War', 'http://dbpedia.org/resource/Daylight_saving_time_in_Canada', 'http://dbpedia.org/resource/Deepothsavam', 'http://dbpedia.org/resource/Defence_Day', 'http://dbpedia.org/resource/Defender_of_the_Fatherland_Day_(Kazakhstan)', 'http://dbpedia.org/resource/Defender_of_the_Fatherland_Day', 'http://dbpedia.org/resource/Defender_of_the_Motherland_Day', 'http://dbpedia.org/resource/Defenders_Day_(Maryland)', 'http://dbpedia.org/resource/Defenders_Day_(Ukraine)', 'http://dbpedia.org/resource/Dehwa_Daimana', 'http://dbpedia.org/resource/Dehwa_Hanina', 'http://dbpedia.org/resource/Dehwa_Rabba', 'http://dbpedia.org/resource/Democracy_and_National_Unity_Day', 'http://dbpedia.org/resource/Dev_Deepawali_(Varanasi)', 'http://dbpedia.org/resource/Dhammachakra_Pravartan_Din', 'http://dbpedia.org/resource/Dhanteras', 'http://dbpedia.org/resource/Dhanu_jatra', 'http://dbpedia.org/resource/Dhodha', 'http://dbpedia.org/resource/Día_de_la_Altagracia', 'http://dbpedia.org/resource/Día_Mundial_de_Ponce', 'http://dbpedia.org/resource/Día_Nacional_de_Galicia', 'http://dbpedia.org/resource/Días_Patrios_(Guatemala)', 'http://dbpedia.org/resource/Dinagyang', 'http://dbpedia.org/resource/Dinamulag_Festival', 'http://dbpedia.org/resource/Disabled_Access_Day', 'http://dbpedia.org/resource/Distaff_Day', 'http://dbpedia.org/resource/Dita_e_Verës', 'http://dbpedia.org/resource/Diwali_(Jainism)', 'http://dbpedia.org/resource/Diwali', 'http://dbpedia.org/resource/DNA_Day', 'http://dbpedia.org/resource/Dobruja_Day', 'http://dbpedia.org/resource/Dongzhi_Festival', 'http://dbpedia.org/resource/Dormition_of_the_Mother_of_God', 'http://dbpedia.org/resource/Dosmoche', 'http://dbpedia.org/resource/Double_Sixth_Festival', 'http://dbpedia.org/resource/Double_Third_Festival', 'http://dbpedia.org/resource/Downfall_of_the_Derg_(holiday)', 'http://dbpedia.org/resource/Dożynki', 'http://dbpedia.org/resource/Dragon_Boat_Festival', 'http://dbpedia.org/resource/Drupka_Teshi', 'http://dbpedia.org/resource/Duanwu_Festival', 'http://dbpedia.org/resource/Duha', 'http://dbpedia.org/resource/Dundee_Fortnight', 'http://dbpedia.org/resource/Durga_Puja', 'http://dbpedia.org/resource/Durgapur_Free_Day', 'http://dbpedia.org/resource/Dziady', 'http://dbpedia.org/resource/Earth_Day', 'http://dbpedia.org/resource/Earth_Hour', 'http://dbpedia.org/resource/Easter', 'http://dbpedia.org/resource/Economics_of_Christmas', 'http://dbpedia.org/resource/Eid_al-Adha', 'http://dbpedia.org/resource/Eid_al-Fitr', 'http://dbpedia.org/resource/Eid_al-Ghadir', 'http://dbpedia.org/resource/Eid_il-Burbara', 'http://dbpedia.org/resource/Eid_prayers', 'http://dbpedia.org/resource/El_Buen_Fin', 'http://dbpedia.org/resource/Ely_Eel_Day', 'http://dbpedia.org/resource/Emergency_Services_Day_(United_Kingdom)', 'http://dbpedia.org/resource/Employee_Appreciation_Day', 'http://dbpedia.org/resource/Enkutatash', 'http://dbpedia.org/resource/Epiphany_(Christian)', 'http://dbpedia.org/resource/Epiphany_(holiday)', 'http://dbpedia.org/resource/Epiphanytide', 'http://dbpedia.org/resource/Errol_Barrow_Day', 'http://dbpedia.org/resource/Erzya_Language_Day', 'http://dbpedia.org/resource/Ethiopian_Christmas', "http://dbpedia.org/resource/Ethiopian_Patriots'_Victory_Day", 'http://dbpedia.org/resource/Ettu_Nombu', 'http://dbpedia.org/resource/Europe_Day', 'http://dbpedia.org/resource/European_Day_of_the_Righteous', 'http://dbpedia.org/resource/Evacuation_Day_(Massachusetts)', 'http://dbpedia.org/resource/Evacuation_Day_(New_York)', 'http://dbpedia.org/resource/Evacuation_Day_(Syria)', 'http://dbpedia.org/resource/Evelio_Javier_Day', 'http://dbpedia.org/resource/Evolution_Day', 'http://dbpedia.org/resource/Execution_of_the_Báb', 'http://dbpedia.org/resource/Fajr_nafl_prayer', 'http://dbpedia.org/resource/Fajr_prayer', 'http://dbpedia.org/resource/Falklands_Day', 'http://dbpedia.org/resource/Family_Day_(Canada)', "http://dbpedia.org/resource/Farmers'_Day", 'http://dbpedia.org/resource/Fast_of_Esther', 'http://dbpedia.org/resource/Fast_of_Gedalia', 'http://dbpedia.org/resource/Fast_of_Nineveh', 'http://dbpedia.org/resource/Fast_of_the_Firstborn', 'http://dbpedia.org/resource/Father–Daughter_Day', "http://dbpedia.org/resource/Father's_Day_(United_States)", "http://dbpedia.org/resource/Father's_Day", 'http://dbpedia.org/resource/Fatimiyya', 'http://dbpedia.org/resource/Feast_of_Ezid', 'http://dbpedia.org/resource/Feast_of_Saint_George_(Palestine)', 'http://dbpedia.org/resource/Feast_of_Saints_Francis_and_Catherine', 'http://dbpedia.org/resource/Feast_of_Saints_Peter_and_Paul', 'http://dbpedia.org/resource/Feast_of_the_Annunciation', 'http://dbpedia.org/resource/Feast_of_the_Ass', 'http://dbpedia.org/resource/Feast_of_the_Assembly', 'http://dbpedia.org/resource/Feast_of_the_Black_Nazarene', 'http://dbpedia.org/resource/Feast_of_the_Great_Shishlam', 'http://dbpedia.org/resource/Feast_of_the_Immaculate_Conception', 'http://dbpedia.org/resource/Federal_Day_of_Thanksgiving,_Repentance_and_Prayer', 'http://dbpedia.org/resource/Federal_holidays_in_the_United_States', 'http://dbpedia.org/resource/Federal_Territory_Day', 'http://dbpedia.org/resource/Feralia', 'http://dbpedia.org/resource/Feria_de_Artesanías_de_Ponce', 'http://dbpedia.org/resource/Feriae_Latinae', 'http://dbpedia.org/resource/Ferragosto', 'http://dbpedia.org/resource/Festa_de_São_João_do_Porto', 'http://dbpedia.org/resource/Festa_della_Repubblica', 'http://dbpedia.org/resource/Festival_de_Bomba_y_Plena_de_San_Antón', 'http://dbpedia.org/resource/Festival_Folclórico_y_Reinado_Nacional_del_Bambuco', 'http://dbpedia.org/resource/Festival_Nacional_Afrocaribeño', 'http://dbpedia.org/resource/Festival_Nacional_de_la_Quenepa', 'http://dbpedia.org/resource/Festival_of_Lights_(Lyon)', 'http://dbpedia.org/resource/Festival_of_Perun', 'http://dbpedia.org/resource/Festival_of_Veles', 'http://dbpedia.org/resource/Festivus', 'http://dbpedia.org/resource/Festum_Ovorum', 'http://dbpedia.org/resource/Fiesta_Nacional_de_la_Danza', 'http://dbpedia.org/resource/Fiestas_de_Santa_Fe', 'http://dbpedia.org/resource/Fiestas_del_Pilar', 'http://dbpedia.org/resource/Fiestas_Patrias_(Chile)', 'http://dbpedia.org/resource/Fiestas_Patrias_(Peru)', 'http://dbpedia.org/resource/Fiestas_patronales_de_Ponce', 'http://dbpedia.org/resource/Fiji_Week', 'http://dbpedia.org/resource/Filipino_American_History_Month', 'http://dbpedia.org/resource/Filipino_Heritage_Month', 'http://dbpedia.org/resource/Filseta', 'http://dbpedia.org/resource/Finnish_Swedish_Heritage_Day', 'http://dbpedia.org/resource/First_day_of_summer_(Iceland)', 'http://dbpedia.org/resource/First_National_Government', 'http://dbpedia.org/resource/Flag_Day_(Albania)', 'http://dbpedia.org/resource/Flag_Day_(Argentina)', 'http://dbpedia.org/resource/Flag_Day_(Australia)', 'http://dbpedia.org/resource/Flag_Day_(United_Arab_Emirates)', 'http://dbpedia.org/resource/Flag_Day_(United_States)', 'http://dbpedia.org/resource/Flag_Day_in_Mexico', 'http://dbpedia.org/resource/Floralia', 'http://dbpedia.org/resource/Fordicidia', 'http://dbpedia.org/resource/Fossil_Fools_Day', 'http://dbpedia.org/resource/Fössta_tossdan_i_mass', "http://dbpedia.org/resource/Founders'_Day_(Ghana)", 'http://dbpedia.org/resource/Frankenstein_Day', 'http://dbpedia.org/resource/Fraternal_Day', 'http://dbpedia.org/resource/Freedom_and_Democracy_Day', 'http://dbpedia.org/resource/Freedom_Day_(Belarus)', 'http://dbpedia.org/resource/Freedom_Day_(Malta)', 'http://dbpedia.org/resource/Freedom_Day_(South_Africa)', 'http://dbpedia.org/resource/French_Community_Holiday', 'http://dbpedia.org/resource/Friendship_Day', 'http://dbpedia.org/resource/Fukagawa_Matsuri', 'http://dbpedia.org/resource/Funeral_prayer_(Islam)', 'http://dbpedia.org/resource/Gaan-Ngai', 'http://dbpedia.org/resource/Gaecheonjeol', 'http://dbpedia.org/resource/Gai_Jatra', 'http://dbpedia.org/resource/Gajan_(festival)', 'http://dbpedia.org/resource/Galdan_Namchot', 'http://dbpedia.org/resource/Galician_Literature_Day', 'http://dbpedia.org/resource/Galungan', 'http://dbpedia.org/resource/Gandhi_Jayanti', 'http://dbpedia.org/resource/Ganesh_Chaturthi', 'http://dbpedia.org/resource/Ganesh_Jayanti', 'http://dbpedia.org/resource/Ganga_Dussehra', 'http://dbpedia.org/resource/Ganga_puja', 'http://dbpedia.org/resource/Gangamma_Jatara', 'http://dbpedia.org/resource/Gangaur', 'http://dbpedia.org/resource/Garifuna_Settlement_Day', 'http://dbpedia.org/resource/Gasparilla_Pirate_Festival', 'http://dbpedia.org/resource/Gaudete_Sunday', 'http://dbpedia.org/resource/Gaura_(festival)', 'http://dbpedia.org/resource/Gawai_Dayak', 'http://dbpedia.org/resource/Geek_Pride_Day', 'http://dbpedia.org/resource/General_Pulaski_Memorial_Day', "http://dbpedia.org/resource/George's_Day_in_Autumn", "http://dbpedia.org/resource/George's_Day_in_Spring", 'http://dbpedia.org/resource/Georgia_Day', 'http://dbpedia.org/resource/German_Unity_Day', 'http://dbpedia.org/resource/German-American_Day', 'http://dbpedia.org/resource/Ghanta_Karna', 'http://dbpedia.org/resource/Ghost_Festival', 'http://dbpedia.org/resource/Giant_Lantern_Festival', 'http://dbpedia.org/resource/Gibraltar_National_Day', 'http://dbpedia.org/resource/Gifaata', 'http://dbpedia.org/resource/Gilgit-Baltistan_Independence_Day', 'http://dbpedia.org/resource/Gion_Matsuri', 'http://dbpedia.org/resource/Giving_Tuesday', 'http://dbpedia.org/resource/GivingTuesday', 'http://dbpedia.org/resource/Glasgow_Fair', 'http://dbpedia.org/resource/Global_Accessibility_Awareness_Day', 'http://dbpedia.org/resource/Global_Day_of_Action_on_Military_Spending', 'http://dbpedia.org/resource/Global_Handwashing_Day', 'http://dbpedia.org/resource/Global_Information_Governance_Day', 'http://dbpedia.org/resource/Global_Money_Week', 'http://dbpedia.org/resource/Global_Running_Day', 'http://dbpedia.org/resource/Global_Wind_Day', 'http://dbpedia.org/resource/Goa_Liberation_Day', 'http://dbpedia.org/resource/Golden_Week_(Japan)', 'http://dbpedia.org/resource/Golu', 'http://dbpedia.org/resource/Good_Friday', 'http://dbpedia.org/resource/Good_Governance_Day', 'http://dbpedia.org/resource/Gopastami', 'http://dbpedia.org/resource/Govatsa_Dwadashi', 'http://dbpedia.org/resource/Gowri_Habba', "http://dbpedia.org/resource/Grand_Duke's_Official_Birthday", "http://dbpedia.org/resource/Grandparents'_Day", 'http://dbpedia.org/resource/Great_Union_Day', 'http://dbpedia.org/resource/Green_Monday', 'http://dbpedia.org/resource/Green_week', 'http://dbpedia.org/resource/Greenery_Day', 'http://dbpedia.org/resource/Groundhog_Day', 'http://dbpedia.org/resource/Guam_Discovery_Day', 'http://dbpedia.org/resource/Guanacaste_Day', 'http://dbpedia.org/resource/Gudi_Padwa', 'http://dbpedia.org/resource/Gunla', 'http://dbpedia.org/resource/Guru_Nanak_Gurpurab', 'http://dbpedia.org/resource/Guru_Purnima', 'http://dbpedia.org/resource/Gustavus_Adolphus_Day', 'http://dbpedia.org/resource/Gustor_Festival', 'http://dbpedia.org/resource/Hadaka_Matsuri', 'http://dbpedia.org/resource/Haitian_Heritage_Month', 'http://dbpedia.org/resource/Hakata_Dontaku', 'http://dbpedia.org/resource/Hakata_Gion_Yamakasa', 'http://dbpedia.org/resource/Halloween', 'http://dbpedia.org/resource/Handsel_Monday', 'http://dbpedia.org/resource/Hangul_Day', 'http://dbpedia.org/resource/Hanukkah', 'http://dbpedia.org/resource/Hanuman_Jayanti', 'http://dbpedia.org/resource/Harela_Mela', 'http://dbpedia.org/resource/Harriet_Tubman_Day', 'http://dbpedia.org/resource/Harvey_Milk_Day', 'http://dbpedia.org/resource/Haya_Day', 'http://dbpedia.org/resource/Heikru_Hidongba', 'http://dbpedia.org/resource/Helen_Keller_Day', 'http://dbpedia.org/resource/Heritage_Day_(South_Africa)', "http://dbpedia.org/resource/Heroes'_Day_(Namibia)", "http://dbpedia.org/resource/Heroes'_Day", 'http://dbpedia.org/resource/Herzl_Day', 'http://dbpedia.org/resource/Higalaay_Festival', 'http://dbpedia.org/resource/Higantes_Festival', 'http://dbpedia.org/resource/Hilaria', 'http://dbpedia.org/resource/Hillbilly_Days', 'http://dbpedia.org/resource/Hiloula_of_Rabbi_Haim_Pinto', 'http://dbpedia.org/resource/Hinamatsuri', 'http://dbpedia.org/resource/Hindi_Day', 'http://dbpedia.org/resource/History_of_lysergic_acid_diethylamide', 'http://dbpedia.org/resource/Hizb_Rateb', 'http://dbpedia.org/resource/Hıdırellez', 'http://dbpedia.org/resource/Hobiyee', 'http://dbpedia.org/resource/Hogmanay', 'http://dbpedia.org/resource/Hola_Mohalla', 'http://dbpedia.org/resource/Holi', 'http://dbpedia.org/resource/Holidays_with_paid_time_off_in_the_United_States', 'http://dbpedia.org/resource/Holika_Dahan', 'http://dbpedia.org/resource/Holy_Saturday', 'http://dbpedia.org/resource/Holy_Week_in_Ruvo_di_Puglia', 'http://dbpedia.org/resource/Hōnensai', 'http://dbpedia.org/resource/Honey_Feast_of_the_Saviour', 'http://dbpedia.org/resource/Hong_Kong_Foundation_Day', 'http://dbpedia.org/resource/Hong_Kong_Special_Administrative_Region_Establishment_Day', 'http://dbpedia.org/resource/Honor_America_Days', 'http://dbpedia.org/resource/Hop-tu-Naa', 'http://dbpedia.org/resource/Hosay', 'http://dbpedia.org/resource/Human_Rights_Day', 'http://dbpedia.org/resource/HumanLight', "http://dbpedia.org/resource/Hùng_Kings'_Festival", 'http://dbpedia.org/resource/Hyderabad-Karnataka_Liberation_Day', 'http://dbpedia.org/resource/Icelandic_National_Day', 'http://dbpedia.org/resource/Imbolc', 'http://dbpedia.org/resource/Imoinu_Iratpa', 'http://dbpedia.org/resource/In_town,_without_my_car!', 'http://dbpedia.org/resource/Independence_and_Unity_Day_(Slovenia)', 'http://dbpedia.org/resource/Independence_Day_(Abkhazia)', 'http://dbpedia.org/resource/Independence_Day_(Algeria)', 'http://dbpedia.org/resource/Independence_Day_(Armenia)', 'http://dbpedia.org/resource/Independence_Day_(Bahrain)', 'http://dbpedia.org/resource/Independence_Day_(Bangladesh)', 'http://dbpedia.org/resource/Independence_Day_(Belarus)', 'http://dbpedia.org/resource/Independence_Day_(Bosnia_and_Herzegovina)', 'http://dbpedia.org/resource/Independence_Day_(Botswana)', 'http://dbpedia.org/resource/Independence_Day_(Brazil)', 'http://dbpedia.org/resource/Independence_Day_(Croatia)', 'http://dbpedia.org/resource/Independence_Day_(Cyprus)', 'http://dbpedia.org/resource/Independence_Day_(Djibouti)', 'http://dbpedia.org/resource/Independence_Day_(Eritrea)', 'http://dbpedia.org/resource/Independence_Day_(Estonia)', 'http://dbpedia.org/resource/Independence_Day_(Finland)', 'http://dbpedia.org/resource/Independence_Day_(Georgia)', 'http://dbpedia.org/resource/Independence_Day_(Ghana)', 'http://dbpedia.org/resource/Independence_Day_(Grenada)', 'http://dbpedia.org/resource/Independence_Day_(Hawaii)', 'http://dbpedia.org/resource/Independence_Day_(India)', 'http://dbpedia.org/resource/Independence_Day_(Indonesia)', 'http://dbpedia.org/resource/Independence_Day_(Jamaica)', 'http://dbpedia.org/resource/Independence_Day_(Jordan)', 'http://dbpedia.org/resource/Independence_Day_(Kazakhstan)', 'http://dbpedia.org/resource/Independence_Day_(Kyrgyzstan)', 'http://dbpedia.org/resource/Independence_Day_(Malaysia)', 'http://dbpedia.org/resource/Independence_Day_(Malta)', 'http://dbpedia.org/resource/Independence_Day_(Myanmar)', 'http://dbpedia.org/resource/Independence_Day_(Niger)', 'http://dbpedia.org/resource/Independence_Day_(North_Macedonia)', 'http://dbpedia.org/resource/Independence_Day_(Pakistan)', 'http://dbpedia.org/resource/Independence_Day_(Philippines)', 'http://dbpedia.org/resource/Independence_Day_(Somalia)', 'http://dbpedia.org/resource/Independence_Day_(Somaliland)', 'http://dbpedia.org/resource/Independence_Day_(South_Ossetia)', 'http://dbpedia.org/resource/Independence_Day_(Sri_Lanka)', 'http://dbpedia.org/resource/Independence_Day_(State_of_Somaliland)', 'http://dbpedia.org/resource/Independence_Day_(Tajikistan)', 'http://dbpedia.org/resource/Independence_Day_(Turkmenistan)', 'http://dbpedia.org/resource/Independence_Day_(Uganda)', 'http://dbpedia.org/resource/Independence_Day_(United_States)', 'http://dbpedia.org/resource/Independence_Day_(Uzbekistan)', 'http://dbpedia.org/resource/Independence_Day_of_Cambodia', 'http://dbpedia.or</t>
         </is>
       </c>
       <c r="D41" t="b">
@@ -1258,17 +1258,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>How much did Pulp Fiction cost?</t>
+          <t>What kind of music did Lou Reed play?</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>['8.0']</t>
+          <t>['http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Experimental_music', 'http://dbpedia.org/resource/Glam_rock', 'http://dbpedia.org/resource/Noise_rock', 'http://dbpedia.org/resource/Proto-punk', 'http://dbpedia.org/resource/Rock_music']</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>['8.0']</t>
+          <t>['http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Experimental_music', 'http://dbpedia.org/resource/Glam_rock', 'http://dbpedia.org/resource/Noise_rock', 'http://dbpedia.org/resource/Proto-punk', 'http://dbpedia.org/resource/Rock_music']</t>
         </is>
       </c>
       <c r="D42" t="b">
@@ -1278,37 +1278,37 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Give me all Danish movies.</t>
+          <t>Give me the birth place of Frank Sinatra.</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/A_Summer_Tale', 'http://dbpedia.org/resource/Afghan_Muscles', 'http://dbpedia.org/resource/After_the_Wedding_(2006_film)', 'http://dbpedia.org/resource/Ai_Weiwei:_The_Fake_Case', 'http://dbpedia.org/resource/Another_Round_(film)', 'http://dbpedia.org/resource/Antichrist_(film)__Antichrist__1', 'http://dbpedia.org/resource/Arn:_The_Knight_Templar', 'http://dbpedia.org/resource/Bag_Københavns_kulisser', 'http://dbpedia.org/resource/Barefoot_(2017_film)', "http://dbpedia.org/resource/Benny's_Bathtub", 'http://dbpedia.org/resource/Bionicle:_Mask_of_Light', 'http://dbpedia.org/resource/Bornholms_stemme', 'http://dbpedia.org/resource/Breaking_the_Waves', 'http://dbpedia.org/resource/Busters_verden', 'http://dbpedia.org/resource/Constance_(film)', 'http://dbpedia.org/resource/Crying_for_Love', 'http://dbpedia.org/resource/De_besejrede_Pebersvende', 'http://dbpedia.org/resource/De_Udstillede', 'http://dbpedia.org/resource/Den_farlige_alder', 'http://dbpedia.org/resource/Den_kulørte_Slavehandler', 'http://dbpedia.org/resource/Der_var_engang_en_vicevært', 'http://dbpedia.org/resource/Ditte,_Child_of_Man', 'http://dbpedia.org/resource/Domino_(2019_film)', 'http://dbpedia.org/resource/Don_Olsen_kommer_til_byen', 'http://dbpedia.org/resource/Driving_with_Greenland_Dogs', 'http://dbpedia.org/resource/Echo_(2007_film)', 'http://dbpedia.org/resource/Eddy_Merckx_in_the_Vicinity_of_a_Cup_of_Coffee', 'http://dbpedia.org/resource/Eksperimentet', 'http://dbpedia.org/resource/En_slem_Dreng', 'http://dbpedia.org/resource/Eye_of_the_Eagle_(1997_film)', 'http://dbpedia.org/resource/Familien_Pille_som_Spejdere', 'http://dbpedia.org/resource/Family_Matters_(film)', 'http://dbpedia.org/resource/Farlig_Ungdom', 'http://dbpedia.org/resource/Fidibus', 'http://dbpedia.org/resource/Five_Get_into_Trouble_(film)', 'http://dbpedia.org/resource/Flee_(film)', 'http://dbpedia.org/resource/Flickering_Lights', 'http://dbpedia.org/resource/Frække_Frida_og_de_frygtløse_spioner', 'http://dbpedia.org/resource/Frk._Møllers_jubilæum', 'http://dbpedia.org/resource/Frode_og_alle_de_andre_rødder__Frode_og_alle_de_andre_rødder__1', "http://dbpedia.org/resource/Gasolin'_(film)", 'http://dbpedia.org/resource/Ghost_Train_International', 'http://dbpedia.org/resource/Giv_Gud_en_chance_om_søndagen', "http://dbpedia.org/resource/Goutte_d'Or_(film)", "http://dbpedia.org/resource/Help!_I'm_a_Fish", 'http://dbpedia.org/resource/Herberg_for_Hjemløse', 'http://dbpedia.org/resource/His_New_Grey_Trousers', 'http://dbpedia.org/resource/Højt_paa_en_kvist', 'http://dbpedia.org/resource/Holes_in_the_Soup', 'http://dbpedia.org/resource/Human_Remains_(film)', 'http://dbpedia.org/resource/Ikíngut', 'http://dbpedia.org/resource/Jag_är_din_krigare', 'http://dbpedia.org/resource/Jeg_har_elsket_og_levet', 'http://dbpedia.org/resource/Journey_to_Saturn', 'http://dbpedia.org/resource/Kærlighed_og_Mobilisering', "http://dbpedia.org/resource/Karla's_World", 'http://dbpedia.org/resource/Khartoum_Offside', "http://dbpedia.org/resource/Kira's_Reason:_A_Love_Story", 'http://dbpedia.org/resource/Klown_Forever', 'http://dbpedia.org/resource/København,_Kalundborg_og_-_%3F', 'http://dbpedia.org/resource/Koko-di_Koko-da', 'http://dbpedia.org/resource/Kun_en_Tigger', 'http://dbpedia.org/resource/Little_Brother,_Big_Trouble:_A_Christmas_Adventure', 'http://dbpedia.org/resource/Løvejagten', 'http://dbpedia.org/resource/Manslaughter_(2005_film)', 'http://dbpedia.org/resource/Margrete:_Queen_of_the_North', 'http://dbpedia.org/resource/Matador_(Danish_TV_series)', 'http://dbpedia.org/resource/Melody_of_Murder', 'http://dbpedia.org/resource/Minor_Mishaps', 'http://dbpedia.org/resource/Monas_verden', 'http://dbpedia.org/resource/Murderous_Trance', 'http://dbpedia.org/resource/Murk_(film)', 'http://dbpedia.org/resource/Nation_Estate', 'http://dbpedia.org/resource/Next_Stop_Paradise_(1980_film)', 'http://dbpedia.org/resource/Nøddebo_Præstegård_(1934_film)', 'http://dbpedia.org/resource/Nøddebo_Præstegård_(1974_film)', 'http://dbpedia.org/resource/Nordhavets_mænd', 'http://dbpedia.org/resource/Nynne', "http://dbpedia.org/resource/O'_Horten", 'http://dbpedia.org/resource/Pelle_the_Conqueror', 'http://dbpedia.org/resource/Pervert_Park', 'http://dbpedia.org/resource/Princess_(2006_film)', 'http://dbpedia.org/resource/Pusher_(film_series)', 'http://dbpedia.org/resource/Regel_nr._1', 'http://dbpedia.org/resource/Reptilicus', 'http://dbpedia.org/resource/Return_to_Sender_(2004_film)', 'http://dbpedia.org/resource/Samson_&amp;_Sally', 'http://dbpedia.org/resource/Sekstet', 'http://dbpedia.org/resource/Smiling_in_a_War_Zone', 'http://dbpedia.org/resource/Something_Better_to_Come', 'http://dbpedia.org/resource/Songs_from_the_Second_Floor', 'http://dbpedia.org/resource/Sons_of_the_Soil', 'http://dbpedia.org/resource/Speed_Sisters', 'http://dbpedia.org/resource/Speed_Walking', 'http://dbpedia.org/resource/Stealing_Rembrandt', 'http://dbpedia.org/resource/Stjerneskud', 'http://dbpedia.org/resource/Stolen_Spring_(film)', 'http://dbpedia.org/resource/Storm_(2009_film)', 'http://dbpedia.org/resource/Strømer', 'http://dbpedia.org/resource/Sun_over_Denmark', 'http://dbpedia.org/resource/Sunes_familie', 'http://dbpedia.org/resource/Supervoksen', 'http://dbpedia.org/resource/Susanne_(1950_film)', 'http://dbpedia.org/resource/Teddy_Bear_(2012_film)', 'http://dbpedia.org/resource/Terribly_Happy', "http://dbpedia.org/resource/That's_Me,_Too", 'http://dbpedia.org/resource/The_Crimson_Circle_(1960_film)', 'http://dbpedia.org/resource/The_Forbidden_Team', 'http://dbpedia.org/resource/The_House_of_the_Spirits_(film)', 'http://dbpedia.org/resource/The_Inheritance_(2003_film)', "http://dbpedia.org/resource/The_King's_Choice", 'http://dbpedia.org/resource/The_Lego_Ninjago_Movie', 'http://dbpedia.org/resource/The_Mahabharata_(1989_film)', 'http://dbpedia.org/resource/The_Monastery:_Mr._Vig_and_the_Nun', 'http://dbpedia.org/resource/The_Perfect_Human', 'http://dbpedia.org/resource/The_Red_Meadows', 'http://dbpedia.org/resource/The_Thralls', 'http://dbpedia.org/resource/The_Viking_Watch_of_the_Danish_Seaman', 'http://dbpedia.org/resource/The_White_Slave_Trade', 'http://dbpedia.org/resource/Those_Blasted_Kids', 'http://dbpedia.org/resource/Torremolinos_73', 'http://dbpedia.org/resource/Valhalla_(1986_film)', 'http://dbpedia.org/resource/Vildledt_Elskov', "http://dbpedia.org/resource/We_Meet_at_Tove's", 'http://dbpedia.org/resource/Webmaster_(film)', 'http://dbpedia.org/resource/What_No_One_Knows', 'http://dbpedia.org/resource/You_Are_Not_Alone_(film)']</t>
+          <t>['http://dbpedia.org/resource/Hoboken,_New_Jersey']</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/A_Summer_Tale?', 'http://dbpedia.org/resource/Afghan_Muscles?', 'http://dbpedia.org/resource/After_the_Wedding_(2006_film)?', 'http://dbpedia.org/resource/Ai_Weiwei:_The_Fake_Case?', 'http://dbpedia.org/resource/Another_Round_(film)?', 'http://dbpedia.org/resource/Antichrist_(film)__Antichrist__1?', 'http://dbpedia.org/resource/Arn:_The_Knight_Templar?', 'http://dbpedia.org/resource/Bag_Københavns_kulisser?', 'http://dbpedia.org/resource/Barefoot_(2017_film)?', "http://dbpedia.org/resource/Benny's_Bathtub?", 'http://dbpedia.org/resource/Bionicle:_Mask_of_Light?', 'http://dbpedia.org/resource/Bornholms_stemme?', 'http://dbpedia.org/resource/Breaking_the_Waves?', 'http://dbpedia.org/resource/Busters_verden?', 'http://dbpedia.org/resource/Constance_(film)?', 'http://dbpedia.org/resource/Crying_for_Love?', 'http://dbpedia.org/resource/De_besejrede_Pebersvende?', 'http://dbpedia.org/resource/De_Udstillede?', 'http://dbpedia.org/resource/Den_farlige_alder?', 'http://dbpedia.org/resource/Den_kulørte_Slavehandler?', 'http://dbpedia.org/resource/Der_var_engang_en_vicevært?', 'http://dbpedia.org/resource/Ditte,_Child_of_Man?', 'http://dbpedia.org/resource/Domino_(2019_film)?', 'http://dbpedia.org/resource/Don_Olsen_kommer_til_byen?', 'http://dbpedia.org/resource/Driving_with_Greenland_Dogs?', 'http://dbpedia.org/resource/Echo_(2007_film)?', 'http://dbpedia.org/resource/Eddy_Merckx_in_the_Vicinity_of_a_Cup_of_Coffee?', 'http://dbpedia.org/resource/Eksperimentet?', 'http://dbpedia.org/resource/En_slem_Dreng?', 'http://dbpedia.org/resource/Eye_of_the_Eagle_(1997_film)?', 'http://dbpedia.org/resource/Familien_Pille_som_Spejdere?', 'http://dbpedia.org/resource/Family_Matters_(film)?', 'http://dbpedia.org/resource/Farlig_Ungdom?', 'http://dbpedia.org/resource/Fidibus?', 'http://dbpedia.org/resource/Five_Get_into_Trouble_(film)?', 'http://dbpedia.org/resource/Flee_(film)?', 'http://dbpedia.org/resource/Flickering_Lights?', 'http://dbpedia.org/resource/Frække_Frida_og_de_frygtløse_spioner?', 'http://dbpedia.org/resource/Frk._Møllers_jubilæum?', 'http://dbpedia.org/resource/Frode_og_alle_de_andre_rødder__Frode_og_alle_de_andre_rødder__1?', "http://dbpedia.org/resource/Gasolin'_(film)?", 'http://dbpedia.org/resource/Ghost_Train_International?', 'http://dbpedia.org/resource/Giv_Gud_en_chance_om_søndagen?', "http://dbpedia.org/resource/Goutte_d'Or_(film)?", "http://dbpedia.org/resource/Help!_I'm_a_Fish?", 'http://dbpedia.org/resource/Herberg_for_Hjemløse?', 'http://dbpedia.org/resource/His_New_Grey_Trousers?', 'http://dbpedia.org/resource/Højt_paa_en_kvist?', 'http://dbpedia.org/resource/Holes_in_the_Soup?', 'http://dbpedia.org/resource/Human_Remains_(film)?', 'http://dbpedia.org/resource/Ikíngut?', 'http://dbpedia.org/resource/Jag_är_din_krigare?', 'http://dbpedia.org/resource/Jeg_har_elsket_og_levet?', 'http://dbpedia.org/resource/Journey_to_Saturn?', 'http://dbpedia.org/resource/Kærlighed_og_Mobilisering?', "http://dbpedia.org/resource/Karla's_World?", 'http://dbpedia.org/resource/Khartoum_Offside?', "http://dbpedia.org/resource/Kira's_Reason:_A_Love_Story?", 'http://dbpedia.org/resource/Klown_Forever?', 'http://dbpedia.org/resource/København,_Kalundborg_og_-_%3F?', 'http://dbpedia.org/resource/Koko-di_Koko-da?', 'http://dbpedia.org/resource/Kun_en_Tigger?', 'http://dbpedia.org/resource/Little_Brother,_Big_Trouble:_A_Christmas_Adventure?', 'http://dbpedia.org/resource/Løvejagten?', 'http://dbpedia.org/resource/Manslaughter_(2005_film)?', 'http://dbpedia.org/resource/Margrete:_Queen_of_the_North?', 'http://dbpedia.org/resource/Matador_(Danish_TV_series)?', 'http://dbpedia.org/resource/Melody_of_Murder?', 'http://dbpedia.org/resource/Minor_Mishaps?', 'http://dbpedia.org/resource/Monas_verden?', 'http://dbpedia.org/resource/Murderous_Trance?', 'http://dbpedia.org/resource/Murk_(film)?', 'http://dbpedia.org/resource/Nation_Estate?', 'http://dbpedia.org/resource/Next_Stop_Paradise_(1980_film)?', 'http://dbpedia.org/resource/Nøddebo_Præstegård_(1934_film)?', 'http://dbpedia.org/resource/Nøddebo_Præstegård_(1974_film)?', 'http://dbpedia.org/resource/Nordhavets_mænd?', 'http://dbpedia.org/resource/Nynne?', "http://dbpedia.org/resource/O'_Horten?", 'http://dbpedia.org/resource/Pelle_the_Conqueror?', 'http://dbpedia.org/resource/Pervert_Park?', 'http://dbpedia.org/resource/Princess_(2006_film)?', 'http://dbpedia.org/resource/Pusher_(film_series)?', 'http://dbpedia.org/resource/Regel_nr._1?', 'http://dbpedia.org/resource/Reptilicus?', 'http://dbpedia.org/resource/Return_to_Sender_(2004_film)?', 'http://dbpedia.org/resource/Samson_&amp;_Sally?', 'http://dbpedia.org/resource/Sekstet?', 'http://dbpedia.org/resource/Smiling_in_a_War_Zone?', 'http://dbpedia.org/resource/Something_Better_to_Come?', 'http://dbpedia.org/resource/Songs_from_the_Second_Floor?', 'http://dbpedia.org/resource/Sons_of_the_Soil?', 'http://dbpedia.org/resource/Speed_Sisters?', 'http://dbpedia.org/resource/Speed_Walking?', 'http://dbpedia.org/resource/Stealing_Rembrandt?', 'http://dbpedia.org/resource/Stjerneskud?', 'http://dbpedia.org/resource/Stolen_Spring_(film)?', 'http://dbpedia.org/resource/Storm_(2009_film)?', 'http://dbpedia.org/resource/Strømer?', 'http://dbpedia.org/resource/Sun_over_Denmark?', 'http://dbpedia.org/resource/Sunes_familie?', 'http://dbpedia.org/resource/Supervoksen?', 'http://dbpedia.org/resource/Susanne_(1950_film)?', 'http://dbpedia.org/resource/Teddy_Bear_(2012_film)?', 'http://dbpedia.org/resource/Terribly_Happy?', "http://dbpedia.org/resource/That's_Me,_Too?", 'http://dbpedia.org/resource/The_Crimson_Circle_(1960_film)?', 'http://dbpedia.org/resource/The_Forbidden_Team?', 'http://dbpedia.org/resource/The_House_of_the_Spirits_(film)?', 'http://dbpedia.org/resource/The_Inheritance_(2003_film)?', "http://dbpedia.org/resource/The_King's_Choice?", 'http://dbpedia.org/resource/The_Lego_Ninjago_Movie?', 'http://dbpedia.org/resource/The_Mahabharata_(1989_film)?', 'http://dbpedia.org/resource/The_Monastery:_Mr._Vig_and_the_Nun?', 'http://dbpedia.org/resource/The_Perfect_Human?', 'http://dbpedia.org/resource/The_Red_Meadows?', 'http://dbpedia.org/resource/The_Thralls?', 'http://dbpedia.org/resource/The_Viking_Watch_of_the_Danish_Seaman?', 'http://dbpedia.org/resource/The_White_Slave_Trade?', 'http://dbpedia.org/resource/Those_Blasted_Kids?', 'http://dbpedia.org/resource/Torremolinos_73?', 'http://dbpedia.org/resource/Valhalla_(1986_film)?', 'http://dbpedia.org/resource/Vildledt_Elskov?', "http://dbpedia.org/resource/We_Meet_at_Tove's?", 'http://dbpedia.org/resource/Webmaster_(film)?', 'http://dbpedia.org/resource/What_No_One_Knows?', 'http://dbpedia.org/resource/You_Are_Not_Alone_(film)?']</t>
+          <t>['http://dbpedia.org/resource/Hoboken,_New_Jersey']</t>
         </is>
       </c>
       <c r="D43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>To which countries does the Himalayan mountain system extend?</t>
+          <t>Which city has the least inhabitants?</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/India', 'http://dbpedia.org/resource/Kashmir']</t>
+          <t>['http://dbpedia.org/resource/Chagan_(closed_city)']</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/India', 'http://dbpedia.org/resource/Kashmir']</t>
+          <t>['http://dbpedia.org/resource/Chagan_(closed_city)']</t>
         </is>
       </c>
       <c r="D44" t="b">
@@ -1318,20 +1318,640 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Who created Goofy?</t>
+          <t>Which television shows were created by Walt Disney?</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Bob_Ogle', 'http://dbpedia.org/resource/Paul_Murry']</t>
+          <t>['http://dbpedia.org/resource/Disney_anthology_television_series', 'http://dbpedia.org/resource/Donald_Duck', 'http://dbpedia.org/resource/Oswald_the_Lucky_Rabbit']</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Bob_Ogle', 'http://dbpedia.org/resource/Paul_Murry']</t>
+          <t>['http://dbpedia.org/resource/Disney_anthology_television_series', 'http://dbpedia.org/resource/Donald_Duck', 'http://dbpedia.org/resource/Oswald_the_Lucky_Rabbit']</t>
         </is>
       </c>
       <c r="D45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Where did Abraham Lincoln die?</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Washington,_D.C.']</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Washington,_D.C.']</t>
+        </is>
+      </c>
+      <c r="D46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Give me the capitals of all countries that the Himalayas run through.</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/New_Delhi']</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/New_Delhi']</t>
+        </is>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>In which country is the Limerick Lake?</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Canada']</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Canada']</t>
+        </is>
+      </c>
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>How tall is Michael Jordan?</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>['1.9812']</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>['1.9812']</t>
+        </is>
+      </c>
+      <c r="D49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Which films starring Clint Eastwood did he direct himself?</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/A_Perfect_World', 'http://dbpedia.org/resource/Absolute_Power_(film)', 'http://dbpedia.org/resource/Blood_Work_(film)', 'http://dbpedia.org/resource/Cry_Macho_(film)', 'http://dbpedia.org/resource/Dirty_Harry_(film_series)', 'http://dbpedia.org/resource/Firefox_(film)', 'http://dbpedia.org/resource/Gran_Torino', 'http://dbpedia.org/resource/Heartbreak_Ridge', 'http://dbpedia.org/resource/High_Plains_Drifter', 'http://dbpedia.org/resource/Honkytonk_Man', 'http://dbpedia.org/resource/Million_Dollar_Baby__Million_Dollar_Baby__1', 'http://dbpedia.org/resource/Pale_Rider', 'http://dbpedia.org/resource/Play_Misty_for_Me', 'http://dbpedia.org/resource/Space_Cowboys', 'http://dbpedia.org/resource/Sudden_Impact', 'http://dbpedia.org/resource/The_Bridges_of_Madison_County_(film)', 'http://dbpedia.org/resource/The_Eiger_Sanction_(film)', 'http://dbpedia.org/resource/The_Mule_(2018_film)', 'http://dbpedia.org/resource/The_Outlaw_Josey_Wales__The_Outlaw_Josey_Wales__1', 'http://dbpedia.org/resource/The_Rookie_(1990_film)', 'http://dbpedia.org/resource/True_Crime_(1999_film)', 'http://dbpedia.org/resource/Unforgiven', 'http://dbpedia.org/resource/White_Hunter_Black_Heart']</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/A_Perfect_World', 'http://dbpedia.org/resource/Absolute_Power_(film)', 'http://dbpedia.org/resource/Blood_Work_(film)', 'http://dbpedia.org/resource/Cry_Macho_(film)', 'http://dbpedia.org/resource/Dirty_Harry_(film_series)', 'http://dbpedia.org/resource/Firefox_(film)', 'http://dbpedia.org/resource/Gran_Torino', 'http://dbpedia.org/resource/Heartbreak_Ridge', 'http://dbpedia.org/resource/High_Plains_Drifter', 'http://dbpedia.org/resource/Honkytonk_Man', 'http://dbpedia.org/resource/Million_Dollar_Baby__Million_Dollar_Baby__1', 'http://dbpedia.org/resource/Pale_Rider', 'http://dbpedia.org/resource/Play_Misty_for_Me', 'http://dbpedia.org/resource/Space_Cowboys', 'http://dbpedia.org/resource/Sudden_Impact', 'http://dbpedia.org/resource/The_Bridges_of_Madison_County_(film)', 'http://dbpedia.org/resource/The_Eiger_Sanction_(film)', 'http://dbpedia.org/resource/The_Mule_(2018_film)', 'http://dbpedia.org/resource/The_Outlaw_Josey_Wales__The_Outlaw_Josey_Wales__1', 'http://dbpedia.org/resource/The_Rookie_(1990_film)', 'http://dbpedia.org/resource/True_Crime_(1999_film)', 'http://dbpedia.org/resource/Unforgiven', 'http://dbpedia.org/resource/White_Hunter_Black_Heart']</t>
+        </is>
+      </c>
+      <c r="D50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>In which countries can you pay using the West African CFA franc?</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Benin', 'http://dbpedia.org/resource/Burkina_Faso', 'http://dbpedia.org/resource/Colonial_Mauritania', 'http://dbpedia.org/resource/Colony_of_Niger', 'http://dbpedia.org/resource/Economic_Community_of_West_African_States', 'http://dbpedia.org/resource/French_Dahomey', 'http://dbpedia.org/resource/French_Togoland', 'http://dbpedia.org/resource/Guinea-Bissau', 'http://dbpedia.org/resource/History_of_Togo', 'http://dbpedia.org/resource/Ivory_Coast', 'http://dbpedia.org/resource/Mali', 'http://dbpedia.org/resource/Niger', "http://dbpedia.org/resource/People's_Republic_of_Benin", 'http://dbpedia.org/resource/Republic_of_Dahomey', 'http://dbpedia.org/resource/Republic_of_Upper_Volta', 'http://dbpedia.org/resource/Senegal', 'http://dbpedia.org/resource/Senegambia_Confederation', 'http://dbpedia.org/resource/Togo']</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Benin', 'http://dbpedia.org/resource/Burkina_Faso', 'http://dbpedia.org/resource/Colonial_Mauritania', 'http://dbpedia.org/resource/Colony_of_Niger', 'http://dbpedia.org/resource/Economic_Community_of_West_African_States', 'http://dbpedia.org/resource/French_Dahomey', 'http://dbpedia.org/resource/French_Togoland', 'http://dbpedia.org/resource/Guinea-Bissau', 'http://dbpedia.org/resource/History_of_Togo', 'http://dbpedia.org/resource/Ivory_Coast', 'http://dbpedia.org/resource/Mali', 'http://dbpedia.org/resource/Niger', "http://dbpedia.org/resource/People's_Republic_of_Benin", 'http://dbpedia.org/resource/Republic_of_Dahomey', 'http://dbpedia.org/resource/Republic_of_Upper_Volta', 'http://dbpedia.org/resource/Senegal', 'http://dbpedia.org/resource/Senegambia_Confederation', 'http://dbpedia.org/resource/Togo']</t>
+        </is>
+      </c>
+      <c r="D51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>how much is the population Iraq?</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>['40462701']</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>['40462701']</t>
+        </is>
+      </c>
+      <c r="D52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Which holidays are celebrated around the world?</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/140th_Anniversary_Celebration_of_the_Emancipation_Proclamation', 'http://dbpedia.org/resource/19_Kislev', "http://dbpedia.org/resource/21_July_Martyr's_Day_Rally", 'http://dbpedia.org/resource/3_May_Constitution_Day', 'http://dbpedia.org/resource/420_(cannabis_culture)', 'http://dbpedia.org/resource/75th_Anniversary_of_Indian_Independence', 'http://dbpedia.org/resource/Aadi_Perukku', 'http://dbpedia.org/resource/Abaca_Festival', 'http://dbpedia.org/resource/Aberri_Eguna', 'http://dbpedia.org/resource/Absentee_funeral_prayer_(Islam)', 'http://dbpedia.org/resource/Accession_Day_(Jammu_and_Kashmir)', 'http://dbpedia.org/resource/Adae_Festival', 'http://dbpedia.org/resource/Advent_Sunday', 'http://dbpedia.org/resource/Advent', 'http://dbpedia.org/resource/Adwa_Victory_Day', 'http://dbpedia.org/resource/Afghan_Independence_Day', 'http://dbpedia.org/resource/Africa_Day', 'http://dbpedia.org/resource/Afro-Colombian_Day', 'http://dbpedia.org/resource/Agawan_Festival', 'http://dbpedia.org/resource/Agonalia', 'http://dbpedia.org/resource/Agrasen_Jayanti', 'http://dbpedia.org/resource/Ahoi_Ashtami', 'http://dbpedia.org/resource/Air_Force_Day_(Pakistan)', 'http://dbpedia.org/resource/Airborne_March', 'http://dbpedia.org/resource/Akita_Kantō', 'http://dbpedia.org/resource/Akitu', 'http://dbpedia.org/resource/Akshaya_Tritiya', 'http://dbpedia.org/resource/Akwasidae_Festival', 'http://dbpedia.org/resource/Alabama_Day', "http://dbpedia.org/resource/Åland's_Autonomy_Day", 'http://dbpedia.org/resource/Alaska_Day', 'http://dbpedia.org/resource/Aldersgate_Day', 'http://dbpedia.org/resource/Alexandra_Rose_Day', "http://dbpedia.org/resource/All_Saints'_Day", "http://dbpedia.org/resource/All_Souls'_Day", 'http://dbpedia.org/resource/Allantide', 'http://dbpedia.org/resource/Allhallowtide', 'http://dbpedia.org/resource/Amalaka_Ekadashi', 'http://dbpedia.org/resource/Ambedkar_Jayanti', 'http://dbpedia.org/resource/Ambubachi_Mela', 'http://dbpedia.org/resource/Amburbium', 'http://dbpedia.org/resource/America_Recycles_Day', "http://dbpedia.org/resource/American_Business_Women's_Day", 'http://dbpedia.org/resource/American_Family_Day', 'http://dbpedia.org/resource/American_Heart_Month', 'http://dbpedia.org/resource/An_Act_for_the_Admission_of_the_State_of_California', 'http://dbpedia.org/resource/Anant_Chaturdashi', 'http://dbpedia.org/resource/Angam_Day', 'http://dbpedia.org/resource/Angarki_Sankashti_Chaturthi', 'http://dbpedia.org/resource/Anishinaabe_Giizhigad', 'http://dbpedia.org/resource/Anniversary_of_the_Unification_of_Italy', 'http://dbpedia.org/resource/Antarctica_Day', 'http://dbpedia.org/resource/Anti-Bullying_Day', 'http://dbpedia.org/resource/Anti-Fascist_Struggle_Day', 'http://dbpedia.org/resource/Anzac_Day', 'http://dbpedia.org/resource/Apple_Feast_of_the_Saviour', "http://dbpedia.org/resource/April_Fools'_Day", 'http://dbpedia.org/resource/Arattupuzha_Pooram', 'http://dbpedia.org/resource/Aravan_Festival_in_Coimbatore', "http://dbpedia.org/resource/Arba'een", 'http://dbpedia.org/resource/Arbor_Day', 'http://dbpedia.org/resource/Armed_Forces_Day_(Bangladesh)', 'http://dbpedia.org/resource/Armed_Forces_Day_(Poland)', 'http://dbpedia.org/resource/Armed_Forces_Day_(South_Korea)', 'http://dbpedia.org/resource/Armed_Forces_Day_(Tajikistan)', 'http://dbpedia.org/resource/Armed_Forces_Day_(United_Kingdom)', 'http://dbpedia.org/resource/Armenian_Genocide_Remembrance_Day', 'http://dbpedia.org/resource/Armilustrium', 'http://dbpedia.org/resource/Armistice_Day', 'http://dbpedia.org/resource/Army_Day_(Armenia)', 'http://dbpedia.org/resource/Aromanian_National_Day', 'http://dbpedia.org/resource/Artsakh_Revival_Day', 'http://dbpedia.org/resource/Asalha_Puja', 'http://dbpedia.org/resource/Ash_Wednesday', 'http://dbpedia.org/resource/Ashadhi_Puja', 'http://dbpedia.org/resource/Ashanti_Yam_Festival', 'http://dbpedia.org/resource/Ashenda', 'http://dbpedia.org/resource/Ashtimki', 'http://dbpedia.org/resource/Ashura', 'http://dbpedia.org/resource/Asian_American_and_Pacific_Islander_Heritage_Month', 'http://dbpedia.org/resource/Ask_a_Stupid_Question_Day', 'http://dbpedia.org/resource/Asr_prayer', 'http://dbpedia.org/resource/Assumption_of_Mary', 'http://dbpedia.org/resource/Astan_Bandar', 'http://dbpedia.org/resource/Asteroid_Day', 'http://dbpedia.org/resource/Astronauts_Day', 'http://dbpedia.org/resource/Ati-Atihan_festival', 'http://dbpedia.org/resource/Atla_Tadde', 'http://dbpedia.org/resource/Attukal_Pongala', 'http://dbpedia.org/resource/Auckland_Anniversary_Day', 'http://dbpedia.org/resource/August_Holiday', 'http://dbpedia.org/resource/Australia_Day', 'http://dbpedia.org/resource/Australian_Citizenship_Day', 'http://dbpedia.org/resource/Autism_Sunday', 'http://dbpedia.org/resource/Autumnal_Equinox_Day', 'http://dbpedia.org/resource/Awukudae_Festival', 'http://dbpedia.org/resource/Ayudha_Puja', 'http://dbpedia.org/resource/Ayurveda_Day', 'http://dbpedia.org/resource/Azad_Kashmir_Day', 'http://dbpedia.org/resource/Azores_Day', 'http://dbpedia.org/resource/Baba_Marta_Day', 'http://dbpedia.org/resource/Babinden', 'http://dbpedia.org/resource/Baci', 'http://dbpedia.org/resource/Bali_Jatra', 'http://dbpedia.org/resource/Balipratipada', 'http://dbpedia.org/resource/Ballarat_Show', 'http://dbpedia.org/resource/Baltic_Freedom_Day', 'http://dbpedia.org/resource/Baltic_Unity_Day', 'http://dbpedia.org/resource/Bandi_Chhor_Divas', 'http://dbpedia.org/resource/Bandna', 'http://dbpedia.org/resource/Banned_Books_Week', 'http://dbpedia.org/resource/Barack_Obama_Day', 'http://dbpedia.org/resource/Basant_(festival)', 'http://dbpedia.org/resource/Bastille_Day_military_parade', 'http://dbpedia.org/resource/Bastille_Day', 'http://dbpedia.org/resource/Batakari_Day', 'http://dbpedia.org/resource/Bathukamma', 'http://dbpedia.org/resource/Batik_Day', 'http://dbpedia.org/resource/Battle_of_Saragarhi__Day__1', 'http://dbpedia.org/resource/Bauernfest', 'http://dbpedia.org/resource/Belgian_National_Day', 'http://dbpedia.org/resource/Beltane', 'http://dbpedia.org/resource/Ben-Gurion_Day', 'http://dbpedia.org/resource/Beñesmen', 'http://dbpedia.org/resource/Bengali_Genocide_Remembrance_Day', 'http://dbpedia.org/resource/Bennington_Battle_Day', 'http://dbpedia.org/resource/Berchtoldstag', 'http://dbpedia.org/resource/Bhai_Dooj', 'http://dbpedia.org/resource/Bhairava_Ashtami', 'http://dbpedia.org/resource/Bhimana_Amavasya', 'http://dbpedia.org/resource/Bhogi', 'http://dbpedia.org/resource/Bhumchu', 'http://dbpedia.org/resource/Bhume_Naach', 'http://dbpedia.org/resource/Bibi-Ka-Alam', 'http://dbpedia.org/resource/Bihar_Day', 'http://dbpedia.org/resource/Bihu', 'http://dbpedia.org/resource/Binirayan_festival', 'http://dbpedia.org/resource/Birkat_Hachama', "http://dbpedia.org/resource/Birth_of_Baháʼu'lláh", 'http://dbpedia.org/resource/Bisexual_Awareness_Week', 'http://dbpedia.org/resource/Bisu_Parba', 'http://dbpedia.org/resource/Bizhu', 'http://dbpedia.org/resource/Black_Day_(South_Korea)', 'http://dbpedia.org/resource/Black_Friday_(partying)', 'http://dbpedia.org/resource/Black_Friday_(shopping)', 'http://dbpedia.org/resource/Black_History_Month', 'http://dbpedia.org/resource/Black_Ribbon_Day', 'http://dbpedia.org/resource/Blackout_Wednesday', "http://dbpedia.org/resource/Blacks_and_Whites'_Carnival", 'http://dbpedia.org/resource/Blasphemy_Day', 'http://dbpedia.org/resource/Blessed_Rainy_Day', 'http://dbpedia.org/resource/Blue_Beanie_Day', 'http://dbpedia.org/resource/Blue_Christmas_(holiday)', 'http://dbpedia.org/resource/Blue_Mass', 'http://dbpedia.org/resource/Bodhi_Day', 'http://dbpedia.org/resource/Bohag_Bihu', 'http://dbpedia.org/resource/Boishakhi_Mela', 'http://dbpedia.org/resource/Boita_Bandana', 'http://dbpedia.org/resource/Bon_(festival)', 'http://dbpedia.org/resource/Bon_Festival', 'http://dbpedia.org/resource/Bon_Om_Touk', 'http://dbpedia.org/resource/Bonalu', 'http://dbpedia.org/resource/Bonifacio_Day', 'http://dbpedia.org/resource/Book_Lovers_Day', 'http://dbpedia.org/resource/Border_Guards_Day', "http://dbpedia.org/resource/Boss's_Day", 'http://dbpedia.org/resource/Boun_Suang_Huea', 'http://dbpedia.org/resource/Boxing_Day', 'http://dbpedia.org/resource/Boxing_Week', 'http://dbpedia.org/resource/Brain_Tumor_Awareness_Month', "http://dbpedia.org/resource/Buddha's_Birthday", 'http://dbpedia.org/resource/Buhe', 'http://dbpedia.org/resource/Buisu', 'http://dbpedia.org/resource/Bukovina_Day', 'http://dbpedia.org/resource/Bulgarian_Armed_Forces_Day', "http://dbpedia.org/resource/Burmese_Martyrs'_Day", 'http://dbpedia.org/resource/Burns_supper', 'http://dbpedia.org/resource/Buß-_und_Bettag', 'http://dbpedia.org/resource/Busu_Dima', 'http://dbpedia.org/resource/Buwan_ng_Wika', 'http://dbpedia.org/resource/Buy_Nothing_Day', 'http://dbpedia.org/resource/Bwisagu', 'http://dbpedia.org/resource/Cake_and_Cunnilingus_Day', 'http://dbpedia.org/resource/Calan_Gaeaf', 'http://dbpedia.org/resource/Cambodian_New_Year', 'http://dbpedia.org/resource/Canada_Day', 'http://dbpedia.org/resource/Canberra_Day', 'http://dbpedia.org/resource/Cancer_Control_Month', 'http://dbpedia.org/resource/Candlemas', 'http://dbpedia.org/resource/Caribbean-American_Heritage_Month', 'http://dbpedia.org/resource/Caristia', 'http://dbpedia.org/resource/Carl_Garner_Federal_Lands_Cleanup_Day', 'http://dbpedia.org/resource/Carmentalia', 'http://dbpedia.org/resource/Carnaval_de_Ponce', 'http://dbpedia.org/resource/Carnaval_de_Vejigantes', 'http://dbpedia.org/resource/Carnival_in_Belize', 'http://dbpedia.org/resource/Carnival_of_Madeira', 'http://dbpedia.org/resource/Carnival_of_Ovar', 'http://dbpedia.org/resource/Carnival_of_Santa_Cruz_de_Tenerife', 'http://dbpedia.org/resource/Casimir_Pulaski_Day', 'http://dbpedia.org/resource/Cassette_Store_Day', 'http://dbpedia.org/resource/Cassinga_Day', 'http://dbpedia.org/resource/Castile_and_León_Day', 'http://dbpedia.org/resource/Castleton_Garland_Day', 'http://dbpedia.org/resource/Catandungan_Festival', 'http://dbpedia.org/resource/Celebrate_Bisexuality_Day', 'http://dbpedia.org/resource/Ceremony_of_the_Keys_(London)', 'http://dbpedia.org/resource/Cesar_Chavez_Day', 'http://dbpedia.org/resource/Ceuta_Day', 'http://dbpedia.org/resource/Chaand_Raat', "http://dbpedia.org/resource/Chafa'a", 'http://dbpedia.org/resource/Chaharshanbe_Suri', 'http://dbpedia.org/resource/Chaiti_Festival,_Rayagada', 'http://dbpedia.org/resource/Chak_Phra', 'http://dbpedia.org/resource/Chandeshwori_Jatra', 'http://dbpedia.org/resource/Chapchar_Kut', 'http://dbpedia.org/resource/Charak_Puja', 'http://dbpedia.org/resource/Charro_Days', 'http://dbpedia.org/resource/Chasok_Tangnam', 'http://dbpedia.org/resource/Chatar_jatra', 'http://dbpedia.org/resource/Chaturmasya', 'http://dbpedia.org/resource/Cheti_Chand', 'http://dbpedia.org/resource/Chhadakhai', 'http://dbpedia.org/resource/Chhath', 'http://dbpedia.org/resource/Child_Health_Day', 'http://dbpedia.org/resource/Childbirth_Masses', "http://dbpedia.org/resource/Children's_Day_(India)", "http://dbpedia.org/resource/Children's_Day_(Japan)", "http://dbpedia.org/resource/Children's_Day", 'http://dbpedia.org/resource/Chilseok', "http://dbpedia.org/resource/Chinese_New_Year's_Eve", 'http://dbpedia.org/resource/Chinese_New_Year', 'http://dbpedia.org/resource/Chitra_Pournami_(festival)', 'http://dbpedia.org/resource/Chocolate_Day_(Ghana)', 'http://dbpedia.org/resource/Christmas_and_holiday_season', 'http://dbpedia.org/resource/Christmas_Eve', 'http://dbpedia.org/resource/Christmas_in_Ireland', 'http://dbpedia.org/resource/Christmas_in_Romania', 'http://dbpedia.org/resource/Christmas_in_Russia', 'http://dbpedia.org/resource/Christmas_in_Sweden', 'http://dbpedia.org/resource/Christmas_in_Ukraine', 'http://dbpedia.org/resource/Christmas_lights_in_Medellín', 'http://dbpedia.org/resource/Christmas_pageant', 'http://dbpedia.org/resource/Christmas_Sunday', 'http://dbpedia.org/resource/Christmas_traditions', 'http://dbpedia.org/resource/Christmas', 'http://dbpedia.org/resource/Christmastide', 'http://dbpedia.org/resource/Cimarrones_Festival', 'http://dbpedia.org/resource/Cinco_de_Mayo', 'http://dbpedia.org/resource/Cinnamon_Roll_Day', 'http://dbpedia.org/resource/Civic_Holiday', 'http://dbpedia.org/resource/Classics_Day', 'http://dbpedia.org/resource/Coast_Guard_Day', 'http://dbpedia.org/resource/Cold_Food_Festival', 'http://dbpedia.org/resource/Coming_of_Age_Day', 'http://dbpedia.org/resource/Commemoration_Day_of_Fallen_Soldiers', 'http://dbpedia.org/resource/Commemoration_Day', 'http://dbpedia.org/resource/Commemoration_of_Atatürk,_Youth_and_Sports_Day', 'http://dbpedia.org/resource/Commonwealth_Day', 'http://dbpedia.org/resource/Concord_Day', 'http://dbpedia.org/resource/Confederate_Memorial_Day', 'http://dbpedia.org/resource/Constitution_Day_(Denmark)', 'http://dbpedia.org/resource/Constitution_Day_(Ghana)', 'http://dbpedia.org/resource/Constitution_Day_(India)', 'http://dbpedia.org/resource/Constitution_Day_(Kazakhstan)', 'http://dbpedia.org/resource/Constitution_Day_(Norway)', 'http://dbpedia.org/resource/Constitution_Day_(Russia)', 'http://dbpedia.org/resource/Constitution_Day_(South_Korea)', 'http://dbpedia.org/resource/Constitution_Day_(Ukraine)', 'http://dbpedia.org/resource/Constitution_Day_(United_States)', 'http://dbpedia.org/resource/Constitution_Memorial_Day', 'http://dbpedia.org/resource/Constitution_Week', 'http://dbpedia.org/resource/Consualia', 'http://dbpedia.org/resource/Contraband_Days', 'http://dbpedia.org/resource/COPD_Awareness_Month', 'http://dbpedia.org/resource/Coral_Triangle_Day', 'http://dbpedia.org/resource/Cosmonautics_Day', 'http://dbpedia.org/resource/Côte-Rôtie', 'http://dbpedia.org/resource/Courir_de_Mardi_Gras', 'http://dbpedia.org/resource/Cow_Harbor_Day', 'http://dbpedia.org/resource/Crop_Over', "http://dbpedia.org/resource/Cruisin'_Downriver", 'http://dbpedia.org/resource/Cry_of_Dolores', 'http://dbpedia.org/resource/Culture_Day', 'http://dbpedia.org/resource/Čuvari_Hristovog_groba', 'http://dbpedia.org/resource/Cyber_Monday', 'http://dbpedia.org/resource/Daeboreum', 'http://dbpedia.org/resource/Dahi_Handi', 'http://dbpedia.org/resource/Dahi_Jatra', 'http://dbpedia.org/resource/Dalit_History_Month', 'http://dbpedia.org/resource/Dano_(festival)', 'http://dbpedia.org/resource/Dano_(Korean_festival)', 'http://dbpedia.org/resource/Darwin_Day', 'http://dbpedia.org/resource/Dashain', 'http://dbpedia.org/resource/Data_Privacy_Day', 'http://dbpedia.org/resource/Datta_Jayanti', 'http://dbpedia.org/resource/Davao_City_Torotot_Festival', 'http://dbpedia.org/resource/Day_of_Arafah', 'http://dbpedia.org/resource/Day_of_Conception', 'http://dbpedia.org/resource/Day_of_Missile_Forces_and_Artillery', 'http://dbpedia.org/resource/Day_of_National_Dignity', 'http://dbpedia.org/resource/Day_of_Neutrality', 'http://dbpedia.org/resource/Day_of_Prayer', 'http://dbpedia.org/resource/Day_of_Reconciliation', 'http://dbpedia.org/resource/Day_of_Remembrance_for_All_Victims_of_Chemical_Warfare', 'http://dbpedia.org/resource/Day_of_Remembrance_for_Truth_and_Justice', 'http://dbpedia.org/resource/Day_of_Remembrance_of_the_Victims_of_Political_Repressions', 'http://dbpedia.org/resource/Day_of_Republika_Srpska', 'http://dbpedia.org/resource/Day_of_Restoration_of_Independence_(Azerbaijan)', 'http://dbpedia.org/resource/Day_of_Silence', 'http://dbpedia.org/resource/Day_of_Songun', 'http://dbpedia.org/resource/Day_of_the_Armed_Forces_(Kyrgyzstan)', 'http://dbpedia.org/resource/Day_of_the_Armed_Forces_of_Azerbaijan', 'http://dbpedia.org/resource/Day_of_the_Canary_Islands', 'http://dbpedia.org/resource/Day_of_the_Cuban_Armed_Forces', 'http://dbpedia.org/resource/Day_of_the_Dead', 'http://dbpedia.org/resource/Day_of_the_Flemish_Community', 'http://dbpedia.org/resource/Day_of_the_Foundation_of_the_Republic', 'http://dbpedia.org/resource/Day_of_the_founding_of_the_German_Empire', 'http://dbpedia.org/resource/Day_of_the_German-speaking_Community_of_Belgium', 'http://dbpedia.org/resource/Day_of_the_German-speaking_Community', 'http://dbpedia.org/resource/Day_of_the_Little_Candles', 'http://dbpedia.org/resource/Day_of_the_National_Flag_(Ukraine)', 'http://dbpedia.org/resource/Day_of_the_Shining_Star', 'http://dbpedia.org/resource/Day_of_the_Sun', 'http://dbpedia.org/resource/Day_of_the_Unification_of_the_Romanian_Principalities', 'http://dbpedia.org/resource/Day_of_the_Union_of_Bessarabia_with_Romania', 'http://dbpedia.org/resource/Day_of_the_Walloon_Region', 'http://dbpedia.org/resource/Day_of_the_Young_Combatant', 'http://dbpedia.org/resource/Day_of_Ukrainian_Literature_and_Language', 'http://dbpedia.org/resource/Day_of_Valor', 'http://dbpedia.org/resource/Day_of_Victory_in_the_Great_Fatherland_Liberation_War', 'http://dbpedia.org/resource/Daylight_saving_time_in_Canada', 'http://dbpedia.org/resource/Deepothsavam', 'http://dbpedia.org/resource/Defence_Day', 'http://dbpedia.org/resource/Defender_of_the_Fatherland_Day_(Kazakhstan)', 'http://dbpedia.org/resource/Defender_of_the_Fatherland_Day', 'http://dbpedia.org/resource/Defender_of_the_Motherland_Day', 'http://dbpedia.org/resource/Defenders_Day_(Maryland)', 'http://dbpedia.org/resource/Defenders_Day_(Ukraine)', 'http://dbpedia.org/resource/Dehwa_Daimana', 'http://dbpedia.org/resource/Dehwa_Hanina', 'http://dbpedia.org/resource/Dehwa_Rabba', 'http://dbpedia.org/resource/Democracy_and_National_Unity_Day', 'http://dbpedia.org/resource/Dev_Deepawali_(Varanasi)', 'http://dbpedia.org/resource/Dhammachakra_Pravartan_Din', 'http://dbpedia.org/resource/Dhanteras', 'http://dbpedia.org/resource/Dhanu_jatra', 'http://dbpedia.org/resource/Dhodha', 'http://dbpedia.org/resource/Día_de_la_Altagracia', 'http://dbpedia.org/resource/Día_Mundial_de_Ponce', 'http://dbpedia.org/resource/Día_Nacional_de_Galicia', 'http://dbpedia.org/resource/Días_Patrios_(Guatemala)', 'http://dbpedia.org/resource/Dinagyang', 'http://dbpedia.org/resource/Dinamulag_Festival', 'http://dbpedia.org/resource/Disabled_Access_Day', 'http://dbpedia.org/resource/Distaff_Day', 'http://dbpedia.org/resource/Dita_e_Verës', 'http://dbpedia.org/resource/Diwali_(Jainism)', 'http://dbpedia.org/resource/Diwali', 'http://dbpedia.org/resource/DNA_Day', 'http://dbpedia.org/resource/Dobruja_Day', 'http://dbpedia.org/resource/Dongzhi_Festival', 'http://dbpedia.org/resource/Dormition_of_the_Mother_of_God', 'http://dbpedia.org/resource/Dosmoche', 'http://dbpedia.org/resource/Double_Sixth_Festival', 'http://dbpedia.org/resource/Double_Third_Festival', 'http://dbpedia.org/resource/Downfall_of_the_Derg_(holiday)', 'http://dbpedia.org/resource/Dożynki', 'http://dbpedia.org/resource/Dragon_Boat_Festival', 'http://dbpedia.org/resource/Drupka_Teshi', 'http://dbpedia.org/resource/Duanwu_Festival', 'http://dbpedia.org/resource/Duha', 'http://dbpedia.org/resource/Dundee_Fortnight', 'http://dbpedia.org/resource/Durga_Puja', 'http://dbpedia.org/resource/Durgapur_Free_Day', 'http://dbpedia.org/resource/Dziady', 'http://dbpedia.org/resource/Earth_Day', 'http://dbpedia.org/resource/Earth_Hour', 'http://dbpedia.org/resource/Easter', 'http://dbpedia.org/resource/Economics_of_Christmas', 'http://dbpedia.org/resource/Eid_al-Adha', 'http://dbpedia.org/resource/Eid_al-Fitr', 'http://dbpedia.org/resource/Eid_al-Ghadir', 'http://dbpedia.org/resource/Eid_il-Burbara', 'http://dbpedia.org/resource/Eid_prayers', 'http://dbpedia.org/resource/El_Buen_Fin', 'http://dbpedia.org/resource/Ely_Eel_Day', 'http://dbpedia.org/resource/Emergency_Services_Day_(United_Kingdom)', 'http://dbpedia.org/resource/Employee_Appreciation_Day', 'http://dbpedia.org/resource/Enkutatash', 'http://dbpedia.org/resource/Epiphany_(Christian)', 'http://dbpedia.org/resource/Epiphany_(holiday)', 'http://dbpedia.org/resource/Epiphanytide', 'http://dbpedia.org/resource/Errol_Barrow_Day', 'http://dbpedia.org/resource/Erzya_Language_Day', 'http://dbpedia.org/resource/Ethiopian_Christmas', "http://dbpedia.org/resource/Ethiopian_Patriots'_Victory_Day", 'http://dbpedia.org/resource/Ettu_Nombu', 'http://dbpedia.org/resource/Europe_Day', 'http://dbpedia.org/resource/European_Day_of_the_Righteous', 'http://dbpedia.org/resource/Evacuation_Day_(Massachusetts)', 'http://dbpedia.org/resource/Evacuation_Day_(New_York)', 'http://dbpedia.org/resource/Evacuation_Day_(Syria)', 'http://dbpedia.org/resource/Evelio_Javier_Day', 'http://dbpedia.org/resource/Evolution_Day', 'http://dbpedia.org/resource/Execution_of_the_Báb', 'http://dbpedia.org/resource/Fajr_nafl_prayer', 'http://dbpedia.org/resource/Fajr_prayer', 'http://dbpedia.org/resource/Falklands_Day', 'http://dbpedia.org/resource/Family_Day_(Canada)', "http://dbpedia.org/resource/Farmers'_Day", 'http://dbpedia.org/resource/Fast_of_Esther', 'http://dbpedia.org/resource/Fast_of_Gedalia', 'http://dbpedia.org/resource/Fast_of_Nineveh', 'http://dbpedia.org/resource/Fast_of_the_Firstborn', 'http://dbpedia.org/resource/Father–Daughter_Day', "http://dbpedia.org/resource/Father's_Day_(United_States)", "http://dbpedia.org/resource/Father's_Day", 'http://dbpedia.org/resource/Fatimiyya', 'http://dbpedia.org/resource/Feast_of_Ezid', 'http://dbpedia.org/resource/Feast_of_Saint_George_(Palestine)', 'http://dbpedia.org/resource/Feast_of_Saints_Francis_and_Catherine', 'http://dbpedia.org/resource/Feast_of_Saints_Peter_and_Paul', 'http://dbpedia.org/resource/Feast_of_the_Annunciation', 'http://dbpedia.org/resource/Feast_of_the_Ass', 'http://dbpedia.org/resource/Feast_of_the_Assembly', 'http://dbpedia.org/resource/Feast_of_the_Black_Nazarene', 'http://dbpedia.org/resource/Feast_of_the_Great_Shishlam', 'http://dbpedia.org/resource/Feast_of_the_Immaculate_Conception', 'http://dbpedia.org/resource/Federal_Day_of_Thanksgiving,_Repentance_and_Prayer', 'http://dbpedia.org/resource/Federal_holidays_in_the_United_States', 'http://dbpedia.org/resource/Federal_Territory_Day', 'http://dbpedia.org/resource/Feralia', 'http://dbpedia.org/resource/Feria_de_Artesanías_de_Ponce', 'http://dbpedia.org/resource/Feriae_Latinae', 'http://dbpedia.org/resource/Ferragosto', 'http://dbpedia.org/resource/Festa_de_São_João_do_Porto', 'http://dbpedia.org/resource/Festa_della_Repubblica', 'http://dbpedia.org/resource/Festival_de_Bomba_y_Plena_de_San_Antón', 'http://dbpedia.org/resource/Festival_Folclórico_y_Reinado_Nacional_del_Bambuco', 'http://dbpedia.org/resource/Festival_Nacional_Afrocaribeño', 'http://dbpedia.org/resource/Festival_Nacional_de_la_Quenepa', 'http://dbpedia.org/resource/Festival_of_Lights_(Lyon)', 'http://dbpedia.org/resource/Festival_of_Perun', 'http://dbpedia.org/resource/Festival_of_Veles', 'http://dbpedia.org/resource/Festivus', 'http://dbpedia.org/resource/Festum_Ovorum', 'http://dbpedia.org/resource/Fiesta_Nacional_de_la_Danza', 'http://dbpedia.org/resource/Fiestas_de_Santa_Fe', 'http://dbpedia.org/resource/Fiestas_del_Pilar', 'http://dbpedia.org/resource/Fiestas_Patrias_(Chile)', 'http://dbpedia.org/resource/Fiestas_Patrias_(Peru)', 'http://dbpedia.org/resource/Fiestas_patronales_de_Ponce', 'http://dbpedia.org/resource/Fiji_Week', 'http://dbpedia.org/resource/Filipino_American_History_Month', 'http://dbpedia.org/resource/Filipino_Heritage_Month', 'http://dbpedia.org/resource/Filseta', 'http://dbpedia.org/resource/Finnish_Swedish_Heritage_Day', 'http://dbpedia.org/resource/First_day_of_summer_(Iceland)', 'http://dbpedia.org/resource/First_National_Government', 'http://dbpedia.org/resource/Flag_Day_(Albania)', 'http://dbpedia.org/resource/Flag_Day_(Argentina)', 'http://dbpedia.org/resource/Flag_Day_(Australia)', 'http://dbpedia.org/resource/Flag_Day_(United_Arab_Emirates)', 'http://dbpedia.org/resource/Flag_Day_(United_States)', 'http://dbpedia.org/resource/Flag_Day_in_Mexico', 'http://dbpedia.org/resource/Floralia', 'http://dbpedia.org/resource/Fordicidia', 'http://dbpedia.org/resource/Fossil_Fools_Day', 'http://dbpedia.org/resource/Fössta_tossdan_i_mass', "http://dbpedia.org/resource/Founders'_Day_(Ghana)", 'http://dbpedia.org/resource/Frankenstein_Day', 'http://dbpedia.org/resource/Fraternal_Day', 'http://dbpedia.org/resource/Freedom_and_Democracy_Day', 'http://dbpedia.org/resource/Freedom_Day_(Belarus)', 'http://dbpedia.org/resource/Freedom_Day_(Malta)', 'http://dbpedia.org/resource/Freedom_Day_(South_Africa)', 'http://dbpedia.org/resource/French_Community_Holiday', 'http://dbpedia.org/resource/Friendship_Day', 'http://dbpedia.org/resource/Fukagawa_Matsuri', 'http://dbpedia.org/resource/Funeral_prayer_(Islam)', 'http://dbpedia.org/resource/Gaan-Ngai', 'http://dbpedia.org/resource/Gaecheonjeol', 'http://dbpedia.org/resource/Gai_Jatra', 'http://dbpedia.org/resource/Gajan_(festival)', 'http://dbpedia.org/resource/Galdan_Namchot', 'http://dbpedia.org/resource/Galician_Literature_Day', 'http://dbpedia.org/resource/Galungan', 'http://dbpedia.org/resource/Gandhi_Jayanti', 'http://dbpedia.org/resource/Ganesh_Chaturthi', 'http://dbpedia.org/resource/Ganesh_Jayanti', 'http://dbpedia.org/resource/Ganga_Dussehra', 'http://dbpedia.org/resource/Ganga_puja', 'http://dbpedia.org/resource/Gangamma_Jatara', 'http://dbpedia.org/resource/Gangaur', 'http://dbpedia.org/resource/Garifuna_Settlement_Day', 'http://dbpedia.org/resource/Gasparilla_Pirate_Festival', 'http://dbpedia.org/resource/Gaudete_Sunday', 'http://dbpedia.org/resource/Gaura_(festival)', 'http://dbpedia.org/resource/Gawai_Dayak', 'http://dbpedia.org/resource/Geek_Pride_Day', 'http://dbpedia.org/resource/General_Pulaski_Memorial_Day', "http://dbpedia.org/resource/George's_Day_in_Autumn", "http://dbpedia.org/resource/George's_Day_in_Spring", 'http://dbpedia.org/resource/Georgia_Day', 'http://dbpedia.org/resource/German_Unity_Day', 'http://dbpedia.org/resource/German-American_Day', 'http://dbpedia.org/resource/Ghanta_Karna', 'http://dbpedia.org/resource/Ghost_Festival', 'http://dbpedia.org/resource/Giant_Lantern_Festival', 'http://dbpedia.org/resource/Gibraltar_National_Day', 'http://dbpedia.org/resource/Gifaata', 'http://dbpedia.org/resource/Gilgit-Baltistan_Independence_Day', 'http://dbpedia.org/resource/Gion_Matsuri', 'http://dbpedia.org/resource/Giving_Tuesday', 'http://dbpedia.org/resource/GivingTuesday', 'http://dbpedia.org/resource/Glasgow_Fair', 'http://dbpedia.org/resource/Global_Accessibility_Awareness_Day', 'http://dbpedia.org/resource/Global_Day_of_Action_on_Military_Spending', 'http://dbpedia.org/resource/Global_Handwashing_Day', 'http://dbpedia.org/resource/Global_Information_Governance_Day', 'http://dbpedia.org/resource/Global_Money_Week', 'http://dbpedia.org/resource/Global_Running_Day', 'http://dbpedia.org/resource/Global_Wind_Day', 'http://dbpedia.org/resource/Goa_Liberation_Day', 'http://dbpedia.org/resource/Golden_Week_(Japan)', 'http://dbpedia.org/resource/Golu', 'http://dbpedia.org/resource/Good_Friday', 'http://dbpedia.org/resource/Good_Governance_Day', 'http://dbpedia.org/resource/Gopastami', 'http://dbpedia.org/resource/Govatsa_Dwadashi', 'http://dbpedia.org/resource/Gowri_Habba', "http://dbpedia.org/resource/Grand_Duke's_Official_Birthday", "http://dbpedia.org/resource/Grandparents'_Day", 'http://dbpedia.org/resource/Great_Union_Day', 'http://dbpedia.org/resource/Green_Monday', 'http://dbpedia.org/resource/Green_week', 'http://dbpedia.org/resource/Greenery_Day', 'http://dbpedia.org/resource/Groundhog_Day', 'http://dbpedia.org/resource/Guam_Discovery_Day', 'http://dbpedia.org/resource/Guanacaste_Day', 'http://dbpedia.org/resource/Gudi_Padwa', 'http://dbpedia.org/resource/Gunla', 'http://dbpedia.org/resource/Guru_Nanak_Gurpurab', 'http://dbpedia.org/resource/Guru_Purnima', 'http://dbpedia.org/resource/Gustavus_Adolphus_Day', 'http://dbpedia.org/resource/Gustor_Festival', 'http://dbpedia.org/resource/Hadaka_Matsuri', 'http://dbpedia.org/resource/Haitian_Heritage_Month', 'http://dbpedia.org/resource/Hakata_Dontaku', 'http://dbpedia.org/resource/Hakata_Gion_Yamakasa', 'http://dbpedia.org/resource/Halloween', 'http://dbpedia.org/resource/Handsel_Monday', 'http://dbpedia.org/resource/Hangul_Day', 'http://dbpedia.org/resource/Hanukkah', 'http://dbpedia.org/resource/Hanuman_Jayanti', 'http://dbpedia.org/resource/Harela_Mela', 'http://dbpedia.org/resource/Harriet_Tubman_Day', 'http://dbpedia.org/resource/Harvey_Milk_Day', 'http://dbpedia.org/resource/Haya_Day', 'http://dbpedia.org/resource/Heikru_Hidongba', 'http://dbpedia.org/resource/Helen_Keller_Day', 'http://dbpedia.org/resource/Heritage_Day_(South_Africa)', "http://dbpedia.org/resource/Heroes'_Day_(Namibia)", "http://dbpedia.org/resource/Heroes'_Day", 'http://dbpedia.org/resource/Herzl_Day', 'http://dbpedia.org/resource/Higalaay_Festival', 'http://dbpedia.org/resource/Higantes_Festival', 'http://dbpedia.org/resource/Hilaria', 'http://dbpedia.org/resource/Hillbilly_Days', 'http://dbpedia.org/resource/Hiloula_of_Rabbi_Haim_Pinto', 'http://dbpedia.org/resource/Hinamatsuri', 'http://dbpedia.org/resource/Hindi_Day', 'http://dbpedia.org/resource/History_of_lysergic_acid_diethylamide', 'http://dbpedia.org/resource/Hizb_Rateb', 'http://dbpedia.org/resource/Hıdırellez', 'http://dbpedia.org/resource/Hobiyee', 'http://dbpedia.org/resource/Hogmanay', 'http://dbpedia.org/resource/Hola_Mohalla', 'http://dbpedia.org/resource/Holi', 'http://dbpedia.org/resource/Holidays_with_paid_time_off_in_the_United_States', 'http://dbpedia.org/resource/Holika_Dahan', 'http://dbpedia.org/resource/Holy_Saturday', 'http://dbpedia.org/resource/Holy_Week_in_Ruvo_di_Puglia', 'http://dbpedia.org/resource/Hōnensai', 'http://dbpedia.org/resource/Honey_Feast_of_the_Saviour', 'http://dbpedia.org/resource/Hong_Kong_Foundation_Day', 'http://dbpedia.org/resource/Hong_Kong_Special_Administrative_Region_Establishment_Day', 'http://dbpedia.org/resource/Honor_America_Days', 'http://dbpedia.org/resource/Hop-tu-Naa', 'http://dbpedia.org/resource/Hosay', 'http://dbpedia.org/resource/Human_Rights_Day', 'http://dbpedia.org/resource/HumanLight', "http://dbpedia.org/resource/Hùng_Kings'_Festival", 'http://dbpedia.org/resource/Hyderabad-Karnataka_Liberation_Day', 'http://dbpedia.org/resource/Icelandic_National_Day', 'http://dbpedia.org/resource/Imbolc', 'http://dbpedia.org/resource/Imoinu_Iratpa', 'http://dbpedia.org/resource/In_town,_without_my_car!', 'http://dbpedia.org/resource/Independence_and_Unity_Day_(Slovenia)', 'http://dbpedia.org/resource/Independence_Day_(Abkhazia)', 'http://dbpedia.org/resource/Independence_Day_(Algeria)', 'http://dbpedia.org/resource/Independence_Day_(Armenia)', 'http://dbpedia.org/resource/Independence_Day_(Bahrain)', 'http://dbpedia.org/resource/Independence_Day_(Bangladesh)', 'http://dbpedia.org/resource/Independence_Day_(Belarus)', 'http://dbpedia.org/resource/Independence_Day_(Bosnia_and_Herzegovina)', 'http://dbpedia.org/resource/Independence_Day_(Botswana)', 'http://dbpedia.org/resource/Independence_Day_(Brazil)', 'http://dbpedia.org/resource/Independence_Day_(Croatia)', 'http://dbpedia.org/resource/Independence_Day_(Cyprus)', 'http://dbpedia.org/resource/Independence_Day_(Djibouti)', 'http://dbpedia.org/resource/Independence_Day_(Eritrea)', 'http://dbpedia.org/resource/Independence_Day_(Estonia)', 'http://dbpedia.org/resource/Independence_Day_(Finland)', 'http://dbpedia.org/resource/Independence_Day_(Georgia)', 'http://dbpedia.org/resource/Independence_Day_(Ghana)', 'http://dbpedia.org/resource/Independence_Day_(Grenada)', 'http://dbpedia.org/resource/Independence_Day_(Hawaii)', 'http://dbpedia.org/resource/Independence_Day_(India)', 'http://dbpedia.org/resource/Independence_Day_(Indonesia)', 'http://dbpedia.org/resource/Independence_Day_(Jamaica)', 'http://dbpedia.org/resource/Independence_Day_(Jordan)', 'http://dbpedia.org/resource/Independence_Day_(Kazakhstan)', 'http://dbpedia.org/resource/Independence_Day_(Kyrgyzstan)', 'http://dbpedia.org/resource/Independence_Day_(Malaysia)', 'http://dbpedia.org/resource/Independence_Day_(Malta)', 'http://dbpedia.org/resource/Independence_Day_(Myanmar)', 'http://dbpedia.org/resource/Independence_Day_(Niger)', 'http://dbpedia.org/resource/Independence_Day_(North_Macedonia)', 'http://dbpedia.org/resource/Independence_Day_(Pakistan)', 'http://dbpedia.org/resource/Independence_Day_(Philippines)', 'http://dbpedia.org/resource/Independence_Day_(Somalia)', 'http://dbpedia.org/resource/Independence_Day_(Somaliland)', 'http://dbpedia.org/resource/Independence_Day_(South_Ossetia)', 'http://dbpedia.org/resource/Independence_Day_(Sri_Lanka)', 'http://dbpedia.org/resource/Independence_Day_(State_of_Somaliland)', 'http://dbpedia.org/resource/Independence_Day_(Tajikistan)', 'http://dbpedia.org/resource/Independence_Day_(Turkmenistan)', 'http://dbpedia.org/resource/Independence_Day_(Uganda)', 'http://dbpedia.org/resource/Independence_Day_(United_States)', 'http://dbpedia.org/resource/Independence_Day_(Uzbekistan)', 'http://dbpedia.org/resource/Independence_Day_of_Cambodia', 'http://dbpedia.or</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/140th_Anniversary_Celebration_of_the_Emancipation_Proclamation', 'http://dbpedia.org/resource/19_Kislev', "http://dbpedia.org/resource/21_July_Martyr's_Day_Rally", 'http://dbpedia.org/resource/3_May_Constitution_Day', 'http://dbpedia.org/resource/420_(cannabis_culture)', 'http://dbpedia.org/resource/75th_Anniversary_of_Indian_Independence', 'http://dbpedia.org/resource/Aadi_Perukku', 'http://dbpedia.org/resource/Abaca_Festival', 'http://dbpedia.org/resource/Aberri_Eguna', 'http://dbpedia.org/resource/Absentee_funeral_prayer_(Islam)', 'http://dbpedia.org/resource/Accession_Day_(Jammu_and_Kashmir)', 'http://dbpedia.org/resource/Adae_Festival', 'http://dbpedia.org/resource/Advent_Sunday', 'http://dbpedia.org/resource/Advent', 'http://dbpedia.org/resource/Adwa_Victory_Day', 'http://dbpedia.org/resource/Afghan_Independence_Day', 'http://dbpedia.org/resource/Africa_Day', 'http://dbpedia.org/resource/Afro-Colombian_Day', 'http://dbpedia.org/resource/Agawan_Festival', 'http://dbpedia.org/resource/Agonalia', 'http://dbpedia.org/resource/Agrasen_Jayanti', 'http://dbpedia.org/resource/Ahoi_Ashtami', 'http://dbpedia.org/resource/Air_Force_Day_(Pakistan)', 'http://dbpedia.org/resource/Airborne_March', 'http://dbpedia.org/resource/Akita_Kantō', 'http://dbpedia.org/resource/Akitu', 'http://dbpedia.org/resource/Akshaya_Tritiya', 'http://dbpedia.org/resource/Akwasidae_Festival', 'http://dbpedia.org/resource/Alabama_Day', "http://dbpedia.org/resource/Åland's_Autonomy_Day", 'http://dbpedia.org/resource/Alaska_Day', 'http://dbpedia.org/resource/Aldersgate_Day', 'http://dbpedia.org/resource/Alexandra_Rose_Day', "http://dbpedia.org/resource/All_Saints'_Day", "http://dbpedia.org/resource/All_Souls'_Day", 'http://dbpedia.org/resource/Allantide', 'http://dbpedia.org/resource/Allhallowtide', 'http://dbpedia.org/resource/Amalaka_Ekadashi', 'http://dbpedia.org/resource/Ambedkar_Jayanti', 'http://dbpedia.org/resource/Ambubachi_Mela', 'http://dbpedia.org/resource/Amburbium', 'http://dbpedia.org/resource/America_Recycles_Day', "http://dbpedia.org/resource/American_Business_Women's_Day", 'http://dbpedia.org/resource/American_Family_Day', 'http://dbpedia.org/resource/American_Heart_Month', 'http://dbpedia.org/resource/An_Act_for_the_Admission_of_the_State_of_California', 'http://dbpedia.org/resource/Anant_Chaturdashi', 'http://dbpedia.org/resource/Angam_Day', 'http://dbpedia.org/resource/Angarki_Sankashti_Chaturthi', 'http://dbpedia.org/resource/Anishinaabe_Giizhigad', 'http://dbpedia.org/resource/Anniversary_of_the_Unification_of_Italy', 'http://dbpedia.org/resource/Antarctica_Day', 'http://dbpedia.org/resource/Anti-Bullying_Day', 'http://dbpedia.org/resource/Anti-Fascist_Struggle_Day', 'http://dbpedia.org/resource/Anzac_Day', 'http://dbpedia.org/resource/Apple_Feast_of_the_Saviour', "http://dbpedia.org/resource/April_Fools'_Day", 'http://dbpedia.org/resource/Arattupuzha_Pooram', 'http://dbpedia.org/resource/Aravan_Festival_in_Coimbatore', "http://dbpedia.org/resource/Arba'een", 'http://dbpedia.org/resource/Arbor_Day', 'http://dbpedia.org/resource/Armed_Forces_Day_(Bangladesh)', 'http://dbpedia.org/resource/Armed_Forces_Day_(Poland)', 'http://dbpedia.org/resource/Armed_Forces_Day_(South_Korea)', 'http://dbpedia.org/resource/Armed_Forces_Day_(Tajikistan)', 'http://dbpedia.org/resource/Armed_Forces_Day_(United_Kingdom)', 'http://dbpedia.org/resource/Armenian_Genocide_Remembrance_Day', 'http://dbpedia.org/resource/Armilustrium', 'http://dbpedia.org/resource/Armistice_Day', 'http://dbpedia.org/resource/Army_Day_(Armenia)', 'http://dbpedia.org/resource/Aromanian_National_Day', 'http://dbpedia.org/resource/Artsakh_Revival_Day', 'http://dbpedia.org/resource/Asalha_Puja', 'http://dbpedia.org/resource/Ash_Wednesday', 'http://dbpedia.org/resource/Ashadhi_Puja', 'http://dbpedia.org/resource/Ashanti_Yam_Festival', 'http://dbpedia.org/resource/Ashenda', 'http://dbpedia.org/resource/Ashtimki', 'http://dbpedia.org/resource/Ashura', 'http://dbpedia.org/resource/Asian_American_and_Pacific_Islander_Heritage_Month', 'http://dbpedia.org/resource/Ask_a_Stupid_Question_Day', 'http://dbpedia.org/resource/Asr_prayer', 'http://dbpedia.org/resource/Assumption_of_Mary', 'http://dbpedia.org/resource/Astan_Bandar', 'http://dbpedia.org/resource/Asteroid_Day', 'http://dbpedia.org/resource/Astronauts_Day', 'http://dbpedia.org/resource/Ati-Atihan_festival', 'http://dbpedia.org/resource/Atla_Tadde', 'http://dbpedia.org/resource/Attukal_Pongala', 'http://dbpedia.org/resource/Auckland_Anniversary_Day', 'http://dbpedia.org/resource/August_Holiday', 'http://dbpedia.org/resource/Australia_Day', 'http://dbpedia.org/resource/Australian_Citizenship_Day', 'http://dbpedia.org/resource/Autism_Sunday', 'http://dbpedia.org/resource/Autumnal_Equinox_Day', 'http://dbpedia.org/resource/Awukudae_Festival', 'http://dbpedia.org/resource/Ayudha_Puja', 'http://dbpedia.org/resource/Ayurveda_Day', 'http://dbpedia.org/resource/Azad_Kashmir_Day', 'http://dbpedia.org/resource/Azores_Day', 'http://dbpedia.org/resource/Baba_Marta_Day', 'http://dbpedia.org/resource/Babinden', 'http://dbpedia.org/resource/Baci', 'http://dbpedia.org/resource/Bali_Jatra', 'http://dbpedia.org/resource/Balipratipada', 'http://dbpedia.org/resource/Ballarat_Show', 'http://dbpedia.org/resource/Baltic_Freedom_Day', 'http://dbpedia.org/resource/Baltic_Unity_Day', 'http://dbpedia.org/resource/Bandi_Chhor_Divas', 'http://dbpedia.org/resource/Bandna', 'http://dbpedia.org/resource/Banned_Books_Week', 'http://dbpedia.org/resource/Barack_Obama_Day', 'http://dbpedia.org/resource/Basant_(festival)', 'http://dbpedia.org/resource/Bastille_Day_military_parade', 'http://dbpedia.org/resource/Bastille_Day', 'http://dbpedia.org/resource/Batakari_Day', 'http://dbpedia.org/resource/Bathukamma', 'http://dbpedia.org/resource/Batik_Day', 'http://dbpedia.org/resource/Battle_of_Saragarhi__Day__1', 'http://dbpedia.org/resource/Bauernfest', 'http://dbpedia.org/resource/Belgian_National_Day', 'http://dbpedia.org/resource/Beltane', 'http://dbpedia.org/resource/Ben-Gurion_Day', 'http://dbpedia.org/resource/Beñesmen', 'http://dbpedia.org/resource/Bengali_Genocide_Remembrance_Day', 'http://dbpedia.org/resource/Bennington_Battle_Day', 'http://dbpedia.org/resource/Berchtoldstag', 'http://dbpedia.org/resource/Bhai_Dooj', 'http://dbpedia.org/resource/Bhairava_Ashtami', 'http://dbpedia.org/resource/Bhimana_Amavasya', 'http://dbpedia.org/resource/Bhogi', 'http://dbpedia.org/resource/Bhumchu', 'http://dbpedia.org/resource/Bhume_Naach', 'http://dbpedia.org/resource/Bibi-Ka-Alam', 'http://dbpedia.org/resource/Bihar_Day', 'http://dbpedia.org/resource/Bihu', 'http://dbpedia.org/resource/Binirayan_festival', 'http://dbpedia.org/resource/Birkat_Hachama', "http://dbpedia.org/resource/Birth_of_Baháʼu'lláh", 'http://dbpedia.org/resource/Bisexual_Awareness_Week', 'http://dbpedia.org/resource/Bisu_Parba', 'http://dbpedia.org/resource/Bizhu', 'http://dbpedia.org/resource/Black_Day_(South_Korea)', 'http://dbpedia.org/resource/Black_Friday_(partying)', 'http://dbpedia.org/resource/Black_Friday_(shopping)', 'http://dbpedia.org/resource/Black_History_Month', 'http://dbpedia.org/resource/Black_Ribbon_Day', 'http://dbpedia.org/resource/Blackout_Wednesday', "http://dbpedia.org/resource/Blacks_and_Whites'_Carnival", 'http://dbpedia.org/resource/Blasphemy_Day', 'http://dbpedia.org/resource/Blessed_Rainy_Day', 'http://dbpedia.org/resource/Blue_Beanie_Day', 'http://dbpedia.org/resource/Blue_Christmas_(holiday)', 'http://dbpedia.org/resource/Blue_Mass', 'http://dbpedia.org/resource/Bodhi_Day', 'http://dbpedia.org/resource/Bohag_Bihu', 'http://dbpedia.org/resource/Boishakhi_Mela', 'http://dbpedia.org/resource/Boita_Bandana', 'http://dbpedia.org/resource/Bon_(festival)', 'http://dbpedia.org/resource/Bon_Festival', 'http://dbpedia.org/resource/Bon_Om_Touk', 'http://dbpedia.org/resource/Bonalu', 'http://dbpedia.org/resource/Bonifacio_Day', 'http://dbpedia.org/resource/Book_Lovers_Day', 'http://dbpedia.org/resource/Border_Guards_Day', "http://dbpedia.org/resource/Boss's_Day", 'http://dbpedia.org/resource/Boun_Suang_Huea', 'http://dbpedia.org/resource/Boxing_Day', 'http://dbpedia.org/resource/Boxing_Week', 'http://dbpedia.org/resource/Brain_Tumor_Awareness_Month', "http://dbpedia.org/resource/Buddha's_Birthday", 'http://dbpedia.org/resource/Buhe', 'http://dbpedia.org/resource/Buisu', 'http://dbpedia.org/resource/Bukovina_Day', 'http://dbpedia.org/resource/Bulgarian_Armed_Forces_Day', "http://dbpedia.org/resource/Burmese_Martyrs'_Day", 'http://dbpedia.org/resource/Burns_supper', 'http://dbpedia.org/resource/Buß-_und_Bettag', 'http://dbpedia.org/resource/Busu_Dima', 'http://dbpedia.org/resource/Buwan_ng_Wika', 'http://dbpedia.org/resource/Buy_Nothing_Day', 'http://dbpedia.org/resource/Bwisagu', 'http://dbpedia.org/resource/Cake_and_Cunnilingus_Day', 'http://dbpedia.org/resource/Calan_Gaeaf', 'http://dbpedia.org/resource/Cambodian_New_Year', 'http://dbpedia.org/resource/Canada_Day', 'http://dbpedia.org/resource/Canberra_Day', 'http://dbpedia.org/resource/Cancer_Control_Month', 'http://dbpedia.org/resource/Candlemas', 'http://dbpedia.org/resource/Caribbean-American_Heritage_Month', 'http://dbpedia.org/resource/Caristia', 'http://dbpedia.org/resource/Carl_Garner_Federal_Lands_Cleanup_Day', 'http://dbpedia.org/resource/Carmentalia', 'http://dbpedia.org/resource/Carnaval_de_Ponce', 'http://dbpedia.org/resource/Carnaval_de_Vejigantes', 'http://dbpedia.org/resource/Carnival_in_Belize', 'http://dbpedia.org/resource/Carnival_of_Madeira', 'http://dbpedia.org/resource/Carnival_of_Ovar', 'http://dbpedia.org/resource/Carnival_of_Santa_Cruz_de_Tenerife', 'http://dbpedia.org/resource/Casimir_Pulaski_Day', 'http://dbpedia.org/resource/Cassette_Store_Day', 'http://dbpedia.org/resource/Cassinga_Day', 'http://dbpedia.org/resource/Castile_and_León_Day', 'http://dbpedia.org/resource/Castleton_Garland_Day', 'http://dbpedia.org/resource/Catandungan_Festival', 'http://dbpedia.org/resource/Celebrate_Bisexuality_Day', 'http://dbpedia.org/resource/Ceremony_of_the_Keys_(London)', 'http://dbpedia.org/resource/Cesar_Chavez_Day', 'http://dbpedia.org/resource/Ceuta_Day', 'http://dbpedia.org/resource/Chaand_Raat', "http://dbpedia.org/resource/Chafa'a", 'http://dbpedia.org/resource/Chaharshanbe_Suri', 'http://dbpedia.org/resource/Chaiti_Festival,_Rayagada', 'http://dbpedia.org/resource/Chak_Phra', 'http://dbpedia.org/resource/Chandeshwori_Jatra', 'http://dbpedia.org/resource/Chapchar_Kut', 'http://dbpedia.org/resource/Charak_Puja', 'http://dbpedia.org/resource/Charro_Days', 'http://dbpedia.org/resource/Chasok_Tangnam', 'http://dbpedia.org/resource/Chatar_jatra', 'http://dbpedia.org/resource/Chaturmasya', 'http://dbpedia.org/resource/Cheti_Chand', 'http://dbpedia.org/resource/Chhadakhai', 'http://dbpedia.org/resource/Chhath', 'http://dbpedia.org/resource/Child_Health_Day', 'http://dbpedia.org/resource/Childbirth_Masses', "http://dbpedia.org/resource/Children's_Day_(India)", "http://dbpedia.org/resource/Children's_Day_(Japan)", "http://dbpedia.org/resource/Children's_Day", 'http://dbpedia.org/resource/Chilseok', "http://dbpedia.org/resource/Chinese_New_Year's_Eve", 'http://dbpedia.org/resource/Chinese_New_Year', 'http://dbpedia.org/resource/Chitra_Pournami_(festival)', 'http://dbpedia.org/resource/Chocolate_Day_(Ghana)', 'http://dbpedia.org/resource/Christmas_and_holiday_season', 'http://dbpedia.org/resource/Christmas_Eve', 'http://dbpedia.org/resource/Christmas_in_Ireland', 'http://dbpedia.org/resource/Christmas_in_Romania', 'http://dbpedia.org/resource/Christmas_in_Russia', 'http://dbpedia.org/resource/Christmas_in_Sweden', 'http://dbpedia.org/resource/Christmas_in_Ukraine', 'http://dbpedia.org/resource/Christmas_lights_in_Medellín', 'http://dbpedia.org/resource/Christmas_pageant', 'http://dbpedia.org/resource/Christmas_Sunday', 'http://dbpedia.org/resource/Christmas_traditions', 'http://dbpedia.org/resource/Christmas', 'http://dbpedia.org/resource/Christmastide', 'http://dbpedia.org/resource/Cimarrones_Festival', 'http://dbpedia.org/resource/Cinco_de_Mayo', 'http://dbpedia.org/resource/Cinnamon_Roll_Day', 'http://dbpedia.org/resource/Civic_Holiday', 'http://dbpedia.org/resource/Classics_Day', 'http://dbpedia.org/resource/Coast_Guard_Day', 'http://dbpedia.org/resource/Cold_Food_Festival', 'http://dbpedia.org/resource/Coming_of_Age_Day', 'http://dbpedia.org/resource/Commemoration_Day_of_Fallen_Soldiers', 'http://dbpedia.org/resource/Commemoration_Day', 'http://dbpedia.org/resource/Commemoration_of_Atatürk,_Youth_and_Sports_Day', 'http://dbpedia.org/resource/Commonwealth_Day', 'http://dbpedia.org/resource/Concord_Day', 'http://dbpedia.org/resource/Confederate_Memorial_Day', 'http://dbpedia.org/resource/Constitution_Day_(Denmark)', 'http://dbpedia.org/resource/Constitution_Day_(Ghana)', 'http://dbpedia.org/resource/Constitution_Day_(India)', 'http://dbpedia.org/resource/Constitution_Day_(Kazakhstan)', 'http://dbpedia.org/resource/Constitution_Day_(Norway)', 'http://dbpedia.org/resource/Constitution_Day_(Russia)', 'http://dbpedia.org/resource/Constitution_Day_(South_Korea)', 'http://dbpedia.org/resource/Constitution_Day_(Ukraine)', 'http://dbpedia.org/resource/Constitution_Day_(United_States)', 'http://dbpedia.org/resource/Constitution_Memorial_Day', 'http://dbpedia.org/resource/Constitution_Week', 'http://dbpedia.org/resource/Consualia', 'http://dbpedia.org/resource/Contraband_Days', 'http://dbpedia.org/resource/COPD_Awareness_Month', 'http://dbpedia.org/resource/Coral_Triangle_Day', 'http://dbpedia.org/resource/Cosmonautics_Day', 'http://dbpedia.org/resource/Côte-Rôtie', 'http://dbpedia.org/resource/Courir_de_Mardi_Gras', 'http://dbpedia.org/resource/Cow_Harbor_Day', 'http://dbpedia.org/resource/Crop_Over', "http://dbpedia.org/resource/Cruisin'_Downriver", 'http://dbpedia.org/resource/Cry_of_Dolores', 'http://dbpedia.org/resource/Culture_Day', 'http://dbpedia.org/resource/Čuvari_Hristovog_groba', 'http://dbpedia.org/resource/Cyber_Monday', 'http://dbpedia.org/resource/Daeboreum', 'http://dbpedia.org/resource/Dahi_Handi', 'http://dbpedia.org/resource/Dahi_Jatra', 'http://dbpedia.org/resource/Dalit_History_Month', 'http://dbpedia.org/resource/Dano_(festival)', 'http://dbpedia.org/resource/Dano_(Korean_festival)', 'http://dbpedia.org/resource/Darwin_Day', 'http://dbpedia.org/resource/Dashain', 'http://dbpedia.org/resource/Data_Privacy_Day', 'http://dbpedia.org/resource/Datta_Jayanti', 'http://dbpedia.org/resource/Davao_City_Torotot_Festival', 'http://dbpedia.org/resource/Day_of_Arafah', 'http://dbpedia.org/resource/Day_of_Conception', 'http://dbpedia.org/resource/Day_of_Missile_Forces_and_Artillery', 'http://dbpedia.org/resource/Day_of_National_Dignity', 'http://dbpedia.org/resource/Day_of_Neutrality', 'http://dbpedia.org/resource/Day_of_Prayer', 'http://dbpedia.org/resource/Day_of_Reconciliation', 'http://dbpedia.org/resource/Day_of_Remembrance_for_All_Victims_of_Chemical_Warfare', 'http://dbpedia.org/resource/Day_of_Remembrance_for_Truth_and_Justice', 'http://dbpedia.org/resource/Day_of_Remembrance_of_the_Victims_of_Political_Repressions', 'http://dbpedia.org/resource/Day_of_Republika_Srpska', 'http://dbpedia.org/resource/Day_of_Restoration_of_Independence_(Azerbaijan)', 'http://dbpedia.org/resource/Day_of_Silence', 'http://dbpedia.org/resource/Day_of_Songun', 'http://dbpedia.org/resource/Day_of_the_Armed_Forces_(Kyrgyzstan)', 'http://dbpedia.org/resource/Day_of_the_Armed_Forces_of_Azerbaijan', 'http://dbpedia.org/resource/Day_of_the_Canary_Islands', 'http://dbpedia.org/resource/Day_of_the_Cuban_Armed_Forces', 'http://dbpedia.org/resource/Day_of_the_Dead', 'http://dbpedia.org/resource/Day_of_the_Flemish_Community', 'http://dbpedia.org/resource/Day_of_the_Foundation_of_the_Republic', 'http://dbpedia.org/resource/Day_of_the_founding_of_the_German_Empire', 'http://dbpedia.org/resource/Day_of_the_German-speaking_Community_of_Belgium', 'http://dbpedia.org/resource/Day_of_the_German-speaking_Community', 'http://dbpedia.org/resource/Day_of_the_Little_Candles', 'http://dbpedia.org/resource/Day_of_the_National_Flag_(Ukraine)', 'http://dbpedia.org/resource/Day_of_the_Shining_Star', 'http://dbpedia.org/resource/Day_of_the_Sun', 'http://dbpedia.org/resource/Day_of_the_Unification_of_the_Romanian_Principalities', 'http://dbpedia.org/resource/Day_of_the_Union_of_Bessarabia_with_Romania', 'http://dbpedia.org/resource/Day_of_the_Walloon_Region', 'http://dbpedia.org/resource/Day_of_the_Young_Combatant', 'http://dbpedia.org/resource/Day_of_Ukrainian_Literature_and_Language', 'http://dbpedia.org/resource/Day_of_Valor', 'http://dbpedia.org/resource/Day_of_Victory_in_the_Great_Fatherland_Liberation_War', 'http://dbpedia.org/resource/Daylight_saving_time_in_Canada', 'http://dbpedia.org/resource/Deepothsavam', 'http://dbpedia.org/resource/Defence_Day', 'http://dbpedia.org/resource/Defender_of_the_Fatherland_Day_(Kazakhstan)', 'http://dbpedia.org/resource/Defender_of_the_Fatherland_Day', 'http://dbpedia.org/resource/Defender_of_the_Motherland_Day', 'http://dbpedia.org/resource/Defenders_Day_(Maryland)', 'http://dbpedia.org/resource/Defenders_Day_(Ukraine)', 'http://dbpedia.org/resource/Dehwa_Daimana', 'http://dbpedia.org/resource/Dehwa_Hanina', 'http://dbpedia.org/resource/Dehwa_Rabba', 'http://dbpedia.org/resource/Democracy_and_National_Unity_Day', 'http://dbpedia.org/resource/Dev_Deepawali_(Varanasi)', 'http://dbpedia.org/resource/Dhammachakra_Pravartan_Din', 'http://dbpedia.org/resource/Dhanteras', 'http://dbpedia.org/resource/Dhanu_jatra', 'http://dbpedia.org/resource/Dhodha', 'http://dbpedia.org/resource/Día_de_la_Altagracia', 'http://dbpedia.org/resource/Día_Mundial_de_Ponce', 'http://dbpedia.org/resource/Día_Nacional_de_Galicia', 'http://dbpedia.org/resource/Días_Patrios_(Guatemala)', 'http://dbpedia.org/resource/Dinagyang', 'http://dbpedia.org/resource/Dinamulag_Festival', 'http://dbpedia.org/resource/Disabled_Access_Day', 'http://dbpedia.org/resource/Distaff_Day', 'http://dbpedia.org/resource/Dita_e_Verës', 'http://dbpedia.org/resource/Diwali_(Jainism)', 'http://dbpedia.org/resource/Diwali', 'http://dbpedia.org/resource/DNA_Day', 'http://dbpedia.org/resource/Dobruja_Day', 'http://dbpedia.org/resource/Dongzhi_Festival', 'http://dbpedia.org/resource/Dormition_of_the_Mother_of_God', 'http://dbpedia.org/resource/Dosmoche', 'http://dbpedia.org/resource/Double_Sixth_Festival', 'http://dbpedia.org/resource/Double_Third_Festival', 'http://dbpedia.org/resource/Downfall_of_the_Derg_(holiday)', 'http://dbpedia.org/resource/Dożynki', 'http://dbpedia.org/resource/Dragon_Boat_Festival', 'http://dbpedia.org/resource/Drupka_Teshi', 'http://dbpedia.org/resource/Duanwu_Festival', 'http://dbpedia.org/resource/Duha', 'http://dbpedia.org/resource/Dundee_Fortnight', 'http://dbpedia.org/resource/Durga_Puja', 'http://dbpedia.org/resource/Durgapur_Free_Day', 'http://dbpedia.org/resource/Dziady', 'http://dbpedia.org/resource/Earth_Day', 'http://dbpedia.org/resource/Earth_Hour', 'http://dbpedia.org/resource/Easter', 'http://dbpedia.org/resource/Economics_of_Christmas', 'http://dbpedia.org/resource/Eid_al-Adha', 'http://dbpedia.org/resource/Eid_al-Fitr', 'http://dbpedia.org/resource/Eid_al-Ghadir', 'http://dbpedia.org/resource/Eid_il-Burbara', 'http://dbpedia.org/resource/Eid_prayers', 'http://dbpedia.org/resource/El_Buen_Fin', 'http://dbpedia.org/resource/Ely_Eel_Day', 'http://dbpedia.org/resource/Emergency_Services_Day_(United_Kingdom)', 'http://dbpedia.org/resource/Employee_Appreciation_Day', 'http://dbpedia.org/resource/Enkutatash', 'http://dbpedia.org/resource/Epiphany_(Christian)', 'http://dbpedia.org/resource/Epiphany_(holiday)', 'http://dbpedia.org/resource/Epiphanytide', 'http://dbpedia.org/resource/Errol_Barrow_Day', 'http://dbpedia.org/resource/Erzya_Language_Day', 'http://dbpedia.org/resource/Ethiopian_Christmas', "http://dbpedia.org/resource/Ethiopian_Patriots'_Victory_Day", 'http://dbpedia.org/resource/Ettu_Nombu', 'http://dbpedia.org/resource/Europe_Day', 'http://dbpedia.org/resource/European_Day_of_the_Righteous', 'http://dbpedia.org/resource/Evacuation_Day_(Massachusetts)', 'http://dbpedia.org/resource/Evacuation_Day_(New_York)', 'http://dbpedia.org/resource/Evacuation_Day_(Syria)', 'http://dbpedia.org/resource/Evelio_Javier_Day', 'http://dbpedia.org/resource/Evolution_Day', 'http://dbpedia.org/resource/Execution_of_the_Báb', 'http://dbpedia.org/resource/Fajr_nafl_prayer', 'http://dbpedia.org/resource/Fajr_prayer', 'http://dbpedia.org/resource/Falklands_Day', 'http://dbpedia.org/resource/Family_Day_(Canada)', "http://dbpedia.org/resource/Farmers'_Day", 'http://dbpedia.org/resource/Fast_of_Esther', 'http://dbpedia.org/resource/Fast_of_Gedalia', 'http://dbpedia.org/resource/Fast_of_Nineveh', 'http://dbpedia.org/resource/Fast_of_the_Firstborn', 'http://dbpedia.org/resource/Father–Daughter_Day', "http://dbpedia.org/resource/Father's_Day_(United_States)", "http://dbpedia.org/resource/Father's_Day", 'http://dbpedia.org/resource/Fatimiyya', 'http://dbpedia.org/resource/Feast_of_Ezid', 'http://dbpedia.org/resource/Feast_of_Saint_George_(Palestine)', 'http://dbpedia.org/resource/Feast_of_Saints_Francis_and_Catherine', 'http://dbpedia.org/resource/Feast_of_Saints_Peter_and_Paul', 'http://dbpedia.org/resource/Feast_of_the_Annunciation', 'http://dbpedia.org/resource/Feast_of_the_Ass', 'http://dbpedia.org/resource/Feast_of_the_Assembly', 'http://dbpedia.org/resource/Feast_of_the_Black_Nazarene', 'http://dbpedia.org/resource/Feast_of_the_Great_Shishlam', 'http://dbpedia.org/resource/Feast_of_the_Immaculate_Conception', 'http://dbpedia.org/resource/Federal_Day_of_Thanksgiving,_Repentance_and_Prayer', 'http://dbpedia.org/resource/Federal_holidays_in_the_United_States', 'http://dbpedia.org/resource/Federal_Territory_Day', 'http://dbpedia.org/resource/Feralia', 'http://dbpedia.org/resource/Feria_de_Artesanías_de_Ponce', 'http://dbpedia.org/resource/Feriae_Latinae', 'http://dbpedia.org/resource/Ferragosto', 'http://dbpedia.org/resource/Festa_de_São_João_do_Porto', 'http://dbpedia.org/resource/Festa_della_Repubblica', 'http://dbpedia.org/resource/Festival_de_Bomba_y_Plena_de_San_Antón', 'http://dbpedia.org/resource/Festival_Folclórico_y_Reinado_Nacional_del_Bambuco', 'http://dbpedia.org/resource/Festival_Nacional_Afrocaribeño', 'http://dbpedia.org/resource/Festival_Nacional_de_la_Quenepa', 'http://dbpedia.org/resource/Festival_of_Lights_(Lyon)', 'http://dbpedia.org/resource/Festival_of_Perun', 'http://dbpedia.org/resource/Festival_of_Veles', 'http://dbpedia.org/resource/Festivus', 'http://dbpedia.org/resource/Festum_Ovorum', 'http://dbpedia.org/resource/Fiesta_Nacional_de_la_Danza', 'http://dbpedia.org/resource/Fiestas_de_Santa_Fe', 'http://dbpedia.org/resource/Fiestas_del_Pilar', 'http://dbpedia.org/resource/Fiestas_Patrias_(Chile)', 'http://dbpedia.org/resource/Fiestas_Patrias_(Peru)', 'http://dbpedia.org/resource/Fiestas_patronales_de_Ponce', 'http://dbpedia.org/resource/Fiji_Week', 'http://dbpedia.org/resource/Filipino_American_History_Month', 'http://dbpedia.org/resource/Filipino_Heritage_Month', 'http://dbpedia.org/resource/Filseta', 'http://dbpedia.org/resource/Finnish_Swedish_Heritage_Day', 'http://dbpedia.org/resource/First_day_of_summer_(Iceland)', 'http://dbpedia.org/resource/First_National_Government', 'http://dbpedia.org/resource/Flag_Day_(Albania)', 'http://dbpedia.org/resource/Flag_Day_(Argentina)', 'http://dbpedia.org/resource/Flag_Day_(Australia)', 'http://dbpedia.org/resource/Flag_Day_(United_Arab_Emirates)', 'http://dbpedia.org/resource/Flag_Day_(United_States)', 'http://dbpedia.org/resource/Flag_Day_in_Mexico', 'http://dbpedia.org/resource/Floralia', 'http://dbpedia.org/resource/Fordicidia', 'http://dbpedia.org/resource/Fossil_Fools_Day', 'http://dbpedia.org/resource/Fössta_tossdan_i_mass', "http://dbpedia.org/resource/Founders'_Day_(Ghana)", 'http://dbpedia.org/resource/Frankenstein_Day', 'http://dbpedia.org/resource/Fraternal_Day', 'http://dbpedia.org/resource/Freedom_and_Democracy_Day', 'http://dbpedia.org/resource/Freedom_Day_(Belarus)', 'http://dbpedia.org/resource/Freedom_Day_(Malta)', 'http://dbpedia.org/resource/Freedom_Day_(South_Africa)', 'http://dbpedia.org/resource/French_Community_Holiday', 'http://dbpedia.org/resource/Friendship_Day', 'http://dbpedia.org/resource/Fukagawa_Matsuri', 'http://dbpedia.org/resource/Funeral_prayer_(Islam)', 'http://dbpedia.org/resource/Gaan-Ngai', 'http://dbpedia.org/resource/Gaecheonjeol', 'http://dbpedia.org/resource/Gai_Jatra', 'http://dbpedia.org/resource/Gajan_(festival)', 'http://dbpedia.org/resource/Galdan_Namchot', 'http://dbpedia.org/resource/Galician_Literature_Day', 'http://dbpedia.org/resource/Galungan', 'http://dbpedia.org/resource/Gandhi_Jayanti', 'http://dbpedia.org/resource/Ganesh_Chaturthi', 'http://dbpedia.org/resource/Ganesh_Jayanti', 'http://dbpedia.org/resource/Ganga_Dussehra', 'http://dbpedia.org/resource/Ganga_puja', 'http://dbpedia.org/resource/Gangamma_Jatara', 'http://dbpedia.org/resource/Gangaur', 'http://dbpedia.org/resource/Garifuna_Settlement_Day', 'http://dbpedia.org/resource/Gasparilla_Pirate_Festival', 'http://dbpedia.org/resource/Gaudete_Sunday', 'http://dbpedia.org/resource/Gaura_(festival)', 'http://dbpedia.org/resource/Gawai_Dayak', 'http://dbpedia.org/resource/Geek_Pride_Day', 'http://dbpedia.org/resource/General_Pulaski_Memorial_Day', "http://dbpedia.org/resource/George's_Day_in_Autumn", "http://dbpedia.org/resource/George's_Day_in_Spring", 'http://dbpedia.org/resource/Georgia_Day', 'http://dbpedia.org/resource/German_Unity_Day', 'http://dbpedia.org/resource/German-American_Day', 'http://dbpedia.org/resource/Ghanta_Karna', 'http://dbpedia.org/resource/Ghost_Festival', 'http://dbpedia.org/resource/Giant_Lantern_Festival', 'http://dbpedia.org/resource/Gibraltar_National_Day', 'http://dbpedia.org/resource/Gifaata', 'http://dbpedia.org/resource/Gilgit-Baltistan_Independence_Day', 'http://dbpedia.org/resource/Gion_Matsuri', 'http://dbpedia.org/resource/Giving_Tuesday', 'http://dbpedia.org/resource/GivingTuesday', 'http://dbpedia.org/resource/Glasgow_Fair', 'http://dbpedia.org/resource/Global_Accessibility_Awareness_Day', 'http://dbpedia.org/resource/Global_Day_of_Action_on_Military_Spending', 'http://dbpedia.org/resource/Global_Handwashing_Day', 'http://dbpedia.org/resource/Global_Information_Governance_Day', 'http://dbpedia.org/resource/Global_Money_Week', 'http://dbpedia.org/resource/Global_Running_Day', 'http://dbpedia.org/resource/Global_Wind_Day', 'http://dbpedia.org/resource/Goa_Liberation_Day', 'http://dbpedia.org/resource/Golden_Week_(Japan)', 'http://dbpedia.org/resource/Golu', 'http://dbpedia.org/resource/Good_Friday', 'http://dbpedia.org/resource/Good_Governance_Day', 'http://dbpedia.org/resource/Gopastami', 'http://dbpedia.org/resource/Govatsa_Dwadashi', 'http://dbpedia.org/resource/Gowri_Habba', "http://dbpedia.org/resource/Grand_Duke's_Official_Birthday", "http://dbpedia.org/resource/Grandparents'_Day", 'http://dbpedia.org/resource/Great_Union_Day', 'http://dbpedia.org/resource/Green_Monday', 'http://dbpedia.org/resource/Green_week', 'http://dbpedia.org/resource/Greenery_Day', 'http://dbpedia.org/resource/Groundhog_Day', 'http://dbpedia.org/resource/Guam_Discovery_Day', 'http://dbpedia.org/resource/Guanacaste_Day', 'http://dbpedia.org/resource/Gudi_Padwa', 'http://dbpedia.org/resource/Gunla', 'http://dbpedia.org/resource/Guru_Nanak_Gurpurab', 'http://dbpedia.org/resource/Guru_Purnima', 'http://dbpedia.org/resource/Gustavus_Adolphus_Day', 'http://dbpedia.org/resource/Gustor_Festival', 'http://dbpedia.org/resource/Hadaka_Matsuri', 'http://dbpedia.org/resource/Haitian_Heritage_Month', 'http://dbpedia.org/resource/Hakata_Dontaku', 'http://dbpedia.org/resource/Hakata_Gion_Yamakasa', 'http://dbpedia.org/resource/Halloween', 'http://dbpedia.org/resource/Handsel_Monday', 'http://dbpedia.org/resource/Hangul_Day', 'http://dbpedia.org/resource/Hanukkah', 'http://dbpedia.org/resource/Hanuman_Jayanti', 'http://dbpedia.org/resource/Harela_Mela', 'http://dbpedia.org/resource/Harriet_Tubman_Day', 'http://dbpedia.org/resource/Harvey_Milk_Day', 'http://dbpedia.org/resource/Haya_Day', 'http://dbpedia.org/resource/Heikru_Hidongba', 'http://dbpedia.org/resource/Helen_Keller_Day', 'http://dbpedia.org/resource/Heritage_Day_(South_Africa)', "http://dbpedia.org/resource/Heroes'_Day_(Namibia)", "http://dbpedia.org/resource/Heroes'_Day", 'http://dbpedia.org/resource/Herzl_Day', 'http://dbpedia.org/resource/Higalaay_Festival', 'http://dbpedia.org/resource/Higantes_Festival', 'http://dbpedia.org/resource/Hilaria', 'http://dbpedia.org/resource/Hillbilly_Days', 'http://dbpedia.org/resource/Hiloula_of_Rabbi_Haim_Pinto', 'http://dbpedia.org/resource/Hinamatsuri', 'http://dbpedia.org/resource/Hindi_Day', 'http://dbpedia.org/resource/History_of_lysergic_acid_diethylamide', 'http://dbpedia.org/resource/Hizb_Rateb', 'http://dbpedia.org/resource/Hıdırellez', 'http://dbpedia.org/resource/Hobiyee', 'http://dbpedia.org/resource/Hogmanay', 'http://dbpedia.org/resource/Hola_Mohalla', 'http://dbpedia.org/resource/Holi', 'http://dbpedia.org/resource/Holidays_with_paid_time_off_in_the_United_States', 'http://dbpedia.org/resource/Holika_Dahan', 'http://dbpedia.org/resource/Holy_Saturday', 'http://dbpedia.org/resource/Holy_Week_in_Ruvo_di_Puglia', 'http://dbpedia.org/resource/Hōnensai', 'http://dbpedia.org/resource/Honey_Feast_of_the_Saviour', 'http://dbpedia.org/resource/Hong_Kong_Foundation_Day', 'http://dbpedia.org/resource/Hong_Kong_Special_Administrative_Region_Establishment_Day', 'http://dbpedia.org/resource/Honor_America_Days', 'http://dbpedia.org/resource/Hop-tu-Naa', 'http://dbpedia.org/resource/Hosay', 'http://dbpedia.org/resource/Human_Rights_Day', 'http://dbpedia.org/resource/HumanLight', "http://dbpedia.org/resource/Hùng_Kings'_Festival", 'http://dbpedia.org/resource/Hyderabad-Karnataka_Liberation_Day', 'http://dbpedia.org/resource/Icelandic_National_Day', 'http://dbpedia.org/resource/Imbolc', 'http://dbpedia.org/resource/Imoinu_Iratpa', 'http://dbpedia.org/resource/In_town,_without_my_car!', 'http://dbpedia.org/resource/Independence_and_Unity_Day_(Slovenia)', 'http://dbpedia.org/resource/Independence_Day_(Abkhazia)', 'http://dbpedia.org/resource/Independence_Day_(Algeria)', 'http://dbpedia.org/resource/Independence_Day_(Armenia)', 'http://dbpedia.org/resource/Independence_Day_(Bahrain)', 'http://dbpedia.org/resource/Independence_Day_(Bangladesh)', 'http://dbpedia.org/resource/Independence_Day_(Belarus)', 'http://dbpedia.org/resource/Independence_Day_(Bosnia_and_Herzegovina)', 'http://dbpedia.org/resource/Independence_Day_(Botswana)', 'http://dbpedia.org/resource/Independence_Day_(Brazil)', 'http://dbpedia.org/resource/Independence_Day_(Croatia)', 'http://dbpedia.org/resource/Independence_Day_(Cyprus)', 'http://dbpedia.org/resource/Independence_Day_(Djibouti)', 'http://dbpedia.org/resource/Independence_Day_(Eritrea)', 'http://dbpedia.org/resource/Independence_Day_(Estonia)', 'http://dbpedia.org/resource/Independence_Day_(Finland)', 'http://dbpedia.org/resource/Independence_Day_(Georgia)', 'http://dbpedia.org/resource/Independence_Day_(Ghana)', 'http://dbpedia.org/resource/Independence_Day_(Grenada)', 'http://dbpedia.org/resource/Independence_Day_(Hawaii)', 'http://dbpedia.org/resource/Independence_Day_(India)', 'http://dbpedia.org/resource/Independence_Day_(Indonesia)', 'http://dbpedia.org/resource/Independence_Day_(Jamaica)', 'http://dbpedia.org/resource/Independence_Day_(Jordan)', 'http://dbpedia.org/resource/Independence_Day_(Kazakhstan)', 'http://dbpedia.org/resource/Independence_Day_(Kyrgyzstan)', 'http://dbpedia.org/resource/Independence_Day_(Malaysia)', 'http://dbpedia.org/resource/Independence_Day_(Malta)', 'http://dbpedia.org/resource/Independence_Day_(Myanmar)', 'http://dbpedia.org/resource/Independence_Day_(Niger)', 'http://dbpedia.org/resource/Independence_Day_(North_Macedonia)', 'http://dbpedia.org/resource/Independence_Day_(Pakistan)', 'http://dbpedia.org/resource/Independence_Day_(Philippines)', 'http://dbpedia.org/resource/Independence_Day_(Somalia)', 'http://dbpedia.org/resource/Independence_Day_(Somaliland)', 'http://dbpedia.org/resource/Independence_Day_(South_Ossetia)', 'http://dbpedia.org/resource/Independence_Day_(Sri_Lanka)', 'http://dbpedia.org/resource/Independence_Day_(State_of_Somaliland)', 'http://dbpedia.org/resource/Independence_Day_(Tajikistan)', 'http://dbpedia.org/resource/Independence_Day_(Turkmenistan)', 'http://dbpedia.org/resource/Independence_Day_(Uganda)', 'http://dbpedia.org/resource/Independence_Day_(United_States)', 'http://dbpedia.org/resource/Independence_Day_(Uzbekistan)', 'http://dbpedia.org/resource/Independence_Day_of_Cambodia', 'http://dbpedia.or</t>
+        </is>
+      </c>
+      <c r="D53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Which Greek parties are pro-European?</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Democratic_Alignment_(2015)', 'http://dbpedia.org/resource/Movement_of_Democratic_Socialists', 'http://dbpedia.org/resource/Movement_of_Free_Citizens_(Greece)', 'http://dbpedia.org/resource/PASOK_–_Movement_for_Change', 'http://dbpedia.org/resource/PASOK', 'http://dbpedia.org/resource/Radical_Movement_of_Social_Democratic_Alliance']</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Democratic_Alignment_(2015)', 'http://dbpedia.org/resource/Movement_of_Democratic_Socialists', 'http://dbpedia.org/resource/Movement_of_Free_Citizens_(Greece)', 'http://dbpedia.org/resource/PASOK_–_Movement_for_Change', 'http://dbpedia.org/resource/PASOK', 'http://dbpedia.org/resource/Radical_Movement_of_Social_Democratic_Alliance']</t>
+        </is>
+      </c>
+      <c r="D54" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Give me the birthdays of all actors of the television show Charmed.</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>['1965-10-01', '1968-07-27', '1969-02-01', '1971-01-26', '1971-04-12', '1972-12-19', '1973-06-15', '1973-09-05', '1973-12-03', '1980-05-19', '1985-11-30']</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>['1965-10-01', '1968-07-27', '1969-02-01', '1971-01-26', '1971-04-12', '1972-12-19', '1973-06-15', '1973-09-05', '1973-12-03', '1980-05-19', '1985-11-30']</t>
+        </is>
+      </c>
+      <c r="D55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>To which artistic movement did the painter of The Three Dancers belong?</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Cubism', 'http://dbpedia.org/resource/Surrealism']</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Cubism', 'http://dbpedia.org/resource/Surrealism']</t>
+        </is>
+      </c>
+      <c r="D56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Who designed the Brooklyn Bridge?</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/John_Augustus_Roebling']</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/John_Augustus_Roebling']</t>
+        </is>
+      </c>
+      <c r="D57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Who wrote the Game of Thrones theme?</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Ramin_Djawadi']</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Ramin_Djawadi']</t>
+        </is>
+      </c>
+      <c r="D58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Give me all movies directed by Francis Ford Coppola.</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Apocalypse_Now_Redux', 'http://dbpedia.org/resource/Battle_Beyond_the_Sun', "http://dbpedia.org/resource/Bram_Stoker's_Dracula_(1992_film)", 'http://dbpedia.org/resource/Captain_EO', 'http://dbpedia.org/resource/Dementia_13', 'http://dbpedia.org/resource/Distant_Vision', "http://dbpedia.org/resource/Finian's_Rainbow_(1968_film)", 'http://dbpedia.org/resource/Gardens_of_Stone', 'http://dbpedia.org/resource/Jack_(1996_film)', 'http://dbpedia.org/resource/Megalopolis_(film)', 'http://dbpedia.org/resource/New_York_Stories', 'http://dbpedia.org/resource/One_from_the_Heart', 'http://dbpedia.org/resource/Peggy_Sue_Got_Married', 'http://dbpedia.org/resource/Rumble_Fish', 'http://dbpedia.org/resource/Supernova_(2000_film)', 'http://dbpedia.org/resource/Tetro', 'http://dbpedia.org/resource/The_Bellboy_and_the_Playgirls', 'http://dbpedia.org/resource/The_Conversation', 'http://dbpedia.org/resource/The_Cotton_Club_(film)', 'http://dbpedia.org/resource/The_Godfather_(film_series)', 'http://dbpedia.org/resource/The_Godfather_Part_II', 'http://dbpedia.org/resource/The_Godfather_Part_III', 'http://dbpedia.org/resource/The_Godfather_Saga__The_Godfather_Trilogy:_1901–1980__1', 'http://dbpedia.org/resource/The_Godfather', 'http://dbpedia.org/resource/The_Outsiders_(film)', 'http://dbpedia.org/resource/The_Rain_People', 'http://dbpedia.org/resource/The_Rainmaker_(1997_film)', 'http://dbpedia.org/resource/The_Terror_(1963_film)', 'http://dbpedia.org/resource/Tonight_for_Sure', 'http://dbpedia.org/resource/Tucker:_The_Man_and_His_Dream', 'http://dbpedia.org/resource/Twixt_(film)', "http://dbpedia.org/resource/You're_a_Big_Boy_Now", 'http://dbpedia.org/resource/Youth_Without_Youth_(film)']</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Apocalypse_Now_Redux', 'http://dbpedia.org/resource/Battle_Beyond_the_Sun', "http://dbpedia.org/resource/Bram_Stoker's_Dracula_(1992_film)", 'http://dbpedia.org/resource/Captain_EO', 'http://dbpedia.org/resource/Dementia_13', 'http://dbpedia.org/resource/Distant_Vision', "http://dbpedia.org/resource/Finian's_Rainbow_(1968_film)", 'http://dbpedia.org/resource/Gardens_of_Stone', 'http://dbpedia.org/resource/Jack_(1996_film)', 'http://dbpedia.org/resource/Megalopolis_(film)', 'http://dbpedia.org/resource/New_York_Stories', 'http://dbpedia.org/resource/One_from_the_Heart', 'http://dbpedia.org/resource/Peggy_Sue_Got_Married', 'http://dbpedia.org/resource/Rumble_Fish', 'http://dbpedia.org/resource/Supernova_(2000_film)', 'http://dbpedia.org/resource/Tetro', 'http://dbpedia.org/resource/The_Bellboy_and_the_Playgirls', 'http://dbpedia.org/resource/The_Conversation', 'http://dbpedia.org/resource/The_Cotton_Club_(film)', 'http://dbpedia.org/resource/The_Godfather_(film_series)', 'http://dbpedia.org/resource/The_Godfather_Part_II', 'http://dbpedia.org/resource/The_Godfather_Part_III', 'http://dbpedia.org/resource/The_Godfather_Saga__The_Godfather_Trilogy:_1901–1980__1', 'http://dbpedia.org/resource/The_Godfather', 'http://dbpedia.org/resource/The_Outsiders_(film)', 'http://dbpedia.org/resource/The_Rain_People', 'http://dbpedia.org/resource/The_Rainmaker_(1997_film)', 'http://dbpedia.org/resource/The_Terror_(1963_film)', 'http://dbpedia.org/resource/Tonight_for_Sure', 'http://dbpedia.org/resource/Tucker:_The_Man_and_His_Dream', 'http://dbpedia.org/resource/Twixt_(film)', "http://dbpedia.org/resource/You're_a_Big_Boy_Now", 'http://dbpedia.org/resource/Youth_Without_Youth_(film)']</t>
+        </is>
+      </c>
+      <c r="D59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>What is the birth name of Adele?</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>['Adele Laurie Blue Adkins']</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>['Adele Laurie Blue Adkins']</t>
+        </is>
+      </c>
+      <c r="D60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>What is the currency of the Czech Republic?</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Czech_koruna']</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Czech_koruna']</t>
+        </is>
+      </c>
+      <c r="D61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Which bridges cross the Seine?</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Passerelle_Debilly', 'http://dbpedia.org/resource/Passerelle_Simone-de-Beauvoir', 'http://dbpedia.org/resource/Pont_Alexandre_III', 'http://dbpedia.org/resource/Pont_amont', 'http://dbpedia.org/resource/Pont_au_Change', 'http://dbpedia.org/resource/Pont_au_Double', 'http://dbpedia.org/resource/Pont_aval', 'http://dbpedia.org/resource/Pont_Charles-de-Gaulle', "http://dbpedia.org/resource/Pont_d'Austerlitz", "http://dbpedia.org/resource/Pont_d'Iéna", 'http://dbpedia.org/resource/Pont_de_Bercy', 'http://dbpedia.org/resource/Pont_de_Bir-Hakeim', 'http://dbpedia.org/resource/Pont_de_Brotonne', 'http://dbpedia.org/resource/Pont_de_Grenelle', "http://dbpedia.org/resource/Pont_de_l'Alma", "http://dbpedia.org/resource/Pont_de_l'Archevêché", 'http://dbpedia.org/resource/Pont_de_la_Concorde_(Paris)', 'http://dbpedia.org/resource/Pont_de_la_Tournelle', 'http://dbpedia.org/resource/Pont_de_Neuilly', 'http://dbpedia.org/resource/Pont_de_Normandie', 'http://dbpedia.org/resource/Pont_de_Sully', 'http://dbpedia.org/resource/Pont_de_Tolbiac', 'http://dbpedia.org/resource/Pont_des_Invalides', 'http://dbpedia.org/resource/Pont_du_Carrousel', 'http://dbpedia.org/resource/Pont_du_Garigliano', 'http://dbpedia.org/resource/Pont_Gustave-Flaubert', 'http://dbpedia.org/resource/Pont_Louis-Philippe', 'http://dbpedia.org/resource/Pont_Marie', 'http://dbpedia.org/resource/Pont_National', 'http://dbpedia.org/resource/Pont_Neuf', 'http://dbpedia.org/resource/Pont_Notre-Dame', 'http://dbpedia.org/resource/Pont_Rouelle', 'http://dbpedia.org/resource/Pont_Royal', "http://dbpedia.org/resource/Port_à_l'Anglais_Bridge", "http://dbpedia.org/resource/Viaduc_d'Austerlitz"]</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Passerelle_Debilly', 'http://dbpedia.org/resource/Passerelle_Simone-de-Beauvoir', 'http://dbpedia.org/resource/Pont_Alexandre_III', 'http://dbpedia.org/resource/Pont_amont', 'http://dbpedia.org/resource/Pont_au_Change', 'http://dbpedia.org/resource/Pont_au_Double', 'http://dbpedia.org/resource/Pont_aval', 'http://dbpedia.org/resource/Pont_Charles-de-Gaulle', "http://dbpedia.org/resource/Pont_d'Austerlitz", "http://dbpedia.org/resource/Pont_d'Iéna", 'http://dbpedia.org/resource/Pont_de_Bercy', 'http://dbpedia.org/resource/Pont_de_Bir-Hakeim', 'http://dbpedia.org/resource/Pont_de_Brotonne', 'http://dbpedia.org/resource/Pont_de_Grenelle', "http://dbpedia.org/resource/Pont_de_l'Alma", "http://dbpedia.org/resource/Pont_de_l'Archevêché", 'http://dbpedia.org/resource/Pont_de_la_Concorde_(Paris)', 'http://dbpedia.org/resource/Pont_de_la_Tournelle', 'http://dbpedia.org/resource/Pont_de_Neuilly', 'http://dbpedia.org/resource/Pont_de_Normandie', 'http://dbpedia.org/resource/Pont_de_Sully', 'http://dbpedia.org/resource/Pont_de_Tolbiac', 'http://dbpedia.org/resource/Pont_des_Invalides', 'http://dbpedia.org/resource/Pont_du_Carrousel', 'http://dbpedia.org/resource/Pont_du_Garigliano', 'http://dbpedia.org/resource/Pont_Gustave-Flaubert', 'http://dbpedia.org/resource/Pont_Louis-Philippe', 'http://dbpedia.org/resource/Pont_Marie', 'http://dbpedia.org/resource/Pont_National', 'http://dbpedia.org/resource/Pont_Neuf', 'http://dbpedia.org/resource/Pont_Notre-Dame', 'http://dbpedia.org/resource/Pont_Rouelle', 'http://dbpedia.org/resource/Pont_Royal', "http://dbpedia.org/resource/Port_à_l'Anglais_Bridge", "http://dbpedia.org/resource/Viaduc_d'Austerlitz"]</t>
+        </is>
+      </c>
+      <c r="D62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Which musician wrote the most books?</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Cass_Browne']</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Julius_Lester']</t>
+        </is>
+      </c>
+      <c r="D63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Give me a list of all bandleaders that play trumpet.</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Abatte_Barihun', 'http://dbpedia.org/resource/Alan_Silva', 'http://dbpedia.org/resource/Artie_Fields', 'http://dbpedia.org/resource/Charlie_Spivak', 'http://dbpedia.org/resource/Danny_Davis_(country_musician)', 'http://dbpedia.org/resource/Doc_Cheatham', 'http://dbpedia.org/resource/Ernest_%22Doc%22_Paulin', 'http://dbpedia.org/resource/Jack_Jackson_(radio_personality)', 'http://dbpedia.org/resource/Jacobo_Rubalcaba', 'http://dbpedia.org/resource/Jimmy_Dorsey', 'http://dbpedia.org/resource/Kaj_Backlund', 'http://dbpedia.org/resource/Lloyd_Hunter', 'http://dbpedia.org/resource/Marlon_Jordan', 'http://dbpedia.org/resource/Mick_Mulligan', 'http://dbpedia.org/resource/Ollie_Mitchell', 'http://dbpedia.org/resource/Ovie_Alston', 'http://dbpedia.org/resource/Pacho_Galan', 'http://dbpedia.org/resource/Red_Perkins', 'http://dbpedia.org/resource/Richard_Maltby_Sr.', 'http://dbpedia.org/resource/Steamboat_Willie_(musician)']</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Abatte_Barihun', 'http://dbpedia.org/resource/Alan_Silva', 'http://dbpedia.org/resource/Artie_Fields', 'http://dbpedia.org/resource/Charlie_Spivak', 'http://dbpedia.org/resource/Danny_Davis_(country_musician)', 'http://dbpedia.org/resource/Doc_Cheatham', 'http://dbpedia.org/resource/Ernest_%22Doc%22_Paulin', 'http://dbpedia.org/resource/Jack_Jackson_(radio_personality)', 'http://dbpedia.org/resource/Jacobo_Rubalcaba', 'http://dbpedia.org/resource/Jimmy_Dorsey', 'http://dbpedia.org/resource/Kaj_Backlund', 'http://dbpedia.org/resource/Lloyd_Hunter', 'http://dbpedia.org/resource/Marlon_Jordan', 'http://dbpedia.org/resource/Mick_Mulligan', 'http://dbpedia.org/resource/Ollie_Mitchell', 'http://dbpedia.org/resource/Ovie_Alston', 'http://dbpedia.org/resource/Pacho_Galan', 'http://dbpedia.org/resource/Red_Perkins', 'http://dbpedia.org/resource/Richard_Maltby_Sr.', 'http://dbpedia.org/resource/Steamboat_Willie_(musician)']</t>
+        </is>
+      </c>
+      <c r="D64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>In which films did Julia Roberts as well as Richard Gere play?</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Pretty_Woman', 'http://dbpedia.org/resource/Runaway_Bride_(film)']</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Pretty_Woman', 'http://dbpedia.org/resource/Runaway_Bride_(film)']</t>
+        </is>
+      </c>
+      <c r="D65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>What is the capital of Cameroon?</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Yaoundé']</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Yaoundé']</t>
+        </is>
+      </c>
+      <c r="D66" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>How many programming languages are there?</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>['1325']</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>['1325']</t>
+        </is>
+      </c>
+      <c r="D67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Who created Family Guy?</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Seth_MacFarlane']</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Seth_MacFarlane']</t>
+        </is>
+      </c>
+      <c r="D68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>How much is the population of mexico city ?</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>['9209944']</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>['9209944']</t>
+        </is>
+      </c>
+      <c r="D69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Who created Batman?</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Bill_Finger', 'http://dbpedia.org/resource/Bob_Kane']</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/Bill_Finger', 'http://dbpedia.org/resource/Bob_Kane']</t>
+        </is>
+      </c>
+      <c r="D70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>How many people live in the capital of Australia?</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>['453558']</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>['453558']</t>
+        </is>
+      </c>
+      <c r="D71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>how big is the total area of North Rhine- Westphalia?</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>['34084130000']</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>['34084130000']</t>
+        </is>
+      </c>
+      <c r="D72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>How many employees does IBM have?</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>['282100']</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>['282100']</t>
+        </is>
+      </c>
+      <c r="D73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>How much did Pulp Fiction cost?</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>['8.0']</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>['8.0']</t>
+        </is>
+      </c>
+      <c r="D74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Give me all Danish movies.</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/A_Summer_Tale', 'http://dbpedia.org/resource/Afghan_Muscles', 'http://dbpedia.org/resource/After_the_Wedding_(2006_film)', 'http://dbpedia.org/resource/Ai_Weiwei:_The_Fake_Case', 'http://dbpedia.org/resource/Another_Round_(film)', 'http://dbpedia.org/resource/Antichrist_(film)__Antichrist__1', 'http://dbpedia.org/resource/Arn:_The_Knight_Templar', 'http://dbpedia.org/resource/Bag_Københavns_kulisser', 'http://dbpedia.org/resource/Barefoot_(2017_film)', "http://dbpedia.org/resource/Benny's_Bathtub", 'http://dbpedia.org/resource/Bionicle:_Mask_of_Light', 'http://dbpedia.org/resource/Bornholms_stemme', 'http://dbpedia.org/resource/Breaking_the_Waves', 'http://dbpedia.org/resource/Busters_verden', 'http://dbpedia.org/resource/Constance_(film)', 'http://dbpedia.org/resource/Crying_for_Love', 'http://dbpedia.org/resource/De_besejrede_Pebersvende', 'http://dbpedia.org/resource/De_Udstillede', 'http://dbpedia.org/resource/Den_farlige_alder', 'http://dbpedia.org/resource/Den_kulørte_Slavehandler', 'http://dbpedia.org/resource/Der_var_engang_en_vicevært', 'http://dbpedia.org/resource/Ditte,_Child_of_Man', 'http://dbpedia.org/resource/Domino_(2019_film)', 'http://dbpedia.org/resource/Don_Olsen_kommer_til_byen', 'http://dbpedia.org/resource/Driving_with_Greenland_Dogs', 'http://dbpedia.org/resource/Echo_(2007_film)', 'http://dbpedia.org/resource/Eddy_Merckx_in_the_Vicinity_of_a_Cup_of_Coffee', 'http://dbpedia.org/resource/Eksperimentet', 'http://dbpedia.org/resource/En_slem_Dreng', 'http://dbpedia.org/resource/Eye_of_the_Eagle_(1997_film)', 'http://dbpedia.org/resource/Familien_Pille_som_Spejdere', 'http://dbpedia.org/resource/Family_Matters_(film)', 'http://dbpedia.org/resource/Farlig_Ungdom', 'http://dbpedia.org/resource/Fidibus', 'http://dbpedia.org/resource/Five_Get_into_Trouble_(film)', 'http://dbpedia.org/resource/Flee_(film)', 'http://dbpedia.org/resource/Flickering_Lights', 'http://dbpedia.org/resource/Frække_Frida_og_de_frygtløse_spioner', 'http://dbpedia.org/resource/Frk._Møllers_jubilæum', 'http://dbpedia.org/resource/Frode_og_alle_de_andre_rødder__Frode_og_alle_de_andre_rødder__1', "http://dbpedia.org/resource/Gasolin'_(film)", 'http://dbpedia.org/resource/Ghost_Train_International', 'http://dbpedia.org/resource/Giv_Gud_en_chance_om_søndagen', "http://dbpedia.org/resource/Goutte_d'Or_(film)", "http://dbpedia.org/resource/Help!_I'm_a_Fish", 'http://dbpedia.org/resource/Herberg_for_Hjemløse', 'http://dbpedia.org/resource/His_New_Grey_Trousers', 'http://dbpedia.org/resource/Højt_paa_en_kvist', 'http://dbpedia.org/resource/Holes_in_the_Soup', 'http://dbpedia.org/resource/Human_Remains_(film)', 'http://dbpedia.org/resource/Ikíngut', 'http://dbpedia.org/resource/Jag_är_din_krigare', 'http://dbpedia.org/resource/Jeg_har_elsket_og_levet', 'http://dbpedia.org/resource/Journey_to_Saturn', 'http://dbpedia.org/resource/Kærlighed_og_Mobilisering', "http://dbpedia.org/resource/Karla's_World", 'http://dbpedia.org/resource/Khartoum_Offside', "http://dbpedia.org/resource/Kira's_Reason:_A_Love_Story", 'http://dbpedia.org/resource/Klown_Forever', 'http://dbpedia.org/resource/København,_Kalundborg_og_-_%3F', 'http://dbpedia.org/resource/Koko-di_Koko-da', 'http://dbpedia.org/resource/Kun_en_Tigger', 'http://dbpedia.org/resource/Little_Brother,_Big_Trouble:_A_Christmas_Adventure', 'http://dbpedia.org/resource/Løvejagten', 'http://dbpedia.org/resource/Manslaughter_(2005_film)', 'http://dbpedia.org/resource/Margrete:_Queen_of_the_North', 'http://dbpedia.org/resource/Matador_(Danish_TV_series)', 'http://dbpedia.org/resource/Melody_of_Murder', 'http://dbpedia.org/resource/Minor_Mishaps', 'http://dbpedia.org/resource/Monas_verden', 'http://dbpedia.org/resource/Murderous_Trance', 'http://dbpedia.org/resource/Murk_(film)', 'http://dbpedia.org/resource/Nation_Estate', 'http://dbpedia.org/resource/Next_Stop_Paradise_(1980_film)', 'http://dbpedia.org/resource/Nøddebo_Præstegård_(1934_film)', 'http://dbpedia.org/resource/Nøddebo_Præstegård_(1974_film)', 'http://dbpedia.org/resource/Nordhavets_mænd', 'http://dbpedia.org/resource/Nynne', "http://dbpedia.org/resource/O'_Horten", 'http://dbpedia.org/resource/Pelle_the_Conqueror', 'http://dbpedia.org/resource/Pervert_Park', 'http://dbpedia.org/resource/Princess_(2006_film)', 'http://dbpedia.org/resource/Pusher_(film_series)', 'http://dbpedia.org/resource/Regel_nr._1', 'http://dbpedia.org/resource/Reptilicus', 'http://dbpedia.org/resource/Return_to_Sender_(2004_film)', 'http://dbpedia.org/resource/Samson_&amp;_Sally', 'http://dbpedia.org/resource/Sekstet', 'http://dbpedia.org/resource/Smiling_in_a_War_Zone', 'http://dbpedia.org/resource/Something_Better_to_Come', 'http://dbpedia.org/resource/Songs_from_the_Second_Floor', 'http://dbpedia.org/resource/Sons_of_the_Soil', 'http://dbpedia.org/resource/Speed_Sisters', 'http://dbpedia.org/resource/Speed_Walking', 'http://dbpedia.org/resource/Stealing_Rembrandt', 'http://dbpedia.org/resource/Stjerneskud', 'http://dbpedia.org/resource/Stolen_Spring_(film)', 'http://dbpedia.org/resource/Storm_(2009_film)', 'http://dbpedia.org/resource/Strømer', 'http://dbpedia.org/resource/Sun_over_Denmark', 'http://dbpedia.org/resource/Sunes_familie', 'http://dbpedia.org/resource/Supervoksen', 'http://dbpedia.org/resource/Susanne_(1950_film)', 'http://dbpedia.org/resource/Teddy_Bear_(2012_film)', 'http://dbpedia.org/resource/Terribly_Happy', "http://dbpedia.org/resource/That's_Me,_Too", 'http://dbpedia.org/resource/The_Crimson_Circle_(1960_film)', 'http://dbpedia.org/resource/The_Forbidden_Team', 'http://dbpedia.org/resource/The_House_of_the_Spirits_(film)', 'http://dbpedia.org/resource/The_Inheritance_(2003_film)', "http://dbpedia.org/resource/The_King's_Choice", 'http://dbpedia.org/resource/The_Lego_Ninjago_Movie', 'http://dbpedia.org/resource/The_Mahabharata_(1989_film)', 'http://dbpedia.org/resource/The_Monastery:_Mr._Vig_and_the_Nun', 'http://dbpedia.org/resource/The_Perfect_Human', 'http://dbpedia.org/resource/The_Red_Meadows', 'http://dbpedia.org/resource/The_Thralls', 'http://dbpedia.org/resource/The_Viking_Watch_of_the_Danish_Seaman', 'http://dbpedia.org/resource/The_White_Slave_Trade', 'http://dbpedia.org/resource/Those_Blasted_Kids', 'http://dbpedia.org/resource/Torremolinos_73', 'http://dbpedia.org/resource/Valhalla_(1986_film)', 'http://dbpedia.org/resource/Vildledt_Elskov', "http://dbpedia.org/resource/We_Meet_at_Tove's", 'http://dbpedia.org/resource/Webmaster_(film)', 'http://dbpedia.org/resource/What_No_One_Knows', 'http://dbpedia.org/resource/You_Are_Not_Alone_(film)']</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/A_Summer_Tale', 'http://dbpedia.org/resource/Afghan_Muscles', 'http://dbpedia.org/resource/After_the_Wedding_(2006_film)', 'http://dbpedia.org/resource/Ai_Weiwei:_The_Fake_Case', 'http://dbpedia.org/resource/Another_Round_(film)', 'http://dbpedia.org/resource/Antichrist_(film)__Antichrist__1', 'http://dbpedia.org/resource/Arn:_The_Knight_Templar', 'http://dbpedia.org/resource/Bag_Københavns_kulisser', 'http://dbpedia.org/resource/Barefoot_(2017_film)', "http://dbpedia.org/resource/Benny's_Bathtub", 'http://dbpedia.org/resource/Bionicle:_Mask_of_Light', 'http://dbpedia.org/resource/Bornholms_stemme', 'http://dbpedia.org/resource/Breaking_the_Waves', 'http://dbpedia.org/resource/Busters_verden', 'http://dbpedia.org/resource/Constance_(film)', 'http://dbpedia.org/resource/Crying_for_Love', 'http://dbpedia.org/resource/De_besejrede_Pebersvende', 'http://dbpedia.org/resource/De_Udstillede', 'http://dbpedia.org/resource/Den_farlige_alder', 'http://dbpedia.org/resource/Den_kulørte_Slavehandler', 'http://dbpedia.org/resource/Der_var_engang_en_vicevært', 'http://dbpedia.org/resource/Ditte,_Child_of_Man', 'http://dbpedia.org/resource/Domino_(2019_film)', 'http://dbpedia.org/resource/Don_Olsen_kommer_til_byen', 'http://dbpedia.org/resource/Driving_with_Greenland_Dogs', 'http://dbpedia.org/resource/Echo_(2007_film)', 'http://dbpedia.org/resource/Eddy_Merckx_in_the_Vicinity_of_a_Cup_of_Coffee', 'http://dbpedia.org/resource/Eksperimentet', 'http://dbpedia.org/resource/En_slem_Dreng', 'http://dbpedia.org/resource/Eye_of_the_Eagle_(1997_film)', 'http://dbpedia.org/resource/Familien_Pille_som_Spejdere', 'http://dbpedia.org/resource/Family_Matters_(film)', 'http://dbpedia.org/resource/Farlig_Ungdom', 'http://dbpedia.org/resource/Fidibus', 'http://dbpedia.org/resource/Five_Get_into_Trouble_(film)', 'http://dbpedia.org/resource/Flee_(film)', 'http://dbpedia.org/resource/Flickering_Lights', 'http://dbpedia.org/resource/Frække_Frida_og_de_frygtløse_spioner', 'http://dbpedia.org/resource/Frk._Møllers_jubilæum', 'http://dbpedia.org/resource/Frode_og_alle_de_andre_rødder__Frode_og_alle_de_andre_rødder__1', "http://dbpedia.org/resource/Gasolin'_(film)", 'http://dbpedia.org/resource/Ghost_Train_International', 'http://dbpedia.org/resource/Giv_Gud_en_chance_om_søndagen', "http://dbpedia.org/resource/Goutte_d'Or_(film)", "http://dbpedia.org/resource/Help!_I'm_a_Fish", 'http://dbpedia.org/resource/Herberg_for_Hjemløse', 'http://dbpedia.org/resource/His_New_Grey_Trousers', 'http://dbpedia.org/resource/Højt_paa_en_kvist', 'http://dbpedia.org/resource/Holes_in_the_Soup', 'http://dbpedia.org/resource/Human_Remains_(film)', 'http://dbpedia.org/resource/Ikíngut', 'http://dbpedia.org/resource/Jag_är_din_krigare', 'http://dbpedia.org/resource/Jeg_har_elsket_og_levet', 'http://dbpedia.org/resource/Journey_to_Saturn', 'http://dbpedia.org/resource/Kærlighed_og_Mobilisering', "http://dbpedia.org/resource/Karla's_World", 'http://dbpedia.org/resource/Khartoum_Offside', "http://dbpedia.org/resource/Kira's_Reason:_A_Love_Story", 'http://dbpedia.org/resource/Klown_Forever', 'http://dbpedia.org/resource/København,_Kalundborg_og_-_%3F', 'http://dbpedia.org/resource/Koko-di_Koko-da', 'http://dbpedia.org/resource/Kun_en_Tigger', 'http://dbpedia.org/resource/Little_Brother,_Big_Trouble:_A_Christmas_Adventure', 'http://dbpedia.org/resource/Løvejagten', 'http://dbpedia.org/resource/Manslaughter_(2005_film)', 'http://dbpedia.org/resource/Margrete:_Queen_of_the_North', 'http://dbpedia.org/resource/Matador_(Danish_TV_series)', 'http://dbpedia.org/resource/Melody_of_Murder', 'http://dbpedia.org/resource/Minor_Mishaps', 'http://dbpedia.org/resource/Monas_verden', 'http://dbpedia.org/resource/Murderous_Trance', 'http://dbpedia.org/resource/Murk_(film)', 'http://dbpedia.org/resource/Nation_Estate', 'http://dbpedia.org/resource/Next_Stop_Paradise_(1980_film)', 'http://dbpedia.org/resource/Nøddebo_Præstegård_(1934_film)', 'http://dbpedia.org/resource/Nøddebo_Præstegård_(1974_film)', 'http://dbpedia.org/resource/Nordhavets_mænd', 'http://dbpedia.org/resource/Nynne', "http://dbpedia.org/resource/O'_Horten", 'http://dbpedia.org/resource/Pelle_the_Conqueror', 'http://dbpedia.org/resource/Pervert_Park', 'http://dbpedia.org/resource/Princess_(2006_film)', 'http://dbpedia.org/resource/Pusher_(film_series)', 'http://dbpedia.org/resource/Regel_nr._1', 'http://dbpedia.org/resource/Reptilicus', 'http://dbpedia.org/resource/Return_to_Sender_(2004_film)', 'http://dbpedia.org/resource/Samson_&amp;_Sally', 'http://dbpedia.org/resource/Sekstet', 'http://dbpedia.org/resource/Smiling_in_a_War_Zone', 'http://dbpedia.org/resource/Something_Better_to_Come', 'http://dbpedia.org/resource/Songs_from_the_Second_Floor', 'http://dbpedia.org/resource/Sons_of_the_Soil', 'http://dbpedia.org/resource/Speed_Sisters', 'http://dbpedia.org/resource/Speed_Walking', 'http://dbpedia.org/resource/Stealing_Rembrandt', 'http://dbpedia.org/resource/Stjerneskud', 'http://dbpedia.org/resource/Stolen_Spring_(film)', 'http://dbpedia.org/resource/Storm_(2009_film)', 'http://dbpedia.org/resource/Strømer', 'http://dbpedia.org/resource/Sun_over_Denmark', 'http://dbpedia.org/resource/Sunes_familie', 'http://dbpedia.org/resource/Supervoksen', 'http://dbpedia.org/resource/Susanne_(1950_film)', 'http://dbpedia.org/resource/Teddy_Bear_(2012_film)', 'http://dbpedia.org/resource/Terribly_Happy', "http://dbpedia.org/resource/That's_Me,_Too", 'http://dbpedia.org/resource/The_Crimson_Circle_(1960_film)', 'http://dbpedia.org/resource/The_Forbidden_Team', 'http://dbpedia.org/resource/The_House_of_the_Spirits_(film)', 'http://dbpedia.org/resource/The_Inheritance_(2003_film)', "http://dbpedia.org/resource/The_King's_Choice", 'http://dbpedia.org/resource/The_Lego_Ninjago_Movie', 'http://dbpedia.org/resource/The_Mahabharata_(1989_film)', 'http://dbpedia.org/resource/The_Monastery:_Mr._Vig_and_the_Nun', 'http://dbpedia.org/resource/The_Perfect_Human', 'http://dbpedia.org/resource/The_Red_Meadows', 'http://dbpedia.org/resource/The_Thralls', 'http://dbpedia.org/resource/The_Viking_Watch_of_the_Danish_Seaman', 'http://dbpedia.org/resource/The_White_Slave_Trade', 'http://dbpedia.org/resource/Those_Blasted_Kids', 'http://dbpedia.org/resource/Torremolinos_73', 'http://dbpedia.org/resource/Valhalla_(1986_film)', 'http://dbpedia.org/resource/Vildledt_Elskov', "http://dbpedia.org/resource/We_Meet_at_Tove's", 'http://dbpedia.org/resource/Webmaster_(film)', 'http://dbpedia.org/resource/What_No_One_Knows', 'http://dbpedia.org/resource/You_Are_Not_Alone_(film)']</t>
+        </is>
+      </c>
+      <c r="D75" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>To which countries does the Himalayan mountain system extend?</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/India', 'http://dbpedia.org/resource/Kashmir']</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>['http://dbpedia.org/resource/India', 'http://dbpedia.org/resource/Kashmir']</t>
+        </is>
+      </c>
+      <c r="D76" t="b">
         <v>1</v>
       </c>
     </row>
